--- a/Code/Results/Cases/Case_4_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_37/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9863689066201971</v>
+        <v>0.9863689066201969</v>
       </c>
       <c r="D2">
         <v>1.007942941477608</v>
       </c>
       <c r="E2">
-        <v>0.9965872697709725</v>
+        <v>0.9965872697709723</v>
       </c>
       <c r="F2">
         <v>1.000955744772901</v>
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9973072647389206</v>
+        <v>0.9973072647389211</v>
       </c>
       <c r="D3">
-        <v>1.016491446635424</v>
+        <v>1.016491446635425</v>
       </c>
       <c r="E3">
-        <v>1.007007375205583</v>
+        <v>1.007007375205584</v>
       </c>
       <c r="F3">
-        <v>1.011597489557175</v>
+        <v>1.011597489557176</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -483,10 +483,10 @@
         <v>1.026917576688806</v>
       </c>
       <c r="L3">
-        <v>1.017551373681788</v>
+        <v>1.017551373681789</v>
       </c>
       <c r="M3">
-        <v>1.022084098125499</v>
+        <v>1.0220840981255</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,7 +497,7 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004063394971152</v>
+        <v>1.004063394971153</v>
       </c>
       <c r="D4">
         <v>1.021774828197934</v>
@@ -524,7 +524,7 @@
         <v>1.023388594813602</v>
       </c>
       <c r="M4">
-        <v>1.028065613649195</v>
+        <v>1.028065613649196</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,7 +541,7 @@
         <v>1.023941411216491</v>
       </c>
       <c r="E5">
-        <v>1.016092418406126</v>
+        <v>1.016092418406127</v>
       </c>
       <c r="F5">
         <v>1.02088367380034</v>
@@ -573,25 +573,25 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007294243217047</v>
+        <v>1.007294243217046</v>
       </c>
       <c r="D6">
-        <v>1.024302119764276</v>
+        <v>1.024302119764275</v>
       </c>
       <c r="E6">
         <v>1.016532420116188</v>
       </c>
       <c r="F6">
-        <v>1.021333615140174</v>
+        <v>1.021333615140173</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048546441996741</v>
+        <v>1.04854644199674</v>
       </c>
       <c r="J6">
-        <v>1.025987368055396</v>
+        <v>1.025987368055395</v>
       </c>
       <c r="K6">
         <v>1.033861838385316</v>
@@ -611,10 +611,10 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004100673763246</v>
+        <v>1.004100673763245</v>
       </c>
       <c r="D7">
-        <v>1.021803986623393</v>
+        <v>1.021803986623392</v>
       </c>
       <c r="E7">
         <v>1.013485393517868</v>
@@ -626,19 +626,19 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047348902135168</v>
+        <v>1.047348902135169</v>
       </c>
       <c r="J7">
-        <v>1.023394009870233</v>
+        <v>1.023394009870232</v>
       </c>
       <c r="K7">
-        <v>1.031643274978525</v>
+        <v>1.031643274978524</v>
       </c>
       <c r="L7">
-        <v>1.023420793533521</v>
+        <v>1.02342079353352</v>
       </c>
       <c r="M7">
-        <v>1.028098619979233</v>
+        <v>1.028098619979232</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,7 +649,7 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.990136402741435</v>
+        <v>0.9901364027414347</v>
       </c>
       <c r="D8">
         <v>1.010886447223278</v>
@@ -658,7 +658,7 @@
         <v>1.000174813692672</v>
       </c>
       <c r="F8">
-        <v>1.004618553153883</v>
+        <v>1.004618553153882</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -676,7 +676,7 @@
         <v>1.011352417536077</v>
       </c>
       <c r="M8">
-        <v>1.015736324548315</v>
+        <v>1.015736324548314</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9627143850632724</v>
+        <v>0.9627143850632769</v>
       </c>
       <c r="D9">
-        <v>0.9894875961878322</v>
+        <v>0.9894875961878355</v>
       </c>
       <c r="E9">
-        <v>0.9740975256606749</v>
+        <v>0.9740975256606793</v>
       </c>
       <c r="F9">
-        <v>0.9780171458734086</v>
+        <v>0.9780171458734123</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03157599459675</v>
+        <v>1.031575994596752</v>
       </c>
       <c r="J9">
-        <v>0.9896561643998869</v>
+        <v>0.9896561643998908</v>
       </c>
       <c r="K9">
-        <v>1.002753563934496</v>
+        <v>1.0027535639345</v>
       </c>
       <c r="L9">
-        <v>0.987625313876462</v>
+        <v>0.9876253138764661</v>
       </c>
       <c r="M9">
-        <v>0.9914772413935825</v>
+        <v>0.9914772413935861</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,13 +722,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9419224851262895</v>
+        <v>0.9419224851262892</v>
       </c>
       <c r="D10">
-        <v>0.973311572851007</v>
+        <v>0.9733115728510068</v>
       </c>
       <c r="E10">
         <v>0.9543799370846243</v>
@@ -743,16 +743,16 @@
         <v>1.023525154810975</v>
       </c>
       <c r="J10">
-        <v>0.9726461489705637</v>
+        <v>0.9726461489705636</v>
       </c>
       <c r="K10">
-        <v>0.9881800147273754</v>
+        <v>0.9881800147273753</v>
       </c>
       <c r="L10">
-        <v>0.9696248031952841</v>
+        <v>0.9696248031952842</v>
       </c>
       <c r="M10">
-        <v>0.9731081017714392</v>
+        <v>0.9731081017714391</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9321331974540614</v>
+        <v>0.9321331974540634</v>
       </c>
       <c r="D11">
-        <v>0.9657135226696588</v>
+        <v>0.9657135226696603</v>
       </c>
       <c r="E11">
-        <v>0.9451132507157537</v>
+        <v>0.9451132507157555</v>
       </c>
       <c r="F11">
-        <v>0.948506167751615</v>
+        <v>0.9485061677516169</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019715532927867</v>
+        <v>1.019715532927868</v>
       </c>
       <c r="J11">
-        <v>0.9646297223659724</v>
+        <v>0.9646297223659742</v>
       </c>
       <c r="K11">
-        <v>0.9813123521966667</v>
+        <v>0.9813123521966685</v>
       </c>
       <c r="L11">
-        <v>0.961150194266972</v>
+        <v>0.9611501942669737</v>
       </c>
       <c r="M11">
-        <v>0.9644692148860314</v>
+        <v>0.9644692148860331</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9283569457782747</v>
+        <v>0.9283569457782758</v>
       </c>
       <c r="D12">
-        <v>0.9627859413131662</v>
+        <v>0.9627859413131669</v>
       </c>
       <c r="E12">
-        <v>0.9415415315268229</v>
+        <v>0.9415415315268242</v>
       </c>
       <c r="F12">
-        <v>0.9448731696644274</v>
+        <v>0.9448731696644284</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.018243359308281</v>
+        <v>1.018243359308282</v>
       </c>
       <c r="J12">
-        <v>0.961536463894462</v>
+        <v>0.961536463894463</v>
       </c>
       <c r="K12">
-        <v>0.9786626048045972</v>
+        <v>0.9786626048045983</v>
       </c>
       <c r="L12">
-        <v>0.9578814719012181</v>
+        <v>0.9578814719012192</v>
       </c>
       <c r="M12">
-        <v>0.9611386229499338</v>
+        <v>0.9611386229499351</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9291737245242588</v>
+        <v>0.9291737245242579</v>
       </c>
       <c r="D13">
-        <v>0.9634189926933019</v>
+        <v>0.9634189926933013</v>
       </c>
       <c r="E13">
-        <v>0.9423139313470716</v>
+        <v>0.9423139313470703</v>
       </c>
       <c r="F13">
-        <v>0.9456587573720387</v>
+        <v>0.9456587573720375</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.018561892753354</v>
       </c>
       <c r="J13">
-        <v>0.9622055507862449</v>
+        <v>0.9622055507862439</v>
       </c>
       <c r="K13">
-        <v>0.9792357440953341</v>
+        <v>0.9792357440953333</v>
       </c>
       <c r="L13">
-        <v>0.9585884518406449</v>
+        <v>0.9585884518406436</v>
       </c>
       <c r="M13">
-        <v>0.961858915375653</v>
+        <v>0.9618589153756518</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9318240581253465</v>
+        <v>0.9318240581253459</v>
       </c>
       <c r="D14">
         <v>0.9654737860642622</v>
       </c>
       <c r="E14">
-        <v>0.9448207933489094</v>
+        <v>0.9448207933489087</v>
       </c>
       <c r="F14">
-        <v>0.9482086643137136</v>
+        <v>0.9482086643137131</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.01959506536571</v>
+        <v>1.019595065365709</v>
       </c>
       <c r="J14">
-        <v>0.9643765118620862</v>
+        <v>0.9643765118620857</v>
       </c>
       <c r="K14">
-        <v>0.9810954410116162</v>
+        <v>0.9810954410116161</v>
       </c>
       <c r="L14">
-        <v>0.9608825934045226</v>
+        <v>0.960882593404522</v>
       </c>
       <c r="M14">
-        <v>0.9641965181930849</v>
+        <v>0.9641965181930842</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9334376927993996</v>
+        <v>0.9334376927993967</v>
       </c>
       <c r="D15">
-        <v>0.9667252961025188</v>
+        <v>0.9667252961025166</v>
       </c>
       <c r="E15">
-        <v>0.9463474732150341</v>
+        <v>0.9463474732150314</v>
       </c>
       <c r="F15">
-        <v>0.9497617419224431</v>
+        <v>0.9497617419224405</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.020223774751168</v>
+        <v>1.020223774751166</v>
       </c>
       <c r="J15">
-        <v>0.9656981769318701</v>
+        <v>0.9656981769318672</v>
       </c>
       <c r="K15">
-        <v>0.9822276479548158</v>
+        <v>0.9822276479548135</v>
       </c>
       <c r="L15">
-        <v>0.9622794247806655</v>
+        <v>0.9622794247806629</v>
       </c>
       <c r="M15">
-        <v>0.9656200098166947</v>
+        <v>0.9656200098166919</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9425538633525901</v>
+        <v>0.9425538633525911</v>
       </c>
       <c r="D16">
-        <v>0.9738020424504941</v>
+        <v>0.973802042450495</v>
       </c>
       <c r="E16">
-        <v>0.9549779827351168</v>
+        <v>0.9549779827351178</v>
       </c>
       <c r="F16">
-        <v>0.9585441443036853</v>
+        <v>0.9585441443036858</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.023770495872855</v>
       </c>
       <c r="J16">
-        <v>0.9731630465312117</v>
+        <v>0.9731630465312125</v>
       </c>
       <c r="K16">
-        <v>0.9886228635943203</v>
+        <v>0.9886228635943209</v>
       </c>
       <c r="L16">
-        <v>0.9701714224079452</v>
+        <v>0.9701714224079462</v>
       </c>
       <c r="M16">
-        <v>0.9736655134682141</v>
+        <v>0.9736655134682146</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>0.9480479818542047</v>
+        <v>0.9480479818542007</v>
       </c>
       <c r="D17">
-        <v>0.978072052880007</v>
+        <v>0.9780720528800034</v>
       </c>
       <c r="E17">
-        <v>0.9601839395868412</v>
+        <v>0.9601839395868373</v>
       </c>
       <c r="F17">
-        <v>0.9638439686349887</v>
+        <v>0.9638439686349846</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025903317948977</v>
+        <v>1.025903317948975</v>
       </c>
       <c r="J17">
-        <v>0.9776601492228884</v>
+        <v>0.9776601492228847</v>
       </c>
       <c r="K17">
-        <v>0.9924758017135493</v>
+        <v>0.9924758017135459</v>
       </c>
       <c r="L17">
-        <v>0.9749280628715714</v>
+        <v>0.9749280628715675</v>
       </c>
       <c r="M17">
-        <v>0.9785171021731488</v>
+        <v>0.9785171021731448</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9511784961837905</v>
+        <v>0.9511784961837877</v>
       </c>
       <c r="D18">
-        <v>0.9805066761051414</v>
+        <v>0.9805066761051393</v>
       </c>
       <c r="E18">
-        <v>0.9631517701820606</v>
+        <v>0.9631517701820579</v>
       </c>
       <c r="F18">
-        <v>0.96686609015529</v>
+        <v>0.9668660901552877</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027116815494279</v>
+        <v>1.027116815494278</v>
       </c>
       <c r="J18">
-        <v>0.980221841577645</v>
+        <v>0.9802218415776425</v>
       </c>
       <c r="K18">
-        <v>0.9946705926974254</v>
+        <v>0.9946705926974232</v>
       </c>
       <c r="L18">
-        <v>0.977638382679905</v>
+        <v>0.9776383826799023</v>
       </c>
       <c r="M18">
-        <v>0.9812823658853373</v>
+        <v>0.9812823658853349</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9522339230933995</v>
+        <v>0.9522339230933988</v>
       </c>
       <c r="D19">
-        <v>0.981327742706994</v>
+        <v>0.9813277427069932</v>
       </c>
       <c r="E19">
-        <v>0.9641525951758548</v>
+        <v>0.9641525951758544</v>
       </c>
       <c r="F19">
-        <v>0.9678853530225744</v>
+        <v>0.9678853530225738</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.027525628780963</v>
       </c>
       <c r="J19">
-        <v>0.9810853646188724</v>
+        <v>0.9810853646188719</v>
       </c>
       <c r="K19">
-        <v>0.9954104383747977</v>
+        <v>0.9954104383747971</v>
       </c>
       <c r="L19">
-        <v>0.9785521391209117</v>
+        <v>0.9785521391209112</v>
       </c>
       <c r="M19">
-        <v>0.982214786488702</v>
+        <v>0.9822147864887013</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9474663204058722</v>
+        <v>0.9474663204058685</v>
       </c>
       <c r="D20">
-        <v>0.9776198164927624</v>
+        <v>0.9776198164927596</v>
       </c>
       <c r="E20">
-        <v>0.9596326257252809</v>
+        <v>0.9596326257252776</v>
       </c>
       <c r="F20">
-        <v>0.9632826323130362</v>
+        <v>0.9632826323130335</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025677699564895</v>
+        <v>1.025677699564893</v>
       </c>
       <c r="J20">
-        <v>0.9771841160778854</v>
+        <v>0.9771841160778822</v>
       </c>
       <c r="K20">
-        <v>0.9920679507977667</v>
+        <v>0.9920679507977639</v>
       </c>
       <c r="L20">
-        <v>0.9744244744678093</v>
+        <v>0.9744244744678063</v>
       </c>
       <c r="M20">
-        <v>0.9780033729703823</v>
+        <v>0.9780033729703795</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9310476753366576</v>
+        <v>0.9310476753366594</v>
       </c>
       <c r="D21">
-        <v>0.9648717604961909</v>
+        <v>0.9648717604961927</v>
       </c>
       <c r="E21">
-        <v>0.944086354769015</v>
+        <v>0.944086354769017</v>
       </c>
       <c r="F21">
-        <v>0.9474615761761167</v>
+        <v>0.9474615761761184</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.019292478589795</v>
       </c>
       <c r="J21">
-        <v>0.963740577317281</v>
+        <v>0.9637405773172829</v>
       </c>
       <c r="K21">
-        <v>0.9805506762028617</v>
+        <v>0.9805506762028633</v>
       </c>
       <c r="L21">
-        <v>0.9602105391427689</v>
+        <v>0.9602105391427711</v>
       </c>
       <c r="M21">
-        <v>0.9635116905134711</v>
+        <v>0.9635116905134726</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9198982073667892</v>
+        <v>0.9198982073667878</v>
       </c>
       <c r="D22">
-        <v>0.9562354599553845</v>
+        <v>0.9562354599553833</v>
       </c>
       <c r="E22">
-        <v>0.9335469739640531</v>
+        <v>0.9335469739640518</v>
       </c>
       <c r="F22">
-        <v>0.936744151643127</v>
+        <v>0.9367441516431259</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.014941246708877</v>
+        <v>1.014941246708876</v>
       </c>
       <c r="J22">
-        <v>0.9546063249732433</v>
+        <v>0.9546063249732418</v>
       </c>
       <c r="K22">
-        <v>0.9727267823910792</v>
+        <v>0.972726782391078</v>
       </c>
       <c r="L22">
-        <v>0.9505607552888233</v>
+        <v>0.9505607552888219</v>
       </c>
       <c r="M22">
-        <v>0.9536822568502824</v>
+        <v>0.9536822568502813</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9258961941733324</v>
+        <v>0.9258961941733327</v>
       </c>
       <c r="D23">
-        <v>0.9608792754742004</v>
+        <v>0.9608792754742006</v>
       </c>
       <c r="E23">
-        <v>0.9392149515126476</v>
+        <v>0.939214951512648</v>
       </c>
       <c r="F23">
-        <v>0.9425070771772275</v>
+        <v>0.9425070771772284</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.017283340908596</v>
       </c>
       <c r="J23">
-        <v>0.9595205650973285</v>
+        <v>0.9595205650973287</v>
       </c>
       <c r="K23">
-        <v>0.976935838177029</v>
+        <v>0.9769358381770292</v>
       </c>
       <c r="L23">
-        <v>0.9557516036404307</v>
+        <v>0.9557516036404313</v>
       </c>
       <c r="M23">
-        <v>0.9589688773088647</v>
+        <v>0.9589688773088654</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9477293756136267</v>
+        <v>0.9477293756136266</v>
       </c>
       <c r="D24">
-        <v>0.9778243345414239</v>
+        <v>0.9778243345414244</v>
       </c>
       <c r="E24">
-        <v>0.9598819516187405</v>
+        <v>0.95988195161874</v>
       </c>
       <c r="F24">
-        <v>0.9635364883363025</v>
+        <v>0.963536488336302</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025779740566382</v>
+        <v>1.025779740566383</v>
       </c>
       <c r="J24">
-        <v>0.9773994033924013</v>
+        <v>0.9773994033924014</v>
       </c>
       <c r="K24">
-        <v>0.9922524024111701</v>
+        <v>0.9922524024111704</v>
       </c>
       <c r="L24">
-        <v>0.9746522212728481</v>
+        <v>0.9746522212728476</v>
       </c>
       <c r="M24">
-        <v>0.9782357033080814</v>
+        <v>0.9782357033080813</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9701929262572628</v>
+        <v>0.9701929262572629</v>
       </c>
       <c r="D25">
-        <v>0.9953170636468252</v>
+        <v>0.9953170636468255</v>
       </c>
       <c r="E25">
-        <v>0.9812012734544987</v>
+        <v>0.9812012734544991</v>
       </c>
       <c r="F25">
-        <v>0.9852585846718777</v>
+        <v>0.9852585846718782</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.034454839082015</v>
       </c>
       <c r="J25">
-        <v>0.9957668096284039</v>
+        <v>0.9957668096284042</v>
       </c>
       <c r="K25">
-        <v>1.007988513774151</v>
+        <v>1.007988513774152</v>
       </c>
       <c r="L25">
-        <v>0.9940985980814762</v>
+        <v>0.9940985980814764</v>
       </c>
       <c r="M25">
-        <v>0.998090135483517</v>
+        <v>0.9980901354835177</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_37/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9863689066201969</v>
+        <v>0.9863689066201971</v>
       </c>
       <c r="D2">
         <v>1.007942941477608</v>
       </c>
       <c r="E2">
-        <v>0.9965872697709723</v>
+        <v>0.9965872697709725</v>
       </c>
       <c r="F2">
         <v>1.000955744772901</v>
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9973072647389211</v>
+        <v>0.9973072647389206</v>
       </c>
       <c r="D3">
-        <v>1.016491446635425</v>
+        <v>1.016491446635424</v>
       </c>
       <c r="E3">
-        <v>1.007007375205584</v>
+        <v>1.007007375205583</v>
       </c>
       <c r="F3">
-        <v>1.011597489557176</v>
+        <v>1.011597489557175</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -483,10 +483,10 @@
         <v>1.026917576688806</v>
       </c>
       <c r="L3">
-        <v>1.017551373681789</v>
+        <v>1.017551373681788</v>
       </c>
       <c r="M3">
-        <v>1.0220840981255</v>
+        <v>1.022084098125499</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,7 +497,7 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004063394971153</v>
+        <v>1.004063394971152</v>
       </c>
       <c r="D4">
         <v>1.021774828197934</v>
@@ -524,7 +524,7 @@
         <v>1.023388594813602</v>
       </c>
       <c r="M4">
-        <v>1.028065613649196</v>
+        <v>1.028065613649195</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,7 +541,7 @@
         <v>1.023941411216491</v>
       </c>
       <c r="E5">
-        <v>1.016092418406127</v>
+        <v>1.016092418406126</v>
       </c>
       <c r="F5">
         <v>1.02088367380034</v>
@@ -573,25 +573,25 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007294243217046</v>
+        <v>1.007294243217047</v>
       </c>
       <c r="D6">
-        <v>1.024302119764275</v>
+        <v>1.024302119764276</v>
       </c>
       <c r="E6">
         <v>1.016532420116188</v>
       </c>
       <c r="F6">
-        <v>1.021333615140173</v>
+        <v>1.021333615140174</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04854644199674</v>
+        <v>1.048546441996741</v>
       </c>
       <c r="J6">
-        <v>1.025987368055395</v>
+        <v>1.025987368055396</v>
       </c>
       <c r="K6">
         <v>1.033861838385316</v>
@@ -611,10 +611,10 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004100673763245</v>
+        <v>1.004100673763246</v>
       </c>
       <c r="D7">
-        <v>1.021803986623392</v>
+        <v>1.021803986623393</v>
       </c>
       <c r="E7">
         <v>1.013485393517868</v>
@@ -626,19 +626,19 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047348902135169</v>
+        <v>1.047348902135168</v>
       </c>
       <c r="J7">
-        <v>1.023394009870232</v>
+        <v>1.023394009870233</v>
       </c>
       <c r="K7">
-        <v>1.031643274978524</v>
+        <v>1.031643274978525</v>
       </c>
       <c r="L7">
-        <v>1.02342079353352</v>
+        <v>1.023420793533521</v>
       </c>
       <c r="M7">
-        <v>1.028098619979232</v>
+        <v>1.028098619979233</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,7 +649,7 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9901364027414347</v>
+        <v>0.990136402741435</v>
       </c>
       <c r="D8">
         <v>1.010886447223278</v>
@@ -658,7 +658,7 @@
         <v>1.000174813692672</v>
       </c>
       <c r="F8">
-        <v>1.004618553153882</v>
+        <v>1.004618553153883</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -676,7 +676,7 @@
         <v>1.011352417536077</v>
       </c>
       <c r="M8">
-        <v>1.015736324548314</v>
+        <v>1.015736324548315</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9627143850632769</v>
+        <v>0.9627143850632724</v>
       </c>
       <c r="D9">
-        <v>0.9894875961878355</v>
+        <v>0.9894875961878322</v>
       </c>
       <c r="E9">
-        <v>0.9740975256606793</v>
+        <v>0.9740975256606749</v>
       </c>
       <c r="F9">
-        <v>0.9780171458734123</v>
+        <v>0.9780171458734086</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031575994596752</v>
+        <v>1.03157599459675</v>
       </c>
       <c r="J9">
-        <v>0.9896561643998908</v>
+        <v>0.9896561643998869</v>
       </c>
       <c r="K9">
-        <v>1.0027535639345</v>
+        <v>1.002753563934496</v>
       </c>
       <c r="L9">
-        <v>0.9876253138764661</v>
+        <v>0.987625313876462</v>
       </c>
       <c r="M9">
-        <v>0.9914772413935861</v>
+        <v>0.9914772413935825</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,13 +722,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C10">
-        <v>0.9419224851262892</v>
+        <v>0.9419224851262895</v>
       </c>
       <c r="D10">
-        <v>0.9733115728510068</v>
+        <v>0.973311572851007</v>
       </c>
       <c r="E10">
         <v>0.9543799370846243</v>
@@ -743,16 +743,16 @@
         <v>1.023525154810975</v>
       </c>
       <c r="J10">
-        <v>0.9726461489705636</v>
+        <v>0.9726461489705637</v>
       </c>
       <c r="K10">
-        <v>0.9881800147273753</v>
+        <v>0.9881800147273754</v>
       </c>
       <c r="L10">
-        <v>0.9696248031952842</v>
+        <v>0.9696248031952841</v>
       </c>
       <c r="M10">
-        <v>0.9731081017714391</v>
+        <v>0.9731081017714392</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9321331974540634</v>
+        <v>0.9321331974540614</v>
       </c>
       <c r="D11">
-        <v>0.9657135226696603</v>
+        <v>0.9657135226696588</v>
       </c>
       <c r="E11">
-        <v>0.9451132507157555</v>
+        <v>0.9451132507157537</v>
       </c>
       <c r="F11">
-        <v>0.9485061677516169</v>
+        <v>0.948506167751615</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019715532927868</v>
+        <v>1.019715532927867</v>
       </c>
       <c r="J11">
-        <v>0.9646297223659742</v>
+        <v>0.9646297223659724</v>
       </c>
       <c r="K11">
-        <v>0.9813123521966685</v>
+        <v>0.9813123521966667</v>
       </c>
       <c r="L11">
-        <v>0.9611501942669737</v>
+        <v>0.961150194266972</v>
       </c>
       <c r="M11">
-        <v>0.9644692148860331</v>
+        <v>0.9644692148860314</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9283569457782758</v>
+        <v>0.9283569457782747</v>
       </c>
       <c r="D12">
-        <v>0.9627859413131669</v>
+        <v>0.9627859413131662</v>
       </c>
       <c r="E12">
-        <v>0.9415415315268242</v>
+        <v>0.9415415315268229</v>
       </c>
       <c r="F12">
-        <v>0.9448731696644284</v>
+        <v>0.9448731696644274</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.018243359308282</v>
+        <v>1.018243359308281</v>
       </c>
       <c r="J12">
-        <v>0.961536463894463</v>
+        <v>0.961536463894462</v>
       </c>
       <c r="K12">
-        <v>0.9786626048045983</v>
+        <v>0.9786626048045972</v>
       </c>
       <c r="L12">
-        <v>0.9578814719012192</v>
+        <v>0.9578814719012181</v>
       </c>
       <c r="M12">
-        <v>0.9611386229499351</v>
+        <v>0.9611386229499338</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9291737245242579</v>
+        <v>0.9291737245242588</v>
       </c>
       <c r="D13">
-        <v>0.9634189926933013</v>
+        <v>0.9634189926933019</v>
       </c>
       <c r="E13">
-        <v>0.9423139313470703</v>
+        <v>0.9423139313470716</v>
       </c>
       <c r="F13">
-        <v>0.9456587573720375</v>
+        <v>0.9456587573720387</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.018561892753354</v>
       </c>
       <c r="J13">
-        <v>0.9622055507862439</v>
+        <v>0.9622055507862449</v>
       </c>
       <c r="K13">
-        <v>0.9792357440953333</v>
+        <v>0.9792357440953341</v>
       </c>
       <c r="L13">
-        <v>0.9585884518406436</v>
+        <v>0.9585884518406449</v>
       </c>
       <c r="M13">
-        <v>0.9618589153756518</v>
+        <v>0.961858915375653</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9318240581253459</v>
+        <v>0.9318240581253465</v>
       </c>
       <c r="D14">
         <v>0.9654737860642622</v>
       </c>
       <c r="E14">
-        <v>0.9448207933489087</v>
+        <v>0.9448207933489094</v>
       </c>
       <c r="F14">
-        <v>0.9482086643137131</v>
+        <v>0.9482086643137136</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.019595065365709</v>
+        <v>1.01959506536571</v>
       </c>
       <c r="J14">
-        <v>0.9643765118620857</v>
+        <v>0.9643765118620862</v>
       </c>
       <c r="K14">
-        <v>0.9810954410116161</v>
+        <v>0.9810954410116162</v>
       </c>
       <c r="L14">
-        <v>0.960882593404522</v>
+        <v>0.9608825934045226</v>
       </c>
       <c r="M14">
-        <v>0.9641965181930842</v>
+        <v>0.9641965181930849</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9334376927993967</v>
+        <v>0.9334376927993996</v>
       </c>
       <c r="D15">
-        <v>0.9667252961025166</v>
+        <v>0.9667252961025188</v>
       </c>
       <c r="E15">
-        <v>0.9463474732150314</v>
+        <v>0.9463474732150341</v>
       </c>
       <c r="F15">
-        <v>0.9497617419224405</v>
+        <v>0.9497617419224431</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.020223774751166</v>
+        <v>1.020223774751168</v>
       </c>
       <c r="J15">
-        <v>0.9656981769318672</v>
+        <v>0.9656981769318701</v>
       </c>
       <c r="K15">
-        <v>0.9822276479548135</v>
+        <v>0.9822276479548158</v>
       </c>
       <c r="L15">
-        <v>0.9622794247806629</v>
+        <v>0.9622794247806655</v>
       </c>
       <c r="M15">
-        <v>0.9656200098166919</v>
+        <v>0.9656200098166947</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9425538633525911</v>
+        <v>0.9425538633525901</v>
       </c>
       <c r="D16">
-        <v>0.973802042450495</v>
+        <v>0.9738020424504941</v>
       </c>
       <c r="E16">
-        <v>0.9549779827351178</v>
+        <v>0.9549779827351168</v>
       </c>
       <c r="F16">
-        <v>0.9585441443036858</v>
+        <v>0.9585441443036853</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.023770495872855</v>
       </c>
       <c r="J16">
-        <v>0.9731630465312125</v>
+        <v>0.9731630465312117</v>
       </c>
       <c r="K16">
-        <v>0.9886228635943209</v>
+        <v>0.9886228635943203</v>
       </c>
       <c r="L16">
-        <v>0.9701714224079462</v>
+        <v>0.9701714224079452</v>
       </c>
       <c r="M16">
-        <v>0.9736655134682146</v>
+        <v>0.9736655134682141</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9480479818542007</v>
+        <v>0.9480479818542047</v>
       </c>
       <c r="D17">
-        <v>0.9780720528800034</v>
+        <v>0.978072052880007</v>
       </c>
       <c r="E17">
-        <v>0.9601839395868373</v>
+        <v>0.9601839395868412</v>
       </c>
       <c r="F17">
-        <v>0.9638439686349846</v>
+        <v>0.9638439686349887</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025903317948975</v>
+        <v>1.025903317948977</v>
       </c>
       <c r="J17">
-        <v>0.9776601492228847</v>
+        <v>0.9776601492228884</v>
       </c>
       <c r="K17">
-        <v>0.9924758017135459</v>
+        <v>0.9924758017135493</v>
       </c>
       <c r="L17">
-        <v>0.9749280628715675</v>
+        <v>0.9749280628715714</v>
       </c>
       <c r="M17">
-        <v>0.9785171021731448</v>
+        <v>0.9785171021731488</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9511784961837877</v>
+        <v>0.9511784961837905</v>
       </c>
       <c r="D18">
-        <v>0.9805066761051393</v>
+        <v>0.9805066761051414</v>
       </c>
       <c r="E18">
-        <v>0.9631517701820579</v>
+        <v>0.9631517701820606</v>
       </c>
       <c r="F18">
-        <v>0.9668660901552877</v>
+        <v>0.96686609015529</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027116815494278</v>
+        <v>1.027116815494279</v>
       </c>
       <c r="J18">
-        <v>0.9802218415776425</v>
+        <v>0.980221841577645</v>
       </c>
       <c r="K18">
-        <v>0.9946705926974232</v>
+        <v>0.9946705926974254</v>
       </c>
       <c r="L18">
-        <v>0.9776383826799023</v>
+        <v>0.977638382679905</v>
       </c>
       <c r="M18">
-        <v>0.9812823658853349</v>
+        <v>0.9812823658853373</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9522339230933988</v>
+        <v>0.9522339230933995</v>
       </c>
       <c r="D19">
-        <v>0.9813277427069932</v>
+        <v>0.981327742706994</v>
       </c>
       <c r="E19">
-        <v>0.9641525951758544</v>
+        <v>0.9641525951758548</v>
       </c>
       <c r="F19">
-        <v>0.9678853530225738</v>
+        <v>0.9678853530225744</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.027525628780963</v>
       </c>
       <c r="J19">
-        <v>0.9810853646188719</v>
+        <v>0.9810853646188724</v>
       </c>
       <c r="K19">
-        <v>0.9954104383747971</v>
+        <v>0.9954104383747977</v>
       </c>
       <c r="L19">
-        <v>0.9785521391209112</v>
+        <v>0.9785521391209117</v>
       </c>
       <c r="M19">
-        <v>0.9822147864887013</v>
+        <v>0.982214786488702</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9474663204058685</v>
+        <v>0.9474663204058722</v>
       </c>
       <c r="D20">
-        <v>0.9776198164927596</v>
+        <v>0.9776198164927624</v>
       </c>
       <c r="E20">
-        <v>0.9596326257252776</v>
+        <v>0.9596326257252809</v>
       </c>
       <c r="F20">
-        <v>0.9632826323130335</v>
+        <v>0.9632826323130362</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025677699564893</v>
+        <v>1.025677699564895</v>
       </c>
       <c r="J20">
-        <v>0.9771841160778822</v>
+        <v>0.9771841160778854</v>
       </c>
       <c r="K20">
-        <v>0.9920679507977639</v>
+        <v>0.9920679507977667</v>
       </c>
       <c r="L20">
-        <v>0.9744244744678063</v>
+        <v>0.9744244744678093</v>
       </c>
       <c r="M20">
-        <v>0.9780033729703795</v>
+        <v>0.9780033729703823</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9310476753366594</v>
+        <v>0.9310476753366576</v>
       </c>
       <c r="D21">
-        <v>0.9648717604961927</v>
+        <v>0.9648717604961909</v>
       </c>
       <c r="E21">
-        <v>0.944086354769017</v>
+        <v>0.944086354769015</v>
       </c>
       <c r="F21">
-        <v>0.9474615761761184</v>
+        <v>0.9474615761761167</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.019292478589795</v>
       </c>
       <c r="J21">
-        <v>0.9637405773172829</v>
+        <v>0.963740577317281</v>
       </c>
       <c r="K21">
-        <v>0.9805506762028633</v>
+        <v>0.9805506762028617</v>
       </c>
       <c r="L21">
-        <v>0.9602105391427711</v>
+        <v>0.9602105391427689</v>
       </c>
       <c r="M21">
-        <v>0.9635116905134726</v>
+        <v>0.9635116905134711</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9198982073667878</v>
+        <v>0.9198982073667892</v>
       </c>
       <c r="D22">
-        <v>0.9562354599553833</v>
+        <v>0.9562354599553845</v>
       </c>
       <c r="E22">
-        <v>0.9335469739640518</v>
+        <v>0.9335469739640531</v>
       </c>
       <c r="F22">
-        <v>0.9367441516431259</v>
+        <v>0.936744151643127</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.014941246708876</v>
+        <v>1.014941246708877</v>
       </c>
       <c r="J22">
-        <v>0.9546063249732418</v>
+        <v>0.9546063249732433</v>
       </c>
       <c r="K22">
-        <v>0.972726782391078</v>
+        <v>0.9727267823910792</v>
       </c>
       <c r="L22">
-        <v>0.9505607552888219</v>
+        <v>0.9505607552888233</v>
       </c>
       <c r="M22">
-        <v>0.9536822568502813</v>
+        <v>0.9536822568502824</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9258961941733327</v>
+        <v>0.9258961941733324</v>
       </c>
       <c r="D23">
-        <v>0.9608792754742006</v>
+        <v>0.9608792754742004</v>
       </c>
       <c r="E23">
-        <v>0.939214951512648</v>
+        <v>0.9392149515126476</v>
       </c>
       <c r="F23">
-        <v>0.9425070771772284</v>
+        <v>0.9425070771772275</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.017283340908596</v>
       </c>
       <c r="J23">
-        <v>0.9595205650973287</v>
+        <v>0.9595205650973285</v>
       </c>
       <c r="K23">
-        <v>0.9769358381770292</v>
+        <v>0.976935838177029</v>
       </c>
       <c r="L23">
-        <v>0.9557516036404313</v>
+        <v>0.9557516036404307</v>
       </c>
       <c r="M23">
-        <v>0.9589688773088654</v>
+        <v>0.9589688773088647</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9477293756136266</v>
+        <v>0.9477293756136267</v>
       </c>
       <c r="D24">
-        <v>0.9778243345414244</v>
+        <v>0.9778243345414239</v>
       </c>
       <c r="E24">
-        <v>0.95988195161874</v>
+        <v>0.9598819516187405</v>
       </c>
       <c r="F24">
-        <v>0.963536488336302</v>
+        <v>0.9635364883363025</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025779740566383</v>
+        <v>1.025779740566382</v>
       </c>
       <c r="J24">
-        <v>0.9773994033924014</v>
+        <v>0.9773994033924013</v>
       </c>
       <c r="K24">
-        <v>0.9922524024111704</v>
+        <v>0.9922524024111701</v>
       </c>
       <c r="L24">
-        <v>0.9746522212728476</v>
+        <v>0.9746522212728481</v>
       </c>
       <c r="M24">
-        <v>0.9782357033080813</v>
+        <v>0.9782357033080814</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9701929262572629</v>
+        <v>0.9701929262572628</v>
       </c>
       <c r="D25">
-        <v>0.9953170636468255</v>
+        <v>0.9953170636468252</v>
       </c>
       <c r="E25">
-        <v>0.9812012734544991</v>
+        <v>0.9812012734544987</v>
       </c>
       <c r="F25">
-        <v>0.9852585846718782</v>
+        <v>0.9852585846718777</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.034454839082015</v>
       </c>
       <c r="J25">
-        <v>0.9957668096284042</v>
+        <v>0.9957668096284039</v>
       </c>
       <c r="K25">
-        <v>1.007988513774152</v>
+        <v>1.007988513774151</v>
       </c>
       <c r="L25">
-        <v>0.9940985980814764</v>
+        <v>0.9940985980814762</v>
       </c>
       <c r="M25">
-        <v>0.9980901354835177</v>
+        <v>0.998090135483517</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_37/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9863689066201971</v>
+        <v>0.9864464856435449</v>
       </c>
       <c r="D2">
-        <v>1.007942941477608</v>
+        <v>1.008005507553935</v>
       </c>
       <c r="E2">
-        <v>0.9965872697709725</v>
+        <v>0.9966636079510177</v>
       </c>
       <c r="F2">
-        <v>1.000955744772901</v>
+        <v>1.001025118953598</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040642624471436</v>
+        <v>1.040676352183503</v>
       </c>
       <c r="J2">
-        <v>1.008965108235591</v>
+        <v>1.009040277681272</v>
       </c>
       <c r="K2">
-        <v>1.019292716611695</v>
+        <v>1.019354428322874</v>
       </c>
       <c r="L2">
-        <v>1.008094354997356</v>
+        <v>1.008169620548747</v>
       </c>
       <c r="M2">
-        <v>1.012401780592677</v>
+        <v>1.012470190692297</v>
+      </c>
+      <c r="N2">
+        <v>1.000861333144076</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9973072647389206</v>
+        <v>0.9973676702841452</v>
       </c>
       <c r="D3">
-        <v>1.016491446635424</v>
+        <v>1.016540247323012</v>
       </c>
       <c r="E3">
-        <v>1.007007375205583</v>
+        <v>1.007066885860773</v>
       </c>
       <c r="F3">
-        <v>1.011597489557175</v>
+        <v>1.011651458208155</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044790444918154</v>
+        <v>1.044816778549518</v>
       </c>
       <c r="J3">
-        <v>1.017871606574165</v>
+        <v>1.017930353398252</v>
       </c>
       <c r="K3">
-        <v>1.026917576688806</v>
+        <v>1.026965777955463</v>
       </c>
       <c r="L3">
-        <v>1.017551373681788</v>
+        <v>1.017610136104217</v>
       </c>
       <c r="M3">
-        <v>1.022084098125499</v>
+        <v>1.022137395868612</v>
+      </c>
+      <c r="N3">
+        <v>1.007904980498542</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004063394971152</v>
+        <v>1.004113668781125</v>
       </c>
       <c r="D4">
-        <v>1.021774828197934</v>
+        <v>1.021815485302716</v>
       </c>
       <c r="E4">
-        <v>1.013449831846824</v>
+        <v>1.013499395541035</v>
       </c>
       <c r="F4">
-        <v>1.018181783902083</v>
+        <v>1.018226675704544</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047334902884044</v>
+        <v>1.04735685626242</v>
       </c>
       <c r="J4">
-        <v>1.023363726746318</v>
+        <v>1.023412728651584</v>
       </c>
       <c r="K4">
-        <v>1.031617365767884</v>
+        <v>1.031657557681461</v>
       </c>
       <c r="L4">
-        <v>1.023388594813602</v>
+        <v>1.0234375798353</v>
       </c>
       <c r="M4">
-        <v>1.028065613649195</v>
+        <v>1.028109987323091</v>
+      </c>
+      <c r="N4">
+        <v>1.012228897385195</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006833151679444</v>
+        <v>1.006879369926275</v>
       </c>
       <c r="D5">
-        <v>1.023941411216491</v>
+        <v>1.023978803883339</v>
       </c>
       <c r="E5">
-        <v>1.016092418406126</v>
+        <v>1.016137996496537</v>
       </c>
       <c r="F5">
-        <v>1.02088367380034</v>
+        <v>1.020924934894076</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048373754828117</v>
+        <v>1.0483939509835</v>
       </c>
       <c r="J5">
-        <v>1.025613048905431</v>
+        <v>1.025658138144756</v>
       </c>
       <c r="K5">
-        <v>1.03354164446198</v>
+        <v>1.033578622132957</v>
       </c>
       <c r="L5">
-        <v>1.025780595393507</v>
+        <v>1.025825657973121</v>
       </c>
       <c r="M5">
-        <v>1.030517969430078</v>
+        <v>1.030558769214657</v>
+      </c>
+      <c r="N5">
+        <v>1.013995101456419</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007294243217047</v>
+        <v>1.007339791678272</v>
       </c>
       <c r="D6">
-        <v>1.024302119764276</v>
+        <v>1.024338973042834</v>
       </c>
       <c r="E6">
-        <v>1.016532420116188</v>
+        <v>1.016577339755568</v>
       </c>
       <c r="F6">
-        <v>1.021333615140174</v>
+        <v>1.021374276760583</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048546441996741</v>
+        <v>1.04856634772533</v>
       </c>
       <c r="J6">
-        <v>1.025987368055396</v>
+        <v>1.026031810445746</v>
       </c>
       <c r="K6">
-        <v>1.033861838385316</v>
+        <v>1.03389828475888</v>
       </c>
       <c r="L6">
-        <v>1.026178736951634</v>
+        <v>1.026223151247839</v>
       </c>
       <c r="M6">
-        <v>1.030926228290801</v>
+        <v>1.030966437743772</v>
+      </c>
+      <c r="N6">
+        <v>1.014288747715663</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004100673763246</v>
+        <v>1.004150892618223</v>
       </c>
       <c r="D7">
-        <v>1.021803986623393</v>
+        <v>1.021844599511311</v>
       </c>
       <c r="E7">
-        <v>1.013485393517868</v>
+        <v>1.013534903220328</v>
       </c>
       <c r="F7">
-        <v>1.018218139200498</v>
+        <v>1.018262981794856</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047348902135168</v>
+        <v>1.04737083171727</v>
       </c>
       <c r="J7">
-        <v>1.023394009870233</v>
+        <v>1.023442958802764</v>
       </c>
       <c r="K7">
-        <v>1.031643274978525</v>
+        <v>1.031683423369135</v>
       </c>
       <c r="L7">
-        <v>1.023420793533521</v>
+        <v>1.023469725437558</v>
       </c>
       <c r="M7">
-        <v>1.028098619979233</v>
+        <v>1.028142945231698</v>
+      </c>
+      <c r="N7">
+        <v>1.012252694753452</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.990136402741435</v>
+        <v>0.990207954183554</v>
       </c>
       <c r="D8">
-        <v>1.010886447223278</v>
+        <v>1.010944187340856</v>
       </c>
       <c r="E8">
-        <v>1.000174813692672</v>
+        <v>1.000245250413104</v>
       </c>
       <c r="F8">
-        <v>1.004618553153883</v>
+        <v>1.004682517496604</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042074926415286</v>
+        <v>1.042106063211713</v>
       </c>
       <c r="J8">
-        <v>1.012034647998028</v>
+        <v>1.012104066827686</v>
       </c>
       <c r="K8">
-        <v>1.021920946552529</v>
+        <v>1.021977925583542</v>
       </c>
       <c r="L8">
-        <v>1.011352417536077</v>
+        <v>1.011421900650344</v>
       </c>
       <c r="M8">
-        <v>1.015736324548315</v>
+        <v>1.015799432501596</v>
+      </c>
+      <c r="N8">
+        <v>1.003293024616957</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9627143850632724</v>
+        <v>0.9628328551435378</v>
       </c>
       <c r="D9">
-        <v>0.9894875961878322</v>
+        <v>0.9895827481822013</v>
       </c>
       <c r="E9">
-        <v>0.9740975256606749</v>
+        <v>0.9742137660523816</v>
       </c>
       <c r="F9">
-        <v>0.9780171458734086</v>
+        <v>0.9781232916572004</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03157599459675</v>
+        <v>1.031627183810905</v>
       </c>
       <c r="J9">
-        <v>0.9896561643998869</v>
+        <v>0.9897699796713708</v>
       </c>
       <c r="K9">
-        <v>1.002753563934496</v>
+        <v>1.002847129806579</v>
       </c>
       <c r="L9">
-        <v>0.987625313876462</v>
+        <v>0.9877395366282988</v>
       </c>
       <c r="M9">
-        <v>0.9914772413935825</v>
+        <v>0.9915815637695312</v>
+      </c>
+      <c r="N9">
+        <v>0.98547721784106</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9419224851262895</v>
+        <v>0.9420820646952962</v>
       </c>
       <c r="D10">
-        <v>0.973311572851007</v>
+        <v>0.9734392232647139</v>
       </c>
       <c r="E10">
-        <v>0.9543799370846243</v>
+        <v>0.9545360647830535</v>
       </c>
       <c r="F10">
-        <v>0.9579354250949563</v>
+        <v>0.9580786446739457</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023525154810975</v>
+        <v>1.023593711820488</v>
       </c>
       <c r="J10">
-        <v>0.9726461489705637</v>
+        <v>0.9727982195858649</v>
       </c>
       <c r="K10">
-        <v>0.9881800147273754</v>
+        <v>0.9883051921469503</v>
       </c>
       <c r="L10">
-        <v>0.9696248031952841</v>
+        <v>0.9697777460466301</v>
       </c>
       <c r="M10">
-        <v>0.9731081017714392</v>
+        <v>0.9732484282507097</v>
+      </c>
+      <c r="N10">
+        <v>0.9718210061064937</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9321331974540614</v>
+        <v>0.9323141757713477</v>
       </c>
       <c r="D11">
-        <v>0.9657135226696588</v>
+        <v>0.9658579902513986</v>
       </c>
       <c r="E11">
-        <v>0.9451132507157537</v>
+        <v>0.9452900545074081</v>
       </c>
       <c r="F11">
-        <v>0.948506167751615</v>
+        <v>0.9486687191757573</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019715532927867</v>
+        <v>1.019793062589135</v>
       </c>
       <c r="J11">
-        <v>0.9646297223659724</v>
+        <v>0.9648014906948815</v>
       </c>
       <c r="K11">
-        <v>0.9813123521966667</v>
+        <v>0.9814538344389181</v>
       </c>
       <c r="L11">
-        <v>0.961150194266972</v>
+        <v>0.9613231299313416</v>
       </c>
       <c r="M11">
-        <v>0.9644692148860314</v>
+        <v>0.9646282436149597</v>
+      </c>
+      <c r="N11">
+        <v>0.9653580719889722</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9283569457782747</v>
+        <v>0.9285465777334189</v>
       </c>
       <c r="D12">
-        <v>0.9627859413131662</v>
+        <v>0.9629371911406532</v>
       </c>
       <c r="E12">
-        <v>0.9415415315268229</v>
+        <v>0.9417266805434392</v>
       </c>
       <c r="F12">
-        <v>0.9448731696644274</v>
+        <v>0.9450435444831717</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.018243359308281</v>
+        <v>1.018324505089647</v>
       </c>
       <c r="J12">
-        <v>0.961536463894462</v>
+        <v>0.9617161588615575</v>
       </c>
       <c r="K12">
-        <v>0.9786626048045972</v>
+        <v>0.9788106533261344</v>
       </c>
       <c r="L12">
-        <v>0.9578814719012181</v>
+        <v>0.9580624630161575</v>
       </c>
       <c r="M12">
-        <v>0.9611386229499338</v>
+        <v>0.9613052074055304</v>
+      </c>
+      <c r="N12">
+        <v>0.9628602306684244</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9291737245242588</v>
+        <v>0.9293614649476453</v>
       </c>
       <c r="D13">
-        <v>0.9634189926933019</v>
+        <v>0.9635687609429862</v>
       </c>
       <c r="E13">
-        <v>0.9423139313470716</v>
+        <v>0.9424972570277097</v>
       </c>
       <c r="F13">
-        <v>0.9456587573720387</v>
+        <v>0.9458274218766461</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.018561892753354</v>
+        <v>1.018642248711264</v>
       </c>
       <c r="J13">
-        <v>0.9622055507862449</v>
+        <v>0.9623835150018871</v>
       </c>
       <c r="K13">
-        <v>0.9792357440953341</v>
+        <v>0.9793823586577547</v>
       </c>
       <c r="L13">
-        <v>0.9585884518406449</v>
+        <v>0.9587676835979391</v>
       </c>
       <c r="M13">
-        <v>0.961858915375653</v>
+        <v>0.9620238486467969</v>
+      </c>
+      <c r="N13">
+        <v>0.9634007056938393</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9318240581253465</v>
+        <v>0.9320057361762871</v>
       </c>
       <c r="D14">
-        <v>0.9654737860642622</v>
+        <v>0.9656188024521059</v>
       </c>
       <c r="E14">
-        <v>0.9448207933489094</v>
+        <v>0.9449982722775375</v>
       </c>
       <c r="F14">
-        <v>0.9482086643137136</v>
+        <v>0.9483718482238095</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.01959506536571</v>
+        <v>1.019672887687425</v>
       </c>
       <c r="J14">
-        <v>0.9643765118620862</v>
+        <v>0.9645489219583935</v>
       </c>
       <c r="K14">
-        <v>0.9810954410116162</v>
+        <v>0.9812374547780496</v>
       </c>
       <c r="L14">
-        <v>0.9608825934045226</v>
+        <v>0.9610561810547601</v>
       </c>
       <c r="M14">
-        <v>0.9641965181930849</v>
+        <v>0.9643561580369185</v>
+      </c>
+      <c r="N14">
+        <v>0.9651536822416912</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9334376927993996</v>
+        <v>0.9336157351210563</v>
       </c>
       <c r="D15">
-        <v>0.9667252961025188</v>
+        <v>0.966867460202632</v>
       </c>
       <c r="E15">
-        <v>0.9463474732150341</v>
+        <v>0.9465214435559444</v>
       </c>
       <c r="F15">
-        <v>0.9497617419224431</v>
+        <v>0.949921639738753</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.020223774751168</v>
+        <v>1.020300075940495</v>
       </c>
       <c r="J15">
-        <v>0.9656981769318701</v>
+        <v>0.9658672508958405</v>
       </c>
       <c r="K15">
-        <v>0.9822276479548158</v>
+        <v>0.9823668988743014</v>
       </c>
       <c r="L15">
-        <v>0.9622794247806655</v>
+        <v>0.9624496235884866</v>
       </c>
       <c r="M15">
-        <v>0.9656200098166947</v>
+        <v>0.9657764740783977</v>
+      </c>
+      <c r="N15">
+        <v>0.9662203593125545</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9425538633525901</v>
+        <v>0.9427121111987508</v>
       </c>
       <c r="D16">
-        <v>0.9738020424504941</v>
+        <v>0.9739286440676539</v>
       </c>
       <c r="E16">
-        <v>0.9549779827351168</v>
+        <v>0.9551328217676863</v>
       </c>
       <c r="F16">
-        <v>0.9585441443036853</v>
+        <v>0.9586861614908138</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023770495872855</v>
+        <v>1.023838492997885</v>
       </c>
       <c r="J16">
-        <v>0.9731630465312117</v>
+        <v>0.9733138865942409</v>
       </c>
       <c r="K16">
-        <v>0.9886228635943203</v>
+        <v>0.9887470230283179</v>
       </c>
       <c r="L16">
-        <v>0.9701714224079452</v>
+        <v>0.9703231174876822</v>
       </c>
       <c r="M16">
-        <v>0.9736655134682141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9738046751631942</v>
+      </c>
+      <c r="N16">
+        <v>0.9722371874220962</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9480479818542047</v>
+        <v>0.9481948740768662</v>
       </c>
       <c r="D17">
-        <v>0.978072052880007</v>
+        <v>0.9781897007251013</v>
       </c>
       <c r="E17">
-        <v>0.9601839395868412</v>
+        <v>0.960327780851549</v>
       </c>
       <c r="F17">
-        <v>0.9638439686349887</v>
+        <v>0.9639757365934648</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025903317948977</v>
+        <v>1.025966533664591</v>
       </c>
       <c r="J17">
-        <v>0.9776601492228884</v>
+        <v>0.9778004732816598</v>
       </c>
       <c r="K17">
-        <v>0.9924758017135493</v>
+        <v>0.992591264700504</v>
       </c>
       <c r="L17">
-        <v>0.9749280628715714</v>
+        <v>0.9750691008009815</v>
       </c>
       <c r="M17">
-        <v>0.9785171021731488</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9786463275358082</v>
+      </c>
+      <c r="N17">
+        <v>0.9758550555143081</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9511784961837905</v>
+        <v>0.9513190982642079</v>
       </c>
       <c r="D18">
-        <v>0.9805066761051414</v>
+        <v>0.9806193559557825</v>
       </c>
       <c r="E18">
-        <v>0.9631517701820606</v>
+        <v>0.9632895123003771</v>
       </c>
       <c r="F18">
-        <v>0.96686609015529</v>
+        <v>0.966992183708009</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027116815494279</v>
+        <v>1.027177376989208</v>
       </c>
       <c r="J18">
-        <v>0.980221841577645</v>
+        <v>0.9803563224884542</v>
       </c>
       <c r="K18">
-        <v>0.9946705926974254</v>
+        <v>0.9947812259376093</v>
       </c>
       <c r="L18">
-        <v>0.977638382679905</v>
+        <v>0.9777735037578141</v>
       </c>
       <c r="M18">
-        <v>0.9812823658853373</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.981406084037408</v>
+      </c>
+      <c r="N18">
+        <v>0.9779134231440254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9522339230933995</v>
+        <v>0.9523724329234365</v>
       </c>
       <c r="D19">
-        <v>0.981327742706994</v>
+        <v>0.9814387687623207</v>
       </c>
       <c r="E19">
-        <v>0.9641525951758548</v>
+        <v>0.9642883074201598</v>
       </c>
       <c r="F19">
-        <v>0.9678853530225744</v>
+        <v>0.9680095596077285</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027525628780963</v>
+        <v>1.027585306505354</v>
       </c>
       <c r="J19">
-        <v>0.9810853646188724</v>
+        <v>0.9812178990485076</v>
       </c>
       <c r="K19">
-        <v>0.9954104383747977</v>
+        <v>0.9955194631042638</v>
       </c>
       <c r="L19">
-        <v>0.9785521391209117</v>
+        <v>0.9786852899270848</v>
       </c>
       <c r="M19">
-        <v>0.982214786488702</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9823366722969837</v>
+      </c>
+      <c r="N19">
+        <v>0.978606857614406</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9474663204058722</v>
+        <v>0.9476143955033405</v>
       </c>
       <c r="D20">
-        <v>0.9776198164927624</v>
+        <v>0.977738397916237</v>
       </c>
       <c r="E20">
-        <v>0.9596326257252809</v>
+        <v>0.9597776133689742</v>
       </c>
       <c r="F20">
-        <v>0.9632826323130362</v>
+        <v>0.9634154675899979</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025677699564895</v>
+        <v>1.025741413955566</v>
       </c>
       <c r="J20">
-        <v>0.9771841160778854</v>
+        <v>0.977325537498721</v>
       </c>
       <c r="K20">
-        <v>0.9920679507977667</v>
+        <v>0.9921843210179973</v>
       </c>
       <c r="L20">
-        <v>0.9744244744678093</v>
+        <v>0.9745666239806141</v>
       </c>
       <c r="M20">
-        <v>0.9780033729703823</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9781336337167593</v>
+      </c>
+      <c r="N20">
+        <v>0.9754723513682739</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9310476753366576</v>
+        <v>0.9312311174797941</v>
       </c>
       <c r="D21">
-        <v>0.9648717604961909</v>
+        <v>0.9650181601659157</v>
       </c>
       <c r="E21">
-        <v>0.944086354769015</v>
+        <v>0.9442655355116049</v>
       </c>
       <c r="F21">
-        <v>0.9474615761761167</v>
+        <v>0.9476263547312562</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.019292478589795</v>
+        <v>1.019371038530425</v>
       </c>
       <c r="J21">
-        <v>0.963740577317281</v>
+        <v>0.9639146047241574</v>
       </c>
       <c r="K21">
-        <v>0.9805506762028617</v>
+        <v>0.9806940295390137</v>
       </c>
       <c r="L21">
-        <v>0.9602105391427689</v>
+        <v>0.9603857700205196</v>
       </c>
       <c r="M21">
-        <v>0.9635116905134711</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9636728709096327</v>
+      </c>
+      <c r="N21">
+        <v>0.9646402962198838</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9198982073667892</v>
+        <v>0.9201081045598898</v>
       </c>
       <c r="D22">
-        <v>0.9562354599553845</v>
+        <v>0.956402551812506</v>
       </c>
       <c r="E22">
-        <v>0.9335469739640531</v>
+        <v>0.9337516306197572</v>
       </c>
       <c r="F22">
-        <v>0.936744151643127</v>
+        <v>0.9369328587027551</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.014941246708877</v>
+        <v>1.015030833960696</v>
       </c>
       <c r="J22">
-        <v>0.9546063249732433</v>
+        <v>0.9548044987746396</v>
       </c>
       <c r="K22">
-        <v>0.9727267823910792</v>
+        <v>0.9728901489526325</v>
       </c>
       <c r="L22">
-        <v>0.9505607552888233</v>
+        <v>0.9507605469672022</v>
       </c>
       <c r="M22">
-        <v>0.9536822568502824</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9538665189039581</v>
+      </c>
+      <c r="N22">
+        <v>0.9572566656323054</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9258961941733324</v>
+        <v>0.9260915926280691</v>
       </c>
       <c r="D23">
-        <v>0.9608792754742004</v>
+        <v>0.9610350389363315</v>
       </c>
       <c r="E23">
-        <v>0.9392149515126476</v>
+        <v>0.9394056564512869</v>
       </c>
       <c r="F23">
-        <v>0.9425070771772275</v>
+        <v>0.9426826669025474</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.017283340908596</v>
+        <v>1.017366892501723</v>
       </c>
       <c r="J23">
-        <v>0.9595205650973285</v>
+        <v>0.95970553004167</v>
       </c>
       <c r="K23">
-        <v>0.976935838177029</v>
+        <v>0.9770882537728056</v>
       </c>
       <c r="L23">
-        <v>0.9557516036404307</v>
+        <v>0.9559379534677874</v>
       </c>
       <c r="M23">
-        <v>0.9589688773088647</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.95914049429534</v>
+      </c>
+      <c r="N23">
+        <v>0.9612312438609748</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9477293756136267</v>
+        <v>0.9478769152022001</v>
       </c>
       <c r="D24">
-        <v>0.9778243345414239</v>
+        <v>0.9779424933429648</v>
       </c>
       <c r="E24">
-        <v>0.9598819516187405</v>
+        <v>0.9600264202984747</v>
       </c>
       <c r="F24">
-        <v>0.9635364883363025</v>
+        <v>0.9636688404097611</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025779740566382</v>
+        <v>1.025843229215616</v>
       </c>
       <c r="J24">
-        <v>0.9773994033924013</v>
+        <v>0.9775403280741848</v>
       </c>
       <c r="K24">
-        <v>0.9922524024111701</v>
+        <v>0.9923683619498429</v>
       </c>
       <c r="L24">
-        <v>0.9746522212728481</v>
+        <v>0.9747938675942981</v>
       </c>
       <c r="M24">
-        <v>0.9782357033080814</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.978365495327604</v>
+      </c>
+      <c r="N24">
+        <v>0.9756454381410976</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9701929262572628</v>
+        <v>0.970297859727546</v>
       </c>
       <c r="D25">
-        <v>0.9953170636468252</v>
+        <v>0.995401457685158</v>
       </c>
       <c r="E25">
-        <v>0.9812012734544987</v>
+        <v>0.9813043301168742</v>
       </c>
       <c r="F25">
-        <v>0.9852585846718777</v>
+        <v>0.985352544643005</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034454839082015</v>
+        <v>1.034500269373871</v>
       </c>
       <c r="J25">
-        <v>0.9957668096284039</v>
+        <v>0.9958679003119508</v>
       </c>
       <c r="K25">
-        <v>1.007988513774151</v>
+        <v>1.008071582027264</v>
       </c>
       <c r="L25">
-        <v>0.9940985980814762</v>
+        <v>0.9941999754239145</v>
       </c>
       <c r="M25">
-        <v>0.998090135483517</v>
+        <v>0.9981825804875046</v>
+      </c>
+      <c r="N25">
+        <v>0.9903608655216889</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_37/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9864464856435449</v>
+        <v>1.039203654040304</v>
       </c>
       <c r="D2">
-        <v>1.008005507553935</v>
+        <v>1.055338241420946</v>
       </c>
       <c r="E2">
-        <v>0.9966636079510177</v>
+        <v>1.056591521153269</v>
       </c>
       <c r="F2">
-        <v>1.001025118953598</v>
+        <v>1.062667643872581</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040676352183503</v>
+        <v>1.064615106840642</v>
       </c>
       <c r="J2">
-        <v>1.009040277681272</v>
+        <v>1.060271838927675</v>
       </c>
       <c r="K2">
-        <v>1.019354428322874</v>
+        <v>1.066076925557841</v>
       </c>
       <c r="L2">
-        <v>1.008169620548747</v>
+        <v>1.06731497096678</v>
       </c>
       <c r="M2">
-        <v>1.012470190692297</v>
+        <v>1.073317866914488</v>
       </c>
       <c r="N2">
-        <v>1.000861333144076</v>
+        <v>1.061777546553832</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9973676702841452</v>
+        <v>1.049887089635377</v>
       </c>
       <c r="D3">
-        <v>1.016540247323012</v>
+        <v>1.064034597522619</v>
       </c>
       <c r="E3">
-        <v>1.007066885860773</v>
+        <v>1.066727974095506</v>
       </c>
       <c r="F3">
-        <v>1.011651458208155</v>
+        <v>1.072597913748817</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044816778549518</v>
+        <v>1.068558599053343</v>
       </c>
       <c r="J3">
-        <v>1.017930353398252</v>
+        <v>1.069104369521738</v>
       </c>
       <c r="K3">
-        <v>1.026965777955463</v>
+        <v>1.073908810944583</v>
       </c>
       <c r="L3">
-        <v>1.017610136104217</v>
+        <v>1.076572729477881</v>
       </c>
       <c r="M3">
-        <v>1.022137395868612</v>
+        <v>1.082379096651154</v>
       </c>
       <c r="N3">
-        <v>1.007904980498542</v>
+        <v>1.070622620354444</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004113668781125</v>
+        <v>1.056516415381411</v>
       </c>
       <c r="D4">
-        <v>1.021815485302716</v>
+        <v>1.069433339031695</v>
       </c>
       <c r="E4">
-        <v>1.013499395541035</v>
+        <v>1.073023559070535</v>
       </c>
       <c r="F4">
-        <v>1.018226675704544</v>
+        <v>1.078766705603925</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04735685626242</v>
+        <v>1.070988685300526</v>
       </c>
       <c r="J4">
-        <v>1.023412728651584</v>
+        <v>1.074577150747756</v>
       </c>
       <c r="K4">
-        <v>1.031657557681461</v>
+        <v>1.078760211364225</v>
       </c>
       <c r="L4">
-        <v>1.0234375798353</v>
+        <v>1.082313846363278</v>
       </c>
       <c r="M4">
-        <v>1.028109987323091</v>
+        <v>1.087999084949021</v>
       </c>
       <c r="N4">
-        <v>1.012228897385195</v>
+        <v>1.07610317355754</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006879369926275</v>
+        <v>1.05924078325216</v>
       </c>
       <c r="D5">
-        <v>1.023978803883339</v>
+        <v>1.071652420467186</v>
       </c>
       <c r="E5">
-        <v>1.016137996496537</v>
+        <v>1.075612029536986</v>
       </c>
       <c r="F5">
-        <v>1.020924934894076</v>
+        <v>1.081303318591847</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.0483939509835</v>
+        <v>1.071983207044529</v>
       </c>
       <c r="J5">
-        <v>1.025658138144756</v>
+        <v>1.076824244267774</v>
       </c>
       <c r="K5">
-        <v>1.033578622132957</v>
+        <v>1.08075179909544</v>
       </c>
       <c r="L5">
-        <v>1.025825657973121</v>
+        <v>1.084672266911686</v>
       </c>
       <c r="M5">
-        <v>1.030558769214657</v>
+        <v>1.090307905496503</v>
       </c>
       <c r="N5">
-        <v>1.013995101456419</v>
+        <v>1.078353458208101</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007339791678272</v>
+        <v>1.059694687318167</v>
       </c>
       <c r="D6">
-        <v>1.024338973042834</v>
+        <v>1.072022160396273</v>
       </c>
       <c r="E6">
-        <v>1.016577339755568</v>
+        <v>1.076043362903783</v>
       </c>
       <c r="F6">
-        <v>1.021374276760583</v>
+        <v>1.0817260259721</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04856634772533</v>
+        <v>1.07214865765459</v>
       </c>
       <c r="J6">
-        <v>1.026031810445746</v>
+        <v>1.077198511722097</v>
       </c>
       <c r="K6">
-        <v>1.03389828475888</v>
+        <v>1.081083487491191</v>
       </c>
       <c r="L6">
-        <v>1.026223151247839</v>
+        <v>1.085065143837223</v>
       </c>
       <c r="M6">
-        <v>1.030966437743772</v>
+        <v>1.090692528620757</v>
       </c>
       <c r="N6">
-        <v>1.014288747715663</v>
+        <v>1.078728257165138</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004150892618223</v>
+        <v>1.05655305799363</v>
       </c>
       <c r="D7">
-        <v>1.021844599511311</v>
+        <v>1.069463184052631</v>
       </c>
       <c r="E7">
-        <v>1.013534903220328</v>
+        <v>1.073058369019791</v>
       </c>
       <c r="F7">
-        <v>1.018262981794856</v>
+        <v>1.078800817117848</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04737083171727</v>
+        <v>1.071002078082698</v>
       </c>
       <c r="J7">
-        <v>1.023442958802764</v>
+        <v>1.074607381992289</v>
       </c>
       <c r="K7">
-        <v>1.031683423369135</v>
+        <v>1.078787006688573</v>
       </c>
       <c r="L7">
-        <v>1.023469725437558</v>
+        <v>1.082345570800224</v>
       </c>
       <c r="M7">
-        <v>1.028142945231698</v>
+        <v>1.088030141583126</v>
       </c>
       <c r="N7">
-        <v>1.012252694753452</v>
+        <v>1.076133447733907</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.990207954183554</v>
+        <v>1.042876287900351</v>
       </c>
       <c r="D8">
-        <v>1.010944187340856</v>
+        <v>1.058327156171138</v>
       </c>
       <c r="E8">
-        <v>1.000245250413104</v>
+        <v>1.060074842180831</v>
       </c>
       <c r="F8">
-        <v>1.004682517496604</v>
+        <v>1.066079823860728</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042106063211713</v>
+        <v>1.065974314504239</v>
       </c>
       <c r="J8">
-        <v>1.012104066827686</v>
+        <v>1.063309853691949</v>
       </c>
       <c r="K8">
-        <v>1.021977925583542</v>
+        <v>1.068771023671021</v>
       </c>
       <c r="L8">
-        <v>1.011421900650344</v>
+        <v>1.0704982011589</v>
       </c>
       <c r="M8">
-        <v>1.015799432501596</v>
+        <v>1.076433349504248</v>
       </c>
       <c r="N8">
-        <v>1.003293024616957</v>
+        <v>1.064819875647537</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9628328551435378</v>
+        <v>1.016324447483899</v>
       </c>
       <c r="D9">
-        <v>0.9895827481822013</v>
+        <v>1.036736997323115</v>
       </c>
       <c r="E9">
-        <v>0.9742137660523816</v>
+        <v>1.034922167499525</v>
       </c>
       <c r="F9">
-        <v>0.9781232916572004</v>
+        <v>1.041447883995121</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031627183810905</v>
+        <v>1.056076138205171</v>
       </c>
       <c r="J9">
-        <v>0.9897699796713708</v>
+        <v>1.041313630565796</v>
       </c>
       <c r="K9">
-        <v>1.002847129806579</v>
+        <v>1.049260890901953</v>
       </c>
       <c r="L9">
-        <v>0.9877395366282988</v>
+        <v>1.047472972605467</v>
       </c>
       <c r="M9">
-        <v>0.9915815637695312</v>
+        <v>1.053902476862868</v>
       </c>
       <c r="N9">
-        <v>0.98547721784106</v>
+        <v>1.042792415361542</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9420820646952962</v>
+        <v>0.9964967551247417</v>
       </c>
       <c r="D10">
-        <v>0.9734392232647139</v>
+        <v>1.020649568843203</v>
       </c>
       <c r="E10">
-        <v>0.9545360647830535</v>
+        <v>1.016186491862417</v>
       </c>
       <c r="F10">
-        <v>0.9580786446739457</v>
+        <v>1.023111232505423</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023593711820488</v>
+        <v>1.048596374923945</v>
       </c>
       <c r="J10">
-        <v>0.9727982195858649</v>
+        <v>1.024850058890183</v>
       </c>
       <c r="K10">
-        <v>0.9883051921469503</v>
+        <v>1.03465573639233</v>
       </c>
       <c r="L10">
-        <v>0.9697777460466301</v>
+        <v>1.030269517520092</v>
       </c>
       <c r="M10">
-        <v>0.9732484282507097</v>
+        <v>1.037075378542333</v>
       </c>
       <c r="N10">
-        <v>0.9718210061064937</v>
+        <v>1.026305463525752</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9323141757713477</v>
+        <v>0.9872654088272501</v>
       </c>
       <c r="D11">
-        <v>0.9658579902513986</v>
+        <v>1.013172283283598</v>
       </c>
       <c r="E11">
-        <v>0.9452900545074081</v>
+        <v>1.007477813881341</v>
       </c>
       <c r="F11">
-        <v>0.9486687191757573</v>
+        <v>1.014591474163386</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019793062589135</v>
+        <v>1.045094782117542</v>
       </c>
       <c r="J11">
-        <v>0.9648014906948815</v>
+        <v>1.0171777283949</v>
       </c>
       <c r="K11">
-        <v>0.9814538344389181</v>
+        <v>1.027849992694569</v>
       </c>
       <c r="L11">
-        <v>0.9613231299313416</v>
+        <v>1.022260074094874</v>
       </c>
       <c r="M11">
-        <v>0.9646282436149597</v>
+        <v>1.029243364810451</v>
       </c>
       <c r="N11">
-        <v>0.9653580719889722</v>
+        <v>1.018622237441137</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9285465777334189</v>
+        <v>0.9837238407523735</v>
       </c>
       <c r="D12">
-        <v>0.9629371911406532</v>
+        <v>1.010306015418251</v>
       </c>
       <c r="E12">
-        <v>0.9417266805434392</v>
+        <v>1.004139226655629</v>
       </c>
       <c r="F12">
-        <v>0.9450435444831717</v>
+        <v>1.011325913205493</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.018324505089647</v>
+        <v>1.043748728184696</v>
       </c>
       <c r="J12">
-        <v>0.9617161588615575</v>
+        <v>1.014233375379454</v>
       </c>
       <c r="K12">
-        <v>0.9788106533261344</v>
+        <v>1.025238396604421</v>
       </c>
       <c r="L12">
-        <v>0.9580624630161575</v>
+        <v>1.019187552957707</v>
       </c>
       <c r="M12">
-        <v>0.9613052074055304</v>
+        <v>1.026239296504686</v>
       </c>
       <c r="N12">
-        <v>0.9628602306684244</v>
+        <v>1.015673703106687</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9293614649476453</v>
+        <v>0.9844889080965619</v>
       </c>
       <c r="D13">
-        <v>0.9635687609429862</v>
+        <v>1.010925086317157</v>
       </c>
       <c r="E13">
-        <v>0.9424972570277097</v>
+        <v>1.004860328372806</v>
       </c>
       <c r="F13">
-        <v>0.9458274218766461</v>
+        <v>1.012031213368244</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.018642248711264</v>
+        <v>1.044039626675493</v>
       </c>
       <c r="J13">
-        <v>0.9623835150018871</v>
+        <v>1.014869466035242</v>
       </c>
       <c r="K13">
-        <v>0.9793823586577547</v>
+        <v>1.025802588527336</v>
       </c>
       <c r="L13">
-        <v>0.9587676835979391</v>
+        <v>1.019851277686305</v>
       </c>
       <c r="M13">
-        <v>0.9620238486467969</v>
+        <v>1.026888215554338</v>
       </c>
       <c r="N13">
-        <v>0.9634007056938393</v>
+        <v>1.016310697084167</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9320057361762871</v>
+        <v>0.9869750631645574</v>
       </c>
       <c r="D14">
-        <v>0.9656188024521059</v>
+        <v>1.012937249615641</v>
       </c>
       <c r="E14">
-        <v>0.9449982722775375</v>
+        <v>1.007204057293506</v>
       </c>
       <c r="F14">
-        <v>0.9483718482238095</v>
+        <v>1.014323692884001</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.019672887687425</v>
+        <v>1.044984482461609</v>
       </c>
       <c r="J14">
-        <v>0.9645489219583935</v>
+        <v>1.016936360551869</v>
       </c>
       <c r="K14">
-        <v>0.9812374547780496</v>
+        <v>1.027635898479905</v>
       </c>
       <c r="L14">
-        <v>0.9610561810547601</v>
+        <v>1.022008174883165</v>
       </c>
       <c r="M14">
-        <v>0.9643561580369185</v>
+        <v>1.028997069464365</v>
       </c>
       <c r="N14">
-        <v>0.9651536822416912</v>
+        <v>1.018380526828083</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9336157351210563</v>
+        <v>0.9884914095780841</v>
       </c>
       <c r="D15">
-        <v>0.966867460202632</v>
+        <v>1.014164824443183</v>
       </c>
       <c r="E15">
-        <v>0.9465214435559444</v>
+        <v>1.008633867861288</v>
       </c>
       <c r="F15">
-        <v>0.949921639738753</v>
+        <v>1.015722319701695</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.020300075940495</v>
+        <v>1.045560421461457</v>
       </c>
       <c r="J15">
-        <v>0.9658672508958405</v>
+        <v>1.018196882668348</v>
       </c>
       <c r="K15">
-        <v>0.9823668988743014</v>
+        <v>1.028753995035784</v>
       </c>
       <c r="L15">
-        <v>0.9624496235884866</v>
+        <v>1.023323745059247</v>
       </c>
       <c r="M15">
-        <v>0.9657764740783977</v>
+        <v>1.030283388929613</v>
       </c>
       <c r="N15">
-        <v>0.9662203593125545</v>
+        <v>1.019642839030552</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9427121111987508</v>
+        <v>0.9970945518950272</v>
       </c>
       <c r="D16">
-        <v>0.9739286440676539</v>
+        <v>1.021134072477873</v>
       </c>
       <c r="E16">
-        <v>0.9551328217676863</v>
+        <v>1.01675075847339</v>
       </c>
       <c r="F16">
-        <v>0.9586861614908138</v>
+        <v>1.023663335407174</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023838492997885</v>
+        <v>1.04882275215738</v>
       </c>
       <c r="J16">
-        <v>0.9733138865942409</v>
+        <v>1.025346765057178</v>
       </c>
       <c r="K16">
-        <v>0.9887470230283179</v>
+        <v>1.035096359591497</v>
       </c>
       <c r="L16">
-        <v>0.9703231174876822</v>
+        <v>1.030788209240039</v>
       </c>
       <c r="M16">
-        <v>0.9738046751631942</v>
+        <v>1.037582629535903</v>
       </c>
       <c r="N16">
-        <v>0.9722371874220962</v>
+        <v>1.026802875072477</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9481948740768662</v>
+        <v>1.002308242205009</v>
       </c>
       <c r="D17">
-        <v>0.9781897007251013</v>
+        <v>1.025361127737846</v>
       </c>
       <c r="E17">
-        <v>0.960327780851549</v>
+        <v>1.021673628670297</v>
       </c>
       <c r="F17">
-        <v>0.9639757365934648</v>
+        <v>1.028480476155721</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025966533664591</v>
+        <v>1.050794992919013</v>
       </c>
       <c r="J17">
-        <v>0.9778004732816598</v>
+        <v>1.029678006145257</v>
       </c>
       <c r="K17">
-        <v>0.992591264700504</v>
+        <v>1.038938631427981</v>
       </c>
       <c r="L17">
-        <v>0.9750691008009815</v>
+        <v>1.035312020827982</v>
       </c>
       <c r="M17">
-        <v>0.9786463275358082</v>
+        <v>1.042006910804939</v>
       </c>
       <c r="N17">
-        <v>0.9758550555143081</v>
+        <v>1.031140267019701</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9513190982642079</v>
+        <v>1.005288209192443</v>
       </c>
       <c r="D18">
-        <v>0.9806193559557825</v>
+        <v>1.027778304894595</v>
       </c>
       <c r="E18">
-        <v>0.9632895123003771</v>
+        <v>1.024488664990116</v>
       </c>
       <c r="F18">
-        <v>0.966992183708009</v>
+        <v>1.031235365788644</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027177376989208</v>
+        <v>1.051920473821723</v>
       </c>
       <c r="J18">
-        <v>0.9803563224884542</v>
+        <v>1.032152912309344</v>
       </c>
       <c r="K18">
-        <v>0.9947812259376093</v>
+        <v>1.041134177390314</v>
       </c>
       <c r="L18">
-        <v>0.9777735037578141</v>
+        <v>1.037897669044346</v>
       </c>
       <c r="M18">
-        <v>0.981406084037408</v>
+        <v>1.044535870885746</v>
       </c>
       <c r="N18">
-        <v>0.9779134231440254</v>
+        <v>1.033618687834417</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9523724329234365</v>
+        <v>1.006294355827484</v>
       </c>
       <c r="D19">
-        <v>0.9814387687623207</v>
+        <v>1.028594613945827</v>
       </c>
       <c r="E19">
-        <v>0.9642883074201598</v>
+        <v>1.02543933585375</v>
       </c>
       <c r="F19">
-        <v>0.9680095596077285</v>
+        <v>1.032165775224514</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027585306505354</v>
+        <v>1.052300169771188</v>
       </c>
       <c r="J19">
-        <v>0.9812178990485076</v>
+        <v>1.032988410976918</v>
       </c>
       <c r="K19">
-        <v>0.9955194631042638</v>
+        <v>1.041875371340557</v>
       </c>
       <c r="L19">
-        <v>0.9786852899270848</v>
+        <v>1.038770671349839</v>
       </c>
       <c r="M19">
-        <v>0.9823366722969837</v>
+        <v>1.045389765772553</v>
       </c>
       <c r="N19">
-        <v>0.978606857614406</v>
+        <v>1.034455373005931</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9476143955033405</v>
+        <v>1.00175528273097</v>
       </c>
       <c r="D20">
-        <v>0.977738397916237</v>
+        <v>1.024912688495361</v>
       </c>
       <c r="E20">
-        <v>0.9597776133689742</v>
+        <v>1.021151376600763</v>
       </c>
       <c r="F20">
-        <v>0.9634154675899979</v>
+        <v>1.027969407504976</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025741413955566</v>
+        <v>1.050586003521576</v>
       </c>
       <c r="J20">
-        <v>0.977325537498721</v>
+        <v>1.029218708455868</v>
       </c>
       <c r="K20">
-        <v>0.9921843210179973</v>
+        <v>1.038531180513995</v>
       </c>
       <c r="L20">
-        <v>0.9745666239806141</v>
+        <v>1.034832228509161</v>
       </c>
       <c r="M20">
-        <v>0.9781336337167593</v>
+        <v>1.041537653411128</v>
       </c>
       <c r="N20">
-        <v>0.9754723513682739</v>
+        <v>1.030680317074912</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9312311174797941</v>
+        <v>0.9862462059852488</v>
       </c>
       <c r="D21">
-        <v>0.9650181601659157</v>
+        <v>1.012347282168188</v>
       </c>
       <c r="E21">
-        <v>0.9442655355116049</v>
+        <v>1.006516884449536</v>
       </c>
       <c r="F21">
-        <v>0.9476263547312562</v>
+        <v>1.01365152897164</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.019371038530425</v>
+        <v>1.044707554073568</v>
       </c>
       <c r="J21">
-        <v>0.9639146047241574</v>
+        <v>1.01633043920715</v>
       </c>
       <c r="K21">
-        <v>0.9806940295390137</v>
+        <v>1.027098447414582</v>
       </c>
       <c r="L21">
-        <v>0.9603857700205196</v>
+        <v>1.021375835416695</v>
       </c>
       <c r="M21">
-        <v>0.9636728709096327</v>
+        <v>1.028378803750844</v>
       </c>
       <c r="N21">
-        <v>0.9646402962198838</v>
+        <v>1.017773745005555</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9201081045598898</v>
+        <v>0.975832605268924</v>
       </c>
       <c r="D22">
-        <v>0.956402551812506</v>
+        <v>1.003924452976106</v>
       </c>
       <c r="E22">
-        <v>0.9337516306197572</v>
+        <v>0.9967052595172179</v>
       </c>
       <c r="F22">
-        <v>0.9369328587027551</v>
+        <v>1.004055777800032</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.015030833960696</v>
+        <v>1.0407447647729</v>
       </c>
       <c r="J22">
-        <v>0.9548044987746396</v>
+        <v>1.007671437554757</v>
       </c>
       <c r="K22">
-        <v>0.9728901489526325</v>
+        <v>1.019418564526307</v>
       </c>
       <c r="L22">
-        <v>0.9507605469672022</v>
+        <v>1.012342269641693</v>
       </c>
       <c r="M22">
-        <v>0.9538665189039581</v>
+        <v>1.019547314846472</v>
       </c>
       <c r="N22">
-        <v>0.9572566656323054</v>
+        <v>1.009102446577614</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9260915926280691</v>
+        <v>0.9814221120549212</v>
       </c>
       <c r="D23">
-        <v>0.9610350389363315</v>
+        <v>1.008443908730043</v>
       </c>
       <c r="E23">
-        <v>0.9394056564512869</v>
+        <v>1.001970159506269</v>
       </c>
       <c r="F23">
-        <v>0.9426826669025474</v>
+        <v>1.009204472615258</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.017366892501723</v>
+        <v>1.042873175531953</v>
       </c>
       <c r="J23">
-        <v>0.95970553004167</v>
+        <v>1.012319563392529</v>
       </c>
       <c r="K23">
-        <v>0.9770882537728056</v>
+        <v>1.023540945408136</v>
       </c>
       <c r="L23">
-        <v>0.9559379534677874</v>
+        <v>1.017190778772573</v>
       </c>
       <c r="M23">
-        <v>0.95914049429534</v>
+        <v>1.024287126288983</v>
       </c>
       <c r="N23">
-        <v>0.9612312438609748</v>
+        <v>1.013757173287223</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9478769152022001</v>
+        <v>1.002005328960813</v>
       </c>
       <c r="D24">
-        <v>0.9779424933429648</v>
+        <v>1.025115467551891</v>
       </c>
       <c r="E24">
-        <v>0.9600264202984747</v>
+        <v>1.021387533051481</v>
       </c>
       <c r="F24">
-        <v>0.9636688404097611</v>
+        <v>1.02820050597334</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025843229215616</v>
+        <v>1.050680513329848</v>
       </c>
       <c r="J24">
-        <v>0.9775403280741848</v>
+        <v>1.029426403315381</v>
       </c>
       <c r="K24">
-        <v>0.9923683619498429</v>
+        <v>1.038715430092504</v>
       </c>
       <c r="L24">
-        <v>0.9747938675942981</v>
+        <v>1.035049188863727</v>
       </c>
       <c r="M24">
-        <v>0.978365495327604</v>
+        <v>1.041749849291927</v>
       </c>
       <c r="N24">
-        <v>0.9756454381410976</v>
+        <v>1.030888306884948</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.970297859727546</v>
+        <v>1.023523087727654</v>
       </c>
       <c r="D25">
-        <v>0.995401457685158</v>
+        <v>1.042585769797682</v>
       </c>
       <c r="E25">
-        <v>0.9813043301168742</v>
+        <v>1.041734427766185</v>
       </c>
       <c r="F25">
-        <v>0.985352544643005</v>
+        <v>1.04811746902258</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034500269373871</v>
+        <v>1.058774902666847</v>
       </c>
       <c r="J25">
-        <v>0.9958679003119508</v>
+        <v>1.047283935430371</v>
       </c>
       <c r="K25">
-        <v>1.008071582027264</v>
+        <v>1.054557103214563</v>
       </c>
       <c r="L25">
-        <v>0.9941999754239145</v>
+        <v>1.053717661132992</v>
       </c>
       <c r="M25">
-        <v>0.9981825804875046</v>
+        <v>1.060012074601306</v>
       </c>
       <c r="N25">
-        <v>0.9903608655216889</v>
+        <v>1.048771198743828</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_37/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.039203654040304</v>
+        <v>1.021408851012254</v>
       </c>
       <c r="D2">
-        <v>1.055338241420946</v>
+        <v>1.034580544036581</v>
       </c>
       <c r="E2">
-        <v>1.056591521153269</v>
+        <v>1.036725249038217</v>
       </c>
       <c r="F2">
-        <v>1.062667643872581</v>
+        <v>1.038892970975198</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.064615106840642</v>
+        <v>1.050368158609764</v>
       </c>
       <c r="J2">
-        <v>1.060271838927675</v>
+        <v>1.04296755312629</v>
       </c>
       <c r="K2">
-        <v>1.066076925557841</v>
+        <v>1.045578255106942</v>
       </c>
       <c r="L2">
-        <v>1.06731497096678</v>
+        <v>1.047695597189479</v>
       </c>
       <c r="M2">
-        <v>1.073317866914488</v>
+        <v>1.049835805859539</v>
       </c>
       <c r="N2">
-        <v>1.061777546553832</v>
+        <v>1.017307163409883</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.049887089635377</v>
+        <v>1.027300043443529</v>
       </c>
       <c r="D3">
-        <v>1.064034597522619</v>
+        <v>1.039081537755216</v>
       </c>
       <c r="E3">
-        <v>1.066727974095506</v>
+        <v>1.042444679634015</v>
       </c>
       <c r="F3">
-        <v>1.072597913748817</v>
+        <v>1.045188060918631</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.068558599053343</v>
+        <v>1.052403960158495</v>
       </c>
       <c r="J3">
-        <v>1.069104369521738</v>
+        <v>1.047073171151304</v>
       </c>
       <c r="K3">
-        <v>1.073908810944583</v>
+        <v>1.049237639196361</v>
       </c>
       <c r="L3">
-        <v>1.076572729477881</v>
+        <v>1.052561816851832</v>
       </c>
       <c r="M3">
-        <v>1.082379096651154</v>
+        <v>1.055273643490447</v>
       </c>
       <c r="N3">
-        <v>1.070622620354444</v>
+        <v>1.018749368051793</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.056516415381411</v>
+        <v>1.031016993169251</v>
       </c>
       <c r="D4">
-        <v>1.069433339031695</v>
+        <v>1.041923684758876</v>
       </c>
       <c r="E4">
-        <v>1.073023559070535</v>
+        <v>1.046058555264218</v>
       </c>
       <c r="F4">
-        <v>1.078766705603925</v>
+        <v>1.049167037889474</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.070988685300526</v>
+        <v>1.053678322328518</v>
       </c>
       <c r="J4">
-        <v>1.074577150747756</v>
+        <v>1.049659235426716</v>
       </c>
       <c r="K4">
-        <v>1.078760211364225</v>
+        <v>1.051541147108206</v>
       </c>
       <c r="L4">
-        <v>1.082313846363278</v>
+        <v>1.055631143805957</v>
       </c>
       <c r="M4">
-        <v>1.087999084949021</v>
+        <v>1.058706176907166</v>
       </c>
       <c r="N4">
-        <v>1.07610317355754</v>
+        <v>1.019656915291661</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.05924078325216</v>
+        <v>1.032557881379973</v>
       </c>
       <c r="D5">
-        <v>1.071652420467186</v>
+        <v>1.043102406005944</v>
       </c>
       <c r="E5">
-        <v>1.075612029536986</v>
+        <v>1.047557951651159</v>
       </c>
       <c r="F5">
-        <v>1.081303318591847</v>
+        <v>1.050818264092683</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.071983207044529</v>
+        <v>1.054204155263939</v>
       </c>
       <c r="J5">
-        <v>1.076824244267774</v>
+        <v>1.050730234333417</v>
       </c>
       <c r="K5">
-        <v>1.08075179909544</v>
+        <v>1.052494757678405</v>
       </c>
       <c r="L5">
-        <v>1.084672266911686</v>
+        <v>1.056903296712185</v>
       </c>
       <c r="M5">
-        <v>1.090307905496503</v>
+        <v>1.060129520898107</v>
       </c>
       <c r="N5">
-        <v>1.078353458208101</v>
+        <v>1.020032545293204</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.059694687318167</v>
+        <v>1.032815358639283</v>
       </c>
       <c r="D6">
-        <v>1.072022160396273</v>
+        <v>1.043299393207067</v>
       </c>
       <c r="E6">
-        <v>1.076043362903783</v>
+        <v>1.047808567667542</v>
       </c>
       <c r="F6">
-        <v>1.0817260259721</v>
+        <v>1.051094278792098</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.07214865765459</v>
+        <v>1.054291874181785</v>
       </c>
       <c r="J6">
-        <v>1.077198511722097</v>
+        <v>1.050909130484864</v>
       </c>
       <c r="K6">
-        <v>1.081083487491191</v>
+        <v>1.052654023507906</v>
       </c>
       <c r="L6">
-        <v>1.085065143837223</v>
+        <v>1.05711585301643</v>
       </c>
       <c r="M6">
-        <v>1.090692528620757</v>
+        <v>1.060367377497771</v>
       </c>
       <c r="N6">
-        <v>1.078728257165138</v>
+        <v>1.020095275738948</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.05655305799363</v>
+        <v>1.031037666606634</v>
       </c>
       <c r="D7">
-        <v>1.069463184052631</v>
+        <v>1.041939497311646</v>
       </c>
       <c r="E7">
-        <v>1.073058369019791</v>
+        <v>1.046078667168742</v>
       </c>
       <c r="F7">
-        <v>1.078800817117848</v>
+        <v>1.049189184929388</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.071002078082698</v>
+        <v>1.053685386996702</v>
       </c>
       <c r="J7">
-        <v>1.074607381992289</v>
+        <v>1.049673608852297</v>
       </c>
       <c r="K7">
-        <v>1.078787006688573</v>
+        <v>1.05155394659586</v>
       </c>
       <c r="L7">
-        <v>1.082345570800224</v>
+        <v>1.055648212804089</v>
       </c>
       <c r="M7">
-        <v>1.088030141583126</v>
+        <v>1.058725271903847</v>
       </c>
       <c r="N7">
-        <v>1.076133447733907</v>
+        <v>1.019661957367283</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.042876287900351</v>
+        <v>1.023420133392133</v>
       </c>
       <c r="D8">
-        <v>1.058327156171138</v>
+        <v>1.036116674909473</v>
       </c>
       <c r="E8">
-        <v>1.060074842180831</v>
+        <v>1.038676756404928</v>
       </c>
       <c r="F8">
-        <v>1.066079823860728</v>
+        <v>1.041040623752108</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.065974314504239</v>
+        <v>1.051065288725117</v>
       </c>
       <c r="J8">
-        <v>1.063309853691949</v>
+        <v>1.044370112991248</v>
       </c>
       <c r="K8">
-        <v>1.068771023671021</v>
+        <v>1.046828675455107</v>
       </c>
       <c r="L8">
-        <v>1.0704982011589</v>
+        <v>1.049357123266921</v>
       </c>
       <c r="M8">
-        <v>1.076433349504248</v>
+        <v>1.051691953275157</v>
       </c>
       <c r="N8">
-        <v>1.064819875647537</v>
+        <v>1.017800024472167</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.016324447483899</v>
+        <v>1.009218680909415</v>
       </c>
       <c r="D9">
-        <v>1.036736997323115</v>
+        <v>1.025283162733218</v>
       </c>
       <c r="E9">
-        <v>1.034922167499525</v>
+        <v>1.024921518969039</v>
       </c>
       <c r="F9">
-        <v>1.041447883995121</v>
+        <v>1.025907726518146</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056076138205171</v>
+        <v>1.046101476393996</v>
       </c>
       <c r="J9">
-        <v>1.041313630565796</v>
+        <v>1.034450051582595</v>
       </c>
       <c r="K9">
-        <v>1.049260890901953</v>
+        <v>1.037978936851985</v>
       </c>
       <c r="L9">
-        <v>1.047472972605467</v>
+        <v>1.037622799808255</v>
       </c>
       <c r="M9">
-        <v>1.053902476862868</v>
+        <v>1.038594002106851</v>
       </c>
       <c r="N9">
-        <v>1.042792415361542</v>
+        <v>1.014310941071235</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9964967551247417</v>
+        <v>0.9991504680751608</v>
       </c>
       <c r="D10">
-        <v>1.020649568843203</v>
+        <v>1.017622824780779</v>
       </c>
       <c r="E10">
-        <v>1.016186491862417</v>
+        <v>1.015202282961001</v>
       </c>
       <c r="F10">
-        <v>1.023111232505423</v>
+        <v>1.015220115795244</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048596374923945</v>
+        <v>1.042531508851504</v>
       </c>
       <c r="J10">
-        <v>1.024850058890183</v>
+        <v>1.027397832218562</v>
       </c>
       <c r="K10">
-        <v>1.03465573639233</v>
+        <v>1.031681020373109</v>
       </c>
       <c r="L10">
-        <v>1.030269517520092</v>
+        <v>1.029302375263291</v>
       </c>
       <c r="M10">
-        <v>1.037075378542333</v>
+        <v>1.029319898486846</v>
       </c>
       <c r="N10">
-        <v>1.026305463525752</v>
+        <v>1.01182717583275</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9872654088272501</v>
+        <v>0.9946288989322633</v>
       </c>
       <c r="D11">
-        <v>1.013172283283598</v>
+        <v>1.01418867162716</v>
       </c>
       <c r="E11">
-        <v>1.007477813881341</v>
+        <v>1.010845825547565</v>
       </c>
       <c r="F11">
-        <v>1.014591474163386</v>
+        <v>1.010430397208512</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045094782117542</v>
+        <v>1.040916893241083</v>
       </c>
       <c r="J11">
-        <v>1.0171777283949</v>
+        <v>1.024226841738359</v>
       </c>
       <c r="K11">
-        <v>1.027849992694569</v>
+        <v>1.028847880742277</v>
       </c>
       <c r="L11">
-        <v>1.022260074094874</v>
+        <v>1.025566063513674</v>
       </c>
       <c r="M11">
-        <v>1.029243364810451</v>
+        <v>1.02515825620869</v>
       </c>
       <c r="N11">
-        <v>1.018622237441137</v>
+        <v>1.010709796851216</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9837238407523735</v>
+        <v>0.9929231965685433</v>
       </c>
       <c r="D12">
-        <v>1.010306015418251</v>
+        <v>1.012894209999908</v>
       </c>
       <c r="E12">
-        <v>1.004139226655629</v>
+        <v>1.009203729622003</v>
       </c>
       <c r="F12">
-        <v>1.011325913205493</v>
+        <v>1.008625071700778</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043748728184696</v>
+        <v>1.040306157568399</v>
       </c>
       <c r="J12">
-        <v>1.014233375379454</v>
+        <v>1.023030108814458</v>
       </c>
       <c r="K12">
-        <v>1.025238396604421</v>
+        <v>1.027778477582005</v>
       </c>
       <c r="L12">
-        <v>1.019187552957707</v>
+        <v>1.024156699717715</v>
       </c>
       <c r="M12">
-        <v>1.026239296504686</v>
+        <v>1.023588873704601</v>
       </c>
       <c r="N12">
-        <v>1.015673703106687</v>
+        <v>1.010288032813491</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9844889080965619</v>
+        <v>0.9932902925584904</v>
       </c>
       <c r="D13">
-        <v>1.010925086317157</v>
+        <v>1.013172751652409</v>
       </c>
       <c r="E13">
-        <v>1.004860328372806</v>
+        <v>1.009557075802036</v>
       </c>
       <c r="F13">
-        <v>1.012031213368244</v>
+        <v>1.009013538600473</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044039626675493</v>
+        <v>1.040437671327792</v>
       </c>
       <c r="J13">
-        <v>1.014869466035242</v>
+        <v>1.023287688293197</v>
       </c>
       <c r="K13">
-        <v>1.025802588527336</v>
+        <v>1.028008658702667</v>
       </c>
       <c r="L13">
-        <v>1.019851277686305</v>
+        <v>1.024460012631356</v>
       </c>
       <c r="M13">
-        <v>1.026888215554338</v>
+        <v>1.023926606081674</v>
       </c>
       <c r="N13">
-        <v>1.016310697084167</v>
+        <v>1.010378814017713</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C14">
-        <v>0.9869750631645574</v>
+        <v>0.9944884507214837</v>
       </c>
       <c r="D14">
-        <v>1.012937249615641</v>
+        <v>1.014082063576384</v>
       </c>
       <c r="E14">
-        <v>1.007204057293506</v>
+        <v>1.010710587553038</v>
       </c>
       <c r="F14">
-        <v>1.014323692884001</v>
+        <v>1.010281714707636</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044984482461609</v>
+        <v>1.040866637993456</v>
       </c>
       <c r="J14">
-        <v>1.016936360551869</v>
+        <v>1.024128312408456</v>
       </c>
       <c r="K14">
-        <v>1.027635898479905</v>
+        <v>1.028759838139416</v>
       </c>
       <c r="L14">
-        <v>1.022008174883165</v>
+        <v>1.0254500133319</v>
       </c>
       <c r="M14">
-        <v>1.028997069464365</v>
+        <v>1.025029021339987</v>
       </c>
       <c r="N14">
-        <v>1.018380526828083</v>
+        <v>1.01067507339833</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9884914095780841</v>
+        <v>0.9952231463195569</v>
       </c>
       <c r="D15">
-        <v>1.014164824443183</v>
+        <v>1.014639781180109</v>
       </c>
       <c r="E15">
-        <v>1.008633867861288</v>
+        <v>1.011418082199735</v>
       </c>
       <c r="F15">
-        <v>1.015722319701695</v>
+        <v>1.011059547068989</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045560421461457</v>
+        <v>1.041129460652966</v>
       </c>
       <c r="J15">
-        <v>1.018196882668348</v>
+        <v>1.024643706350799</v>
       </c>
       <c r="K15">
-        <v>1.028753995035784</v>
+        <v>1.029220370400941</v>
       </c>
       <c r="L15">
-        <v>1.023323745059247</v>
+        <v>1.026057085796459</v>
       </c>
       <c r="M15">
-        <v>1.030283388929613</v>
+        <v>1.025705081420501</v>
       </c>
       <c r="N15">
-        <v>1.019642839030552</v>
+        <v>1.01085670469231</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9970945518950272</v>
+        <v>0.9994469830109348</v>
       </c>
       <c r="D16">
-        <v>1.021134072477873</v>
+        <v>1.017848164687455</v>
       </c>
       <c r="E16">
-        <v>1.01675075847339</v>
+        <v>1.015488149306395</v>
       </c>
       <c r="F16">
-        <v>1.023663335407174</v>
+        <v>1.015534425662132</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04882275215738</v>
+        <v>1.042637161272703</v>
       </c>
       <c r="J16">
-        <v>1.025346765057178</v>
+        <v>1.027605703781032</v>
       </c>
       <c r="K16">
-        <v>1.035096359591497</v>
+        <v>1.031866718948821</v>
       </c>
       <c r="L16">
-        <v>1.030788209240039</v>
+        <v>1.029547406614929</v>
       </c>
       <c r="M16">
-        <v>1.037582629535903</v>
+        <v>1.029592882492623</v>
       </c>
       <c r="N16">
-        <v>1.026802875072477</v>
+        <v>1.011900414569509</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.002308242205009</v>
+        <v>1.002051867678535</v>
       </c>
       <c r="D17">
-        <v>1.025361127737846</v>
+        <v>1.019828475881259</v>
       </c>
       <c r="E17">
-        <v>1.021673628670297</v>
+        <v>1.018000443286076</v>
       </c>
       <c r="F17">
-        <v>1.028480476155721</v>
+        <v>1.018296777086154</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050794992919013</v>
+        <v>1.043564037595922</v>
       </c>
       <c r="J17">
-        <v>1.029678006145257</v>
+        <v>1.029431423354449</v>
       </c>
       <c r="K17">
-        <v>1.038938631427981</v>
+        <v>1.033497548360084</v>
       </c>
       <c r="L17">
-        <v>1.035312020827982</v>
+        <v>1.031700052773507</v>
       </c>
       <c r="M17">
-        <v>1.042006910804939</v>
+        <v>1.031991426766155</v>
       </c>
       <c r="N17">
-        <v>1.031140267019701</v>
+        <v>1.012543602699202</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.005288209192443</v>
+        <v>1.003555760289049</v>
       </c>
       <c r="D18">
-        <v>1.027778304894595</v>
+        <v>1.020972343436212</v>
       </c>
       <c r="E18">
-        <v>1.024488664990116</v>
+        <v>1.019451667680792</v>
       </c>
       <c r="F18">
-        <v>1.031235365788644</v>
+        <v>1.019892524617851</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051920473821723</v>
+        <v>1.044098078913102</v>
       </c>
       <c r="J18">
-        <v>1.032152912309344</v>
+        <v>1.030485105061955</v>
       </c>
       <c r="K18">
-        <v>1.041134177390314</v>
+        <v>1.034438626865653</v>
       </c>
       <c r="L18">
-        <v>1.037897669044346</v>
+        <v>1.0329428796628</v>
       </c>
       <c r="M18">
-        <v>1.044535870885746</v>
+        <v>1.033376499759899</v>
       </c>
       <c r="N18">
-        <v>1.033618687834417</v>
+        <v>1.012914752364398</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.006294355827484</v>
+        <v>1.004065974387818</v>
       </c>
       <c r="D19">
-        <v>1.028594613945827</v>
+        <v>1.021360506826349</v>
       </c>
       <c r="E19">
-        <v>1.02543933585375</v>
+        <v>1.019944145352339</v>
       </c>
       <c r="F19">
-        <v>1.032165775224514</v>
+        <v>1.020434060936026</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052300169771188</v>
+        <v>1.04427907441941</v>
       </c>
       <c r="J19">
-        <v>1.032988410976918</v>
+        <v>1.030842514753769</v>
       </c>
       <c r="K19">
-        <v>1.041875371340557</v>
+        <v>1.034757819474253</v>
       </c>
       <c r="L19">
-        <v>1.038770671349839</v>
+        <v>1.033364526989301</v>
       </c>
       <c r="M19">
-        <v>1.045389765772553</v>
+        <v>1.033846453764118</v>
       </c>
       <c r="N19">
-        <v>1.034455373005931</v>
+        <v>1.013040636716777</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.00175528273097</v>
+        <v>1.001774003497276</v>
       </c>
       <c r="D20">
-        <v>1.024912688495361</v>
+        <v>1.019617175909418</v>
       </c>
       <c r="E20">
-        <v>1.021151376600763</v>
+        <v>1.017732373588729</v>
       </c>
       <c r="F20">
-        <v>1.027969407504976</v>
+        <v>1.018002017665686</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050586003521576</v>
+        <v>1.043465278730036</v>
       </c>
       <c r="J20">
-        <v>1.029218708455868</v>
+        <v>1.029236711150967</v>
       </c>
       <c r="K20">
-        <v>1.038531180513995</v>
+        <v>1.033323634017669</v>
       </c>
       <c r="L20">
-        <v>1.034832228509161</v>
+        <v>1.031470425788454</v>
       </c>
       <c r="M20">
-        <v>1.041537653411128</v>
+        <v>1.031735540697516</v>
       </c>
       <c r="N20">
-        <v>1.030680317074912</v>
+        <v>1.012475012530057</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9862462059852488</v>
+        <v>0.9941363618421594</v>
       </c>
       <c r="D21">
-        <v>1.012347282168188</v>
+        <v>1.013814825366243</v>
       </c>
       <c r="E21">
-        <v>1.006516884449536</v>
+        <v>1.010371581596575</v>
       </c>
       <c r="F21">
-        <v>1.01365152897164</v>
+        <v>1.009909008093752</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044707554073568</v>
+        <v>1.04074062716077</v>
       </c>
       <c r="J21">
-        <v>1.01633043920715</v>
+        <v>1.023881301635457</v>
       </c>
       <c r="K21">
-        <v>1.027098447414582</v>
+        <v>1.028539114610142</v>
       </c>
       <c r="L21">
-        <v>1.021375835416695</v>
+        <v>1.025159089734662</v>
       </c>
       <c r="M21">
-        <v>1.028378803750844</v>
+        <v>1.024705052020339</v>
       </c>
       <c r="N21">
-        <v>1.017773745005555</v>
+        <v>1.010588021525976</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.975832605268924</v>
+        <v>0.9891816825038734</v>
       </c>
       <c r="D22">
-        <v>1.003924452976106</v>
+        <v>1.010056796691221</v>
       </c>
       <c r="E22">
-        <v>0.9967052595172179</v>
+        <v>1.005604240915708</v>
       </c>
       <c r="F22">
-        <v>1.004055777800032</v>
+        <v>1.004667886725347</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0407447647729</v>
+        <v>1.038963537406456</v>
       </c>
       <c r="J22">
-        <v>1.007671437554757</v>
+        <v>1.020404157118986</v>
       </c>
       <c r="K22">
-        <v>1.019418564526307</v>
+        <v>1.025431624856013</v>
       </c>
       <c r="L22">
-        <v>1.012342269641693</v>
+        <v>1.021065488265641</v>
       </c>
       <c r="M22">
-        <v>1.019547314846472</v>
+        <v>1.020147435583907</v>
       </c>
       <c r="N22">
-        <v>1.009102446577614</v>
+        <v>1.00936247405311</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9814221120549212</v>
+        <v>0.9918233863020076</v>
       </c>
       <c r="D23">
-        <v>1.008443908730043</v>
+        <v>1.012059866425344</v>
       </c>
       <c r="E23">
-        <v>1.001970159506269</v>
+        <v>1.008145311824317</v>
       </c>
       <c r="F23">
-        <v>1.009204472615258</v>
+        <v>1.007461461617908</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042873175531953</v>
+        <v>1.039911910063578</v>
       </c>
       <c r="J23">
-        <v>1.012319563392529</v>
+        <v>1.02225833651894</v>
       </c>
       <c r="K23">
-        <v>1.023540945408136</v>
+        <v>1.027088773729709</v>
       </c>
       <c r="L23">
-        <v>1.017190778772573</v>
+        <v>1.023248003016238</v>
       </c>
       <c r="M23">
-        <v>1.024287126288983</v>
+        <v>1.022577119357116</v>
       </c>
       <c r="N23">
-        <v>1.013757173287223</v>
+        <v>1.01001602184319</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.002005328960813</v>
+        <v>1.00189960609952</v>
       </c>
       <c r="D24">
-        <v>1.025115467551891</v>
+        <v>1.019712687834468</v>
       </c>
       <c r="E24">
-        <v>1.021387533051481</v>
+        <v>1.017853546362309</v>
       </c>
       <c r="F24">
-        <v>1.02820050597334</v>
+        <v>1.018135254474996</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050680513329848</v>
+        <v>1.043509923926607</v>
       </c>
       <c r="J24">
-        <v>1.029426403315381</v>
+        <v>1.029324727824338</v>
       </c>
       <c r="K24">
-        <v>1.038715430092504</v>
+        <v>1.033402249728234</v>
       </c>
       <c r="L24">
-        <v>1.035049188863727</v>
+        <v>1.031574223709159</v>
       </c>
       <c r="M24">
-        <v>1.041749849291927</v>
+        <v>1.031851207608149</v>
       </c>
       <c r="N24">
-        <v>1.030888306884948</v>
+        <v>1.012506017839067</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.023523087727654</v>
+        <v>1.01298986764345</v>
       </c>
       <c r="D25">
-        <v>1.042585769797682</v>
+        <v>1.0281569350082</v>
       </c>
       <c r="E25">
-        <v>1.041734427766185</v>
+        <v>1.028568823908946</v>
       </c>
       <c r="F25">
-        <v>1.04811746902258</v>
+        <v>1.029919336961001</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.058774902666847</v>
+        <v>1.047428533143438</v>
       </c>
       <c r="J25">
-        <v>1.047283935430371</v>
+        <v>1.037087841846996</v>
       </c>
       <c r="K25">
-        <v>1.054557103214563</v>
+        <v>1.040333327605824</v>
       </c>
       <c r="L25">
-        <v>1.053717661132992</v>
+        <v>1.040739261760253</v>
       </c>
       <c r="M25">
-        <v>1.060012074601306</v>
+        <v>1.042070292544607</v>
       </c>
       <c r="N25">
-        <v>1.048771198743828</v>
+        <v>1.015239350492366</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_37/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.021408851012254</v>
+        <v>1.054997697132236</v>
       </c>
       <c r="D2">
-        <v>1.034580544036581</v>
+        <v>1.054771049449333</v>
       </c>
       <c r="E2">
-        <v>1.036725249038217</v>
+        <v>1.068480997652134</v>
       </c>
       <c r="F2">
-        <v>1.038892970975198</v>
+        <v>1.075517826583241</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050368158609764</v>
+        <v>1.045925623614579</v>
       </c>
       <c r="J2">
-        <v>1.04296755312629</v>
+        <v>1.060006862798617</v>
       </c>
       <c r="K2">
-        <v>1.045578255106942</v>
+        <v>1.057513342850015</v>
       </c>
       <c r="L2">
-        <v>1.047695597189479</v>
+        <v>1.071186065228156</v>
       </c>
       <c r="M2">
-        <v>1.049835805859539</v>
+        <v>1.07820418588485</v>
       </c>
       <c r="N2">
-        <v>1.017307163409883</v>
+        <v>1.023669340828943</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.027300043443529</v>
+        <v>1.056201279661739</v>
       </c>
       <c r="D3">
-        <v>1.039081537755216</v>
+        <v>1.055702721894697</v>
       </c>
       <c r="E3">
-        <v>1.042444679634015</v>
+        <v>1.069709257235593</v>
       </c>
       <c r="F3">
-        <v>1.045188060918631</v>
+        <v>1.076888143554927</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052403960158495</v>
+        <v>1.046275464233516</v>
       </c>
       <c r="J3">
-        <v>1.047073171151304</v>
+        <v>1.060860719938657</v>
       </c>
       <c r="K3">
-        <v>1.049237639196361</v>
+        <v>1.058258022143918</v>
       </c>
       <c r="L3">
-        <v>1.052561816851832</v>
+        <v>1.072229287025454</v>
       </c>
       <c r="M3">
-        <v>1.055273643490447</v>
+        <v>1.079390478533576</v>
       </c>
       <c r="N3">
-        <v>1.018749368051793</v>
+        <v>1.023963296652942</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.031016993169251</v>
+        <v>1.05697970682106</v>
       </c>
       <c r="D4">
-        <v>1.041923684758876</v>
+        <v>1.056305166782596</v>
       </c>
       <c r="E4">
-        <v>1.046058555264218</v>
+        <v>1.070504041051371</v>
       </c>
       <c r="F4">
-        <v>1.049167037889474</v>
+        <v>1.077775121265602</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053678322328518</v>
+        <v>1.046500435295583</v>
       </c>
       <c r="J4">
-        <v>1.049659235426716</v>
+        <v>1.061412311453375</v>
       </c>
       <c r="K4">
-        <v>1.051541147108206</v>
+        <v>1.058738843530167</v>
       </c>
       <c r="L4">
-        <v>1.055631143805957</v>
+        <v>1.0729037699741</v>
       </c>
       <c r="M4">
-        <v>1.058706176907166</v>
+        <v>1.080157837369014</v>
       </c>
       <c r="N4">
-        <v>1.019656915291661</v>
+        <v>1.02415297318758</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.032557881379973</v>
+        <v>1.057306870971008</v>
       </c>
       <c r="D5">
-        <v>1.043102406005944</v>
+        <v>1.056558337616408</v>
       </c>
       <c r="E5">
-        <v>1.047557951651159</v>
+        <v>1.070838174367047</v>
       </c>
       <c r="F5">
-        <v>1.050818264092683</v>
+        <v>1.078148078756744</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054204155263939</v>
+        <v>1.046594678768652</v>
       </c>
       <c r="J5">
-        <v>1.050730234333417</v>
+        <v>1.061643983806342</v>
       </c>
       <c r="K5">
-        <v>1.052494757678405</v>
+        <v>1.058940733951567</v>
       </c>
       <c r="L5">
-        <v>1.056903296712185</v>
+        <v>1.073187192373587</v>
       </c>
       <c r="M5">
-        <v>1.060129520898107</v>
+        <v>1.080480376805211</v>
       </c>
       <c r="N5">
-        <v>1.020032545293204</v>
+        <v>1.024232586049705</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.032815358639283</v>
+        <v>1.057361798256651</v>
       </c>
       <c r="D6">
-        <v>1.043299393207067</v>
+        <v>1.056600840455455</v>
       </c>
       <c r="E6">
-        <v>1.047808567667542</v>
+        <v>1.070894277241325</v>
       </c>
       <c r="F6">
-        <v>1.051094278792098</v>
+        <v>1.078210704255952</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054291874181785</v>
+        <v>1.046610483073156</v>
       </c>
       <c r="J6">
-        <v>1.050909130484864</v>
+        <v>1.061682869946253</v>
       </c>
       <c r="K6">
-        <v>1.052654023507906</v>
+        <v>1.058974617796196</v>
       </c>
       <c r="L6">
-        <v>1.05711585301643</v>
+        <v>1.07323477265564</v>
       </c>
       <c r="M6">
-        <v>1.060367377497771</v>
+        <v>1.080534529242034</v>
       </c>
       <c r="N6">
-        <v>1.020095275738948</v>
+        <v>1.024245945953053</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.031037666606634</v>
+        <v>1.056984078742024</v>
       </c>
       <c r="D7">
-        <v>1.041939497311646</v>
+        <v>1.056308550043512</v>
       </c>
       <c r="E7">
-        <v>1.046078667168742</v>
+        <v>1.070508505730283</v>
       </c>
       <c r="F7">
-        <v>1.049189184929388</v>
+        <v>1.077780104455699</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053685386996702</v>
+        <v>1.046501695894529</v>
       </c>
       <c r="J7">
-        <v>1.049673608852297</v>
+        <v>1.061415407920493</v>
       </c>
       <c r="K7">
-        <v>1.05155394659586</v>
+        <v>1.058741542168582</v>
       </c>
       <c r="L7">
-        <v>1.055648212804089</v>
+        <v>1.072907557587606</v>
       </c>
       <c r="M7">
-        <v>1.058725271903847</v>
+        <v>1.080162147382915</v>
       </c>
       <c r="N7">
-        <v>1.019661957367283</v>
+        <v>1.024154037477743</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.023420133392133</v>
+        <v>1.055404531696952</v>
       </c>
       <c r="D8">
-        <v>1.036116674909473</v>
+        <v>1.055085997924419</v>
       </c>
       <c r="E8">
-        <v>1.038676756404928</v>
+        <v>1.068896091234048</v>
       </c>
       <c r="F8">
-        <v>1.041040623752108</v>
+        <v>1.075980872808761</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051065288725117</v>
+        <v>1.046044143974817</v>
       </c>
       <c r="J8">
-        <v>1.044370112991248</v>
+        <v>1.060295617327058</v>
       </c>
       <c r="K8">
-        <v>1.046828675455107</v>
+        <v>1.057765225865576</v>
       </c>
       <c r="L8">
-        <v>1.049357123266921</v>
+        <v>1.071538742127819</v>
       </c>
       <c r="M8">
-        <v>1.051691953275157</v>
+        <v>1.078605152430765</v>
       </c>
       <c r="N8">
-        <v>1.017800024472167</v>
+        <v>1.02376879504594</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.009218680909415</v>
+        <v>1.05261822424348</v>
       </c>
       <c r="D9">
-        <v>1.025283162733218</v>
+        <v>1.052928521903111</v>
       </c>
       <c r="E9">
-        <v>1.024921518969039</v>
+        <v>1.066054858881791</v>
       </c>
       <c r="F9">
-        <v>1.025907726518146</v>
+        <v>1.072812517975681</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046101476393996</v>
+        <v>1.045227135102106</v>
       </c>
       <c r="J9">
-        <v>1.034450051582595</v>
+        <v>1.058315361365682</v>
       </c>
       <c r="K9">
-        <v>1.037978936851985</v>
+        <v>1.056036847863565</v>
       </c>
       <c r="L9">
-        <v>1.037622799808255</v>
+        <v>1.069122413188943</v>
       </c>
       <c r="M9">
-        <v>1.038594002106851</v>
+        <v>1.075859506642642</v>
       </c>
       <c r="N9">
-        <v>1.014310941071235</v>
+        <v>1.023085854678582</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9991504680751608</v>
+        <v>1.050758563856461</v>
       </c>
       <c r="D10">
-        <v>1.017622824780779</v>
+        <v>1.051487996463275</v>
       </c>
       <c r="E10">
-        <v>1.015202282961001</v>
+        <v>1.064160611108945</v>
       </c>
       <c r="F10">
-        <v>1.015220115795244</v>
+        <v>1.070701555049879</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042531508851504</v>
+        <v>1.044675199042721</v>
       </c>
       <c r="J10">
-        <v>1.027397832218562</v>
+        <v>1.056990365296654</v>
       </c>
       <c r="K10">
-        <v>1.031681020373109</v>
+        <v>1.054879155850927</v>
       </c>
       <c r="L10">
-        <v>1.029302375263291</v>
+        <v>1.067508522968162</v>
       </c>
       <c r="M10">
-        <v>1.029319898486846</v>
+        <v>1.07402758457129</v>
       </c>
       <c r="N10">
-        <v>1.01182717583275</v>
+        <v>1.022627786055419</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9946288989322633</v>
+        <v>1.049952774579146</v>
       </c>
       <c r="D11">
-        <v>1.01418867162716</v>
+        <v>1.050863693376134</v>
       </c>
       <c r="E11">
-        <v>1.010845825547565</v>
+        <v>1.0633403302949</v>
       </c>
       <c r="F11">
-        <v>1.010430397208512</v>
+        <v>1.069787752233937</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040916893241083</v>
+        <v>1.044434472567105</v>
       </c>
       <c r="J11">
-        <v>1.024226841738359</v>
+        <v>1.05641546197446</v>
       </c>
       <c r="K11">
-        <v>1.028847880742277</v>
+        <v>1.054376555448147</v>
       </c>
       <c r="L11">
-        <v>1.025566063513674</v>
+        <v>1.066808952422551</v>
       </c>
       <c r="M11">
-        <v>1.02515825620869</v>
+        <v>1.073233958198101</v>
       </c>
       <c r="N11">
-        <v>1.010709796851216</v>
+        <v>1.022428773760097</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9929231965685433</v>
+        <v>1.049653383934834</v>
       </c>
       <c r="D12">
-        <v>1.012894209999908</v>
+        <v>1.050631715901339</v>
       </c>
       <c r="E12">
-        <v>1.009203729622003</v>
+        <v>1.063035630052221</v>
       </c>
       <c r="F12">
-        <v>1.008625071700778</v>
+        <v>1.069448360875761</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040306157568399</v>
+        <v>1.044344794581942</v>
       </c>
       <c r="J12">
-        <v>1.023030108814458</v>
+        <v>1.056201739423616</v>
       </c>
       <c r="K12">
-        <v>1.027778477582005</v>
+        <v>1.054189668622721</v>
       </c>
       <c r="L12">
-        <v>1.024156699717715</v>
+        <v>1.066548986474814</v>
       </c>
       <c r="M12">
-        <v>1.023588873704601</v>
+        <v>1.072939108441916</v>
       </c>
       <c r="N12">
-        <v>1.010288032813491</v>
+        <v>1.022354751239367</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9932902925584904</v>
+        <v>1.04971760812048</v>
       </c>
       <c r="D13">
-        <v>1.013172751652409</v>
+        <v>1.050681479659906</v>
       </c>
       <c r="E13">
-        <v>1.009557075802036</v>
+        <v>1.063100989846772</v>
       </c>
       <c r="F13">
-        <v>1.009013538600473</v>
+        <v>1.069521159908404</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040437671327792</v>
+        <v>1.044364042659376</v>
       </c>
       <c r="J13">
-        <v>1.023287688293197</v>
+        <v>1.056247591715162</v>
       </c>
       <c r="K13">
-        <v>1.028008658702667</v>
+        <v>1.054229765495417</v>
       </c>
       <c r="L13">
-        <v>1.024460012631356</v>
+        <v>1.066604755262446</v>
       </c>
       <c r="M13">
-        <v>1.023926606081674</v>
+        <v>1.073002357545591</v>
       </c>
       <c r="N13">
-        <v>1.010378814017713</v>
+        <v>1.022370633876939</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9944884507214837</v>
+        <v>1.049928028598239</v>
       </c>
       <c r="D14">
-        <v>1.014082063576384</v>
+        <v>1.050844519757836</v>
       </c>
       <c r="E14">
-        <v>1.010710587553038</v>
+        <v>1.063315143925676</v>
       </c>
       <c r="F14">
-        <v>1.010281714707636</v>
+        <v>1.069759697328052</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040866637993456</v>
+        <v>1.044427065095445</v>
       </c>
       <c r="J14">
-        <v>1.024128312408456</v>
+        <v>1.056397799240952</v>
       </c>
       <c r="K14">
-        <v>1.028759838139416</v>
+        <v>1.054361111386257</v>
       </c>
       <c r="L14">
-        <v>1.0254500133319</v>
+        <v>1.066787465901235</v>
       </c>
       <c r="M14">
-        <v>1.025029021339987</v>
+        <v>1.073209587097158</v>
       </c>
       <c r="N14">
-        <v>1.01067507339833</v>
+        <v>1.022422657088378</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9952231463195569</v>
+        <v>1.050057664298597</v>
       </c>
       <c r="D15">
-        <v>1.014639781180109</v>
+        <v>1.050944963033011</v>
       </c>
       <c r="E15">
-        <v>1.011418082199735</v>
+        <v>1.063447089731081</v>
       </c>
       <c r="F15">
-        <v>1.011059547068989</v>
+        <v>1.069906672742777</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041129460652966</v>
+        <v>1.044465860627334</v>
       </c>
       <c r="J15">
-        <v>1.024643706350799</v>
+        <v>1.056490323430398</v>
       </c>
       <c r="K15">
-        <v>1.029220370400941</v>
+        <v>1.054442011554766</v>
       </c>
       <c r="L15">
-        <v>1.026057085796459</v>
+        <v>1.066900024741214</v>
       </c>
       <c r="M15">
-        <v>1.025705081420501</v>
+        <v>1.073337259822204</v>
       </c>
       <c r="N15">
-        <v>1.01085670469231</v>
+        <v>1.022454696974579</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9994469830109348</v>
+        <v>1.05081202972778</v>
       </c>
       <c r="D16">
-        <v>1.017848164687455</v>
+        <v>1.05152941777272</v>
       </c>
       <c r="E16">
-        <v>1.015488149306395</v>
+        <v>1.064215048983311</v>
       </c>
       <c r="F16">
-        <v>1.015534425662132</v>
+        <v>1.07076220630792</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042637161272703</v>
+        <v>1.044691138648249</v>
       </c>
       <c r="J16">
-        <v>1.027605703781032</v>
+        <v>1.057028494898224</v>
       </c>
       <c r="K16">
-        <v>1.031866718948821</v>
+        <v>1.054912484009359</v>
       </c>
       <c r="L16">
-        <v>1.029547406614929</v>
+        <v>1.067554935259244</v>
       </c>
       <c r="M16">
-        <v>1.029592882492623</v>
+        <v>1.074080246451161</v>
       </c>
       <c r="N16">
-        <v>1.011900414569509</v>
+        <v>1.022640979780814</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.002051867678535</v>
+        <v>1.0512850755329</v>
       </c>
       <c r="D17">
-        <v>1.019828475881259</v>
+        <v>1.051895883555964</v>
       </c>
       <c r="E17">
-        <v>1.018000443286076</v>
+        <v>1.064696751926121</v>
       </c>
       <c r="F17">
-        <v>1.018296777086154</v>
+        <v>1.071298926831037</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043564037595922</v>
+        <v>1.044831984610866</v>
       </c>
       <c r="J17">
-        <v>1.029431423354449</v>
+        <v>1.05736576072534</v>
       </c>
       <c r="K17">
-        <v>1.033497548360084</v>
+        <v>1.055207246582144</v>
       </c>
       <c r="L17">
-        <v>1.031700052773507</v>
+        <v>1.067965542125342</v>
       </c>
       <c r="M17">
-        <v>1.031991426766155</v>
+        <v>1.074546195481732</v>
       </c>
       <c r="N17">
-        <v>1.012543602699202</v>
+        <v>1.022757651522033</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.003555760289049</v>
+        <v>1.051560942850761</v>
       </c>
       <c r="D18">
-        <v>1.020972343436212</v>
+        <v>1.052109584260638</v>
       </c>
       <c r="E18">
-        <v>1.019451667680792</v>
+        <v>1.064977715581809</v>
       </c>
       <c r="F18">
-        <v>1.019892524617851</v>
+        <v>1.071612011940132</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044098078913102</v>
+        <v>1.044913970380783</v>
       </c>
       <c r="J18">
-        <v>1.030485105061955</v>
+        <v>1.057562369293372</v>
       </c>
       <c r="K18">
-        <v>1.034438626865653</v>
+        <v>1.055379050107413</v>
       </c>
       <c r="L18">
-        <v>1.0329428796628</v>
+        <v>1.068204970397423</v>
       </c>
       <c r="M18">
-        <v>1.033376499759899</v>
+        <v>1.074817938026074</v>
       </c>
       <c r="N18">
-        <v>1.012914752364398</v>
+        <v>1.022825639992358</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.004065974387818</v>
+        <v>1.051654997693503</v>
       </c>
       <c r="D19">
-        <v>1.021360506826349</v>
+        <v>1.052182441802771</v>
       </c>
       <c r="E19">
-        <v>1.019944145352339</v>
+        <v>1.065073516067939</v>
       </c>
       <c r="F19">
-        <v>1.020434060936026</v>
+        <v>1.071718770222778</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04427907441941</v>
+        <v>1.044941897058952</v>
       </c>
       <c r="J19">
-        <v>1.030842514753769</v>
+        <v>1.057629388644</v>
       </c>
       <c r="K19">
-        <v>1.034757819474253</v>
+        <v>1.055437609259462</v>
       </c>
       <c r="L19">
-        <v>1.033364526989301</v>
+        <v>1.068286597147303</v>
       </c>
       <c r="M19">
-        <v>1.033846453764118</v>
+        <v>1.074910588907238</v>
       </c>
       <c r="N19">
-        <v>1.013040636716777</v>
+        <v>1.022848811432252</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.001774003497276</v>
+        <v>1.05123432762632</v>
       </c>
       <c r="D20">
-        <v>1.019617175909418</v>
+        <v>1.051856570696434</v>
       </c>
       <c r="E20">
-        <v>1.017732373588729</v>
+        <v>1.064645070349898</v>
       </c>
       <c r="F20">
-        <v>1.018002017665686</v>
+        <v>1.071241339224846</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043465278730036</v>
+        <v>1.044816890483065</v>
       </c>
       <c r="J20">
-        <v>1.029236711150967</v>
+        <v>1.057329586984513</v>
       </c>
       <c r="K20">
-        <v>1.033323634017669</v>
+        <v>1.055175634443659</v>
       </c>
       <c r="L20">
-        <v>1.031470425788454</v>
+        <v>1.067921495335397</v>
       </c>
       <c r="M20">
-        <v>1.031735540697516</v>
+        <v>1.074496207474556</v>
       </c>
       <c r="N20">
-        <v>1.012475012530057</v>
+        <v>1.022745140390997</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9941363618421594</v>
+        <v>1.049866067371557</v>
       </c>
       <c r="D21">
-        <v>1.013814825366243</v>
+        <v>1.050796510829831</v>
       </c>
       <c r="E21">
-        <v>1.010371581596575</v>
+        <v>1.06325208122306</v>
       </c>
       <c r="F21">
-        <v>1.009909008093752</v>
+        <v>1.069689453042752</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04074062716077</v>
+        <v>1.044408513783152</v>
       </c>
       <c r="J21">
-        <v>1.023881301635457</v>
+        <v>1.056353571793414</v>
       </c>
       <c r="K21">
-        <v>1.028539114610142</v>
+        <v>1.054322438791321</v>
       </c>
       <c r="L21">
-        <v>1.025159089734662</v>
+        <v>1.066733665345817</v>
       </c>
       <c r="M21">
-        <v>1.024705052020339</v>
+        <v>1.073148564880949</v>
       </c>
       <c r="N21">
-        <v>1.010588021525976</v>
+        <v>1.022407340327393</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9891816825038734</v>
+        <v>1.049005296769669</v>
       </c>
       <c r="D22">
-        <v>1.010056796691221</v>
+        <v>1.050129525214581</v>
       </c>
       <c r="E22">
-        <v>1.005604240915708</v>
+        <v>1.0623761862962</v>
       </c>
       <c r="F22">
-        <v>1.004667886725347</v>
+        <v>1.068713925595589</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038963537406456</v>
+        <v>1.044150238024279</v>
       </c>
       <c r="J22">
-        <v>1.020404157118986</v>
+        <v>1.055738882326033</v>
       </c>
       <c r="K22">
-        <v>1.025431624856013</v>
+        <v>1.053784850690353</v>
       </c>
       <c r="L22">
-        <v>1.021065488265641</v>
+        <v>1.065986167042483</v>
       </c>
       <c r="M22">
-        <v>1.020147435583907</v>
+        <v>1.072300890847008</v>
       </c>
       <c r="N22">
-        <v>1.00936247405311</v>
+        <v>1.022194370347384</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9918233863020076</v>
+        <v>1.049461655067631</v>
       </c>
       <c r="D23">
-        <v>1.012059866425344</v>
+        <v>1.050483153270827</v>
       </c>
       <c r="E23">
-        <v>1.008145311824317</v>
+        <v>1.062840522011997</v>
       </c>
       <c r="F23">
-        <v>1.007461461617908</v>
+        <v>1.069231052751925</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039911910063578</v>
+        <v>1.044287298605487</v>
       </c>
       <c r="J23">
-        <v>1.02225833651894</v>
+        <v>1.056064839105281</v>
       </c>
       <c r="K23">
-        <v>1.027088773729709</v>
+        <v>1.054069945844621</v>
       </c>
       <c r="L23">
-        <v>1.023248003016238</v>
+        <v>1.066382493600457</v>
       </c>
       <c r="M23">
-        <v>1.022577119357116</v>
+        <v>1.072750293691368</v>
       </c>
       <c r="N23">
-        <v>1.01001602184319</v>
+        <v>1.022307325067157</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.00189960609952</v>
+        <v>1.051257258582446</v>
       </c>
       <c r="D24">
-        <v>1.019712687834468</v>
+        <v>1.051874334648008</v>
       </c>
       <c r="E24">
-        <v>1.017853546362309</v>
+        <v>1.064668423046655</v>
       </c>
       <c r="F24">
-        <v>1.018135254474996</v>
+        <v>1.071267360507651</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043509923926607</v>
+        <v>1.044823711386635</v>
       </c>
       <c r="J24">
-        <v>1.029324727824338</v>
+        <v>1.057345932689712</v>
       </c>
       <c r="K24">
-        <v>1.033402249728234</v>
+        <v>1.055189918999193</v>
       </c>
       <c r="L24">
-        <v>1.031574223709159</v>
+        <v>1.067941398405549</v>
       </c>
       <c r="M24">
-        <v>1.031851207608149</v>
+        <v>1.074518795019585</v>
       </c>
       <c r="N24">
-        <v>1.012506017839067</v>
+        <v>1.022750793830917</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.01298986764345</v>
+        <v>1.053338915047045</v>
       </c>
       <c r="D25">
-        <v>1.0281569350082</v>
+        <v>1.053486665349069</v>
       </c>
       <c r="E25">
-        <v>1.028568823908946</v>
+        <v>1.066789392723426</v>
       </c>
       <c r="F25">
-        <v>1.029919336961001</v>
+        <v>1.073631377956531</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047428533143438</v>
+        <v>1.045439628787756</v>
       </c>
       <c r="J25">
-        <v>1.037087841846996</v>
+        <v>1.058828148833411</v>
       </c>
       <c r="K25">
-        <v>1.040333327605824</v>
+        <v>1.056484628544889</v>
       </c>
       <c r="L25">
-        <v>1.040739261760253</v>
+        <v>1.069747613404274</v>
       </c>
       <c r="M25">
-        <v>1.042070292544607</v>
+        <v>1.076569575074501</v>
       </c>
       <c r="N25">
-        <v>1.015239350492366</v>
+        <v>1.023262898596245</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_37/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.054997697132236</v>
+        <v>1.021408851012255</v>
       </c>
       <c r="D2">
-        <v>1.054771049449333</v>
+        <v>1.034580544036582</v>
       </c>
       <c r="E2">
-        <v>1.068480997652134</v>
+        <v>1.036725249038218</v>
       </c>
       <c r="F2">
-        <v>1.075517826583241</v>
+        <v>1.0388929709752</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045925623614579</v>
+        <v>1.050368158609765</v>
       </c>
       <c r="J2">
-        <v>1.060006862798617</v>
+        <v>1.042967553126291</v>
       </c>
       <c r="K2">
-        <v>1.057513342850015</v>
+        <v>1.045578255106943</v>
       </c>
       <c r="L2">
-        <v>1.071186065228156</v>
+        <v>1.04769559718948</v>
       </c>
       <c r="M2">
-        <v>1.07820418588485</v>
+        <v>1.04983580585954</v>
       </c>
       <c r="N2">
-        <v>1.023669340828943</v>
+        <v>1.017307163409883</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.056201279661739</v>
+        <v>1.02730004344353</v>
       </c>
       <c r="D3">
-        <v>1.055702721894697</v>
+        <v>1.039081537755216</v>
       </c>
       <c r="E3">
-        <v>1.069709257235593</v>
+        <v>1.042444679634015</v>
       </c>
       <c r="F3">
-        <v>1.076888143554927</v>
+        <v>1.045188060918631</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046275464233516</v>
+        <v>1.052403960158495</v>
       </c>
       <c r="J3">
-        <v>1.060860719938657</v>
+        <v>1.047073171151304</v>
       </c>
       <c r="K3">
-        <v>1.058258022143918</v>
+        <v>1.049237639196361</v>
       </c>
       <c r="L3">
-        <v>1.072229287025454</v>
+        <v>1.052561816851833</v>
       </c>
       <c r="M3">
-        <v>1.079390478533576</v>
+        <v>1.055273643490447</v>
       </c>
       <c r="N3">
-        <v>1.023963296652942</v>
+        <v>1.018749368051793</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.05697970682106</v>
+        <v>1.031016993169253</v>
       </c>
       <c r="D4">
-        <v>1.056305166782596</v>
+        <v>1.041923684758877</v>
       </c>
       <c r="E4">
-        <v>1.070504041051371</v>
+        <v>1.04605855526422</v>
       </c>
       <c r="F4">
-        <v>1.077775121265602</v>
+        <v>1.049167037889475</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046500435295583</v>
+        <v>1.053678322328519</v>
       </c>
       <c r="J4">
-        <v>1.061412311453375</v>
+        <v>1.049659235426717</v>
       </c>
       <c r="K4">
-        <v>1.058738843530167</v>
+        <v>1.051541147108207</v>
       </c>
       <c r="L4">
-        <v>1.0729037699741</v>
+        <v>1.055631143805958</v>
       </c>
       <c r="M4">
-        <v>1.080157837369014</v>
+        <v>1.058706176907168</v>
       </c>
       <c r="N4">
-        <v>1.02415297318758</v>
+        <v>1.019656915291661</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.057306870971008</v>
+        <v>1.032557881379972</v>
       </c>
       <c r="D5">
-        <v>1.056558337616408</v>
+        <v>1.043102406005944</v>
       </c>
       <c r="E5">
-        <v>1.070838174367047</v>
+        <v>1.047557951651159</v>
       </c>
       <c r="F5">
-        <v>1.078148078756744</v>
+        <v>1.050818264092683</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046594678768652</v>
+        <v>1.054204155263939</v>
       </c>
       <c r="J5">
-        <v>1.061643983806342</v>
+        <v>1.050730234333417</v>
       </c>
       <c r="K5">
-        <v>1.058940733951567</v>
+        <v>1.052494757678405</v>
       </c>
       <c r="L5">
-        <v>1.073187192373587</v>
+        <v>1.056903296712185</v>
       </c>
       <c r="M5">
-        <v>1.080480376805211</v>
+        <v>1.060129520898108</v>
       </c>
       <c r="N5">
-        <v>1.024232586049705</v>
+        <v>1.020032545293204</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.057361798256651</v>
+        <v>1.032815358639283</v>
       </c>
       <c r="D6">
-        <v>1.056600840455455</v>
+        <v>1.043299393207067</v>
       </c>
       <c r="E6">
-        <v>1.070894277241325</v>
+        <v>1.047808567667542</v>
       </c>
       <c r="F6">
-        <v>1.078210704255952</v>
+        <v>1.051094278792098</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046610483073156</v>
+        <v>1.054291874181785</v>
       </c>
       <c r="J6">
-        <v>1.061682869946253</v>
+        <v>1.050909130484864</v>
       </c>
       <c r="K6">
-        <v>1.058974617796196</v>
+        <v>1.052654023507906</v>
       </c>
       <c r="L6">
-        <v>1.07323477265564</v>
+        <v>1.057115853016429</v>
       </c>
       <c r="M6">
-        <v>1.080534529242034</v>
+        <v>1.06036737749777</v>
       </c>
       <c r="N6">
-        <v>1.024245945953053</v>
+        <v>1.020095275738948</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.056984078742024</v>
+        <v>1.031037666606634</v>
       </c>
       <c r="D7">
-        <v>1.056308550043512</v>
+        <v>1.041939497311646</v>
       </c>
       <c r="E7">
-        <v>1.070508505730283</v>
+        <v>1.046078667168742</v>
       </c>
       <c r="F7">
-        <v>1.077780104455699</v>
+        <v>1.049189184929388</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046501695894529</v>
+        <v>1.053685386996703</v>
       </c>
       <c r="J7">
-        <v>1.061415407920493</v>
+        <v>1.049673608852298</v>
       </c>
       <c r="K7">
-        <v>1.058741542168582</v>
+        <v>1.051553946595861</v>
       </c>
       <c r="L7">
-        <v>1.072907557587606</v>
+        <v>1.055648212804089</v>
       </c>
       <c r="M7">
-        <v>1.080162147382915</v>
+        <v>1.058725271903847</v>
       </c>
       <c r="N7">
-        <v>1.024154037477743</v>
+        <v>1.019661957367283</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.055404531696952</v>
+        <v>1.023420133392134</v>
       </c>
       <c r="D8">
-        <v>1.055085997924419</v>
+        <v>1.036116674909474</v>
       </c>
       <c r="E8">
-        <v>1.068896091234048</v>
+        <v>1.038676756404929</v>
       </c>
       <c r="F8">
-        <v>1.075980872808761</v>
+        <v>1.041040623752109</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046044143974817</v>
+        <v>1.051065288725118</v>
       </c>
       <c r="J8">
-        <v>1.060295617327058</v>
+        <v>1.044370112991249</v>
       </c>
       <c r="K8">
-        <v>1.057765225865576</v>
+        <v>1.046828675455108</v>
       </c>
       <c r="L8">
-        <v>1.071538742127819</v>
+        <v>1.049357123266923</v>
       </c>
       <c r="M8">
-        <v>1.078605152430765</v>
+        <v>1.051691953275158</v>
       </c>
       <c r="N8">
-        <v>1.02376879504594</v>
+        <v>1.017800024472167</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.05261822424348</v>
+        <v>1.009218680909414</v>
       </c>
       <c r="D9">
-        <v>1.052928521903111</v>
+        <v>1.025283162733217</v>
       </c>
       <c r="E9">
-        <v>1.066054858881791</v>
+        <v>1.024921518969038</v>
       </c>
       <c r="F9">
-        <v>1.072812517975681</v>
+        <v>1.025907726518145</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045227135102106</v>
+        <v>1.046101476393995</v>
       </c>
       <c r="J9">
-        <v>1.058315361365682</v>
+        <v>1.034450051582594</v>
       </c>
       <c r="K9">
-        <v>1.056036847863565</v>
+        <v>1.037978936851984</v>
       </c>
       <c r="L9">
-        <v>1.069122413188943</v>
+        <v>1.037622799808254</v>
       </c>
       <c r="M9">
-        <v>1.075859506642642</v>
+        <v>1.03859400210685</v>
       </c>
       <c r="N9">
-        <v>1.023085854678582</v>
+        <v>1.014310941071235</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.050758563856461</v>
+        <v>0.9991504680751613</v>
       </c>
       <c r="D10">
-        <v>1.051487996463275</v>
+        <v>1.017622824780779</v>
       </c>
       <c r="E10">
-        <v>1.064160611108945</v>
+        <v>1.015202282961001</v>
       </c>
       <c r="F10">
-        <v>1.070701555049879</v>
+        <v>1.015220115795244</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044675199042721</v>
+        <v>1.042531508851504</v>
       </c>
       <c r="J10">
-        <v>1.056990365296654</v>
+        <v>1.027397832218562</v>
       </c>
       <c r="K10">
-        <v>1.054879155850927</v>
+        <v>1.031681020373109</v>
       </c>
       <c r="L10">
-        <v>1.067508522968162</v>
+        <v>1.029302375263291</v>
       </c>
       <c r="M10">
-        <v>1.07402758457129</v>
+        <v>1.029319898486847</v>
       </c>
       <c r="N10">
-        <v>1.022627786055419</v>
+        <v>1.01182717583275</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.049952774579146</v>
+        <v>0.9946288989322645</v>
       </c>
       <c r="D11">
-        <v>1.050863693376134</v>
+        <v>1.014188671627161</v>
       </c>
       <c r="E11">
-        <v>1.0633403302949</v>
+        <v>1.010845825547566</v>
       </c>
       <c r="F11">
-        <v>1.069787752233937</v>
+        <v>1.010430397208514</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044434472567105</v>
+        <v>1.040916893241083</v>
       </c>
       <c r="J11">
-        <v>1.05641546197446</v>
+        <v>1.02422684173836</v>
       </c>
       <c r="K11">
-        <v>1.054376555448147</v>
+        <v>1.028847880742278</v>
       </c>
       <c r="L11">
-        <v>1.066808952422551</v>
+        <v>1.025566063513675</v>
       </c>
       <c r="M11">
-        <v>1.073233958198101</v>
+        <v>1.025158256208692</v>
       </c>
       <c r="N11">
-        <v>1.022428773760097</v>
+        <v>1.010709796851217</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.049653383934834</v>
+        <v>0.9929231965685438</v>
       </c>
       <c r="D12">
-        <v>1.050631715901339</v>
+        <v>1.012894209999908</v>
       </c>
       <c r="E12">
-        <v>1.063035630052221</v>
+        <v>1.009203729622004</v>
       </c>
       <c r="F12">
-        <v>1.069448360875761</v>
+        <v>1.008625071700779</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044344794581942</v>
+        <v>1.040306157568399</v>
       </c>
       <c r="J12">
-        <v>1.056201739423616</v>
+        <v>1.023030108814458</v>
       </c>
       <c r="K12">
-        <v>1.054189668622721</v>
+        <v>1.027778477582006</v>
       </c>
       <c r="L12">
-        <v>1.066548986474814</v>
+        <v>1.024156699717715</v>
       </c>
       <c r="M12">
-        <v>1.072939108441916</v>
+        <v>1.023588873704601</v>
       </c>
       <c r="N12">
-        <v>1.022354751239367</v>
+        <v>1.010288032813491</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.04971760812048</v>
+        <v>0.9932902925584887</v>
       </c>
       <c r="D13">
-        <v>1.050681479659906</v>
+        <v>1.013172751652407</v>
       </c>
       <c r="E13">
-        <v>1.063100989846772</v>
+        <v>1.009557075802034</v>
       </c>
       <c r="F13">
-        <v>1.069521159908404</v>
+        <v>1.009013538600471</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044364042659376</v>
+        <v>1.040437671327791</v>
       </c>
       <c r="J13">
-        <v>1.056247591715162</v>
+        <v>1.023287688293195</v>
       </c>
       <c r="K13">
-        <v>1.054229765495417</v>
+        <v>1.028008658702665</v>
       </c>
       <c r="L13">
-        <v>1.066604755262446</v>
+        <v>1.024460012631354</v>
       </c>
       <c r="M13">
-        <v>1.073002357545591</v>
+        <v>1.023926606081673</v>
       </c>
       <c r="N13">
-        <v>1.022370633876939</v>
+        <v>1.010378814017712</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.049928028598239</v>
+        <v>0.9944884507214823</v>
       </c>
       <c r="D14">
-        <v>1.050844519757836</v>
+        <v>1.014082063576383</v>
       </c>
       <c r="E14">
-        <v>1.063315143925676</v>
+        <v>1.010710587553036</v>
       </c>
       <c r="F14">
-        <v>1.069759697328052</v>
+        <v>1.010281714707634</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044427065095445</v>
+        <v>1.040866637993456</v>
       </c>
       <c r="J14">
-        <v>1.056397799240952</v>
+        <v>1.024128312408455</v>
       </c>
       <c r="K14">
-        <v>1.054361111386257</v>
+        <v>1.028759838139415</v>
       </c>
       <c r="L14">
-        <v>1.066787465901235</v>
+        <v>1.025450013331898</v>
       </c>
       <c r="M14">
-        <v>1.073209587097158</v>
+        <v>1.025029021339986</v>
       </c>
       <c r="N14">
-        <v>1.022422657088378</v>
+        <v>1.010675073398329</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.050057664298597</v>
+        <v>0.995223146319556</v>
       </c>
       <c r="D15">
-        <v>1.050944963033011</v>
+        <v>1.014639781180108</v>
       </c>
       <c r="E15">
-        <v>1.063447089731081</v>
+        <v>1.011418082199734</v>
       </c>
       <c r="F15">
-        <v>1.069906672742777</v>
+        <v>1.011059547068988</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044465860627334</v>
+        <v>1.041129460652965</v>
       </c>
       <c r="J15">
-        <v>1.056490323430398</v>
+        <v>1.024643706350798</v>
       </c>
       <c r="K15">
-        <v>1.054442011554766</v>
+        <v>1.02922037040094</v>
       </c>
       <c r="L15">
-        <v>1.066900024741214</v>
+        <v>1.026057085796458</v>
       </c>
       <c r="M15">
-        <v>1.073337259822204</v>
+        <v>1.025705081420501</v>
       </c>
       <c r="N15">
-        <v>1.022454696974579</v>
+        <v>1.01085670469231</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.05081202972778</v>
+        <v>0.9994469830109337</v>
       </c>
       <c r="D16">
-        <v>1.05152941777272</v>
+        <v>1.017848164687454</v>
       </c>
       <c r="E16">
-        <v>1.064215048983311</v>
+        <v>1.015488149306394</v>
       </c>
       <c r="F16">
-        <v>1.07076220630792</v>
+        <v>1.015534425662131</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044691138648249</v>
+        <v>1.042637161272702</v>
       </c>
       <c r="J16">
-        <v>1.057028494898224</v>
+        <v>1.027605703781031</v>
       </c>
       <c r="K16">
-        <v>1.054912484009359</v>
+        <v>1.03186671894882</v>
       </c>
       <c r="L16">
-        <v>1.067554935259244</v>
+        <v>1.029547406614927</v>
       </c>
       <c r="M16">
-        <v>1.074080246451161</v>
+        <v>1.029592882492622</v>
       </c>
       <c r="N16">
-        <v>1.022640979780814</v>
+        <v>1.011900414569508</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.0512850755329</v>
+        <v>1.002051867678535</v>
       </c>
       <c r="D17">
-        <v>1.051895883555964</v>
+        <v>1.019828475881259</v>
       </c>
       <c r="E17">
-        <v>1.064696751926121</v>
+        <v>1.018000443286077</v>
       </c>
       <c r="F17">
-        <v>1.071298926831037</v>
+        <v>1.018296777086155</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044831984610866</v>
+        <v>1.043564037595922</v>
       </c>
       <c r="J17">
-        <v>1.05736576072534</v>
+        <v>1.029431423354449</v>
       </c>
       <c r="K17">
-        <v>1.055207246582144</v>
+        <v>1.033497548360085</v>
       </c>
       <c r="L17">
-        <v>1.067965542125342</v>
+        <v>1.031700052773508</v>
       </c>
       <c r="M17">
-        <v>1.074546195481732</v>
+        <v>1.031991426766156</v>
       </c>
       <c r="N17">
-        <v>1.022757651522033</v>
+        <v>1.012543602699202</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.051560942850761</v>
+        <v>1.00355576028905</v>
       </c>
       <c r="D18">
-        <v>1.052109584260638</v>
+        <v>1.020972343436213</v>
       </c>
       <c r="E18">
-        <v>1.064977715581809</v>
+        <v>1.019451667680793</v>
       </c>
       <c r="F18">
-        <v>1.071612011940132</v>
+        <v>1.019892524617851</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044913970380783</v>
+        <v>1.044098078913103</v>
       </c>
       <c r="J18">
-        <v>1.057562369293372</v>
+        <v>1.030485105061956</v>
       </c>
       <c r="K18">
-        <v>1.055379050107413</v>
+        <v>1.034438626865653</v>
       </c>
       <c r="L18">
-        <v>1.068204970397423</v>
+        <v>1.032942879662801</v>
       </c>
       <c r="M18">
-        <v>1.074817938026074</v>
+        <v>1.0333764997599</v>
       </c>
       <c r="N18">
-        <v>1.022825639992358</v>
+        <v>1.012914752364399</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.051654997693503</v>
+        <v>1.004065974387818</v>
       </c>
       <c r="D19">
-        <v>1.052182441802771</v>
+        <v>1.02136050682635</v>
       </c>
       <c r="E19">
-        <v>1.065073516067939</v>
+        <v>1.019944145352339</v>
       </c>
       <c r="F19">
-        <v>1.071718770222778</v>
+        <v>1.020434060936027</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044941897058952</v>
+        <v>1.044279074419411</v>
       </c>
       <c r="J19">
-        <v>1.057629388644</v>
+        <v>1.030842514753769</v>
       </c>
       <c r="K19">
-        <v>1.055437609259462</v>
+        <v>1.034757819474254</v>
       </c>
       <c r="L19">
-        <v>1.068286597147303</v>
+        <v>1.033364526989301</v>
       </c>
       <c r="M19">
-        <v>1.074910588907238</v>
+        <v>1.033846453764119</v>
       </c>
       <c r="N19">
-        <v>1.022848811432252</v>
+        <v>1.013040636716778</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.05123432762632</v>
+        <v>1.001774003497276</v>
       </c>
       <c r="D20">
-        <v>1.051856570696434</v>
+        <v>1.019617175909417</v>
       </c>
       <c r="E20">
-        <v>1.064645070349898</v>
+        <v>1.017732373588728</v>
       </c>
       <c r="F20">
-        <v>1.071241339224846</v>
+        <v>1.018002017665686</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044816890483065</v>
+        <v>1.043465278730036</v>
       </c>
       <c r="J20">
-        <v>1.057329586984513</v>
+        <v>1.029236711150966</v>
       </c>
       <c r="K20">
-        <v>1.055175634443659</v>
+        <v>1.033323634017668</v>
       </c>
       <c r="L20">
-        <v>1.067921495335397</v>
+        <v>1.031470425788454</v>
       </c>
       <c r="M20">
-        <v>1.074496207474556</v>
+        <v>1.031735540697515</v>
       </c>
       <c r="N20">
-        <v>1.022745140390997</v>
+        <v>1.012475012530057</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.049866067371557</v>
+        <v>0.9941363618421594</v>
       </c>
       <c r="D21">
-        <v>1.050796510829831</v>
+        <v>1.013814825366243</v>
       </c>
       <c r="E21">
-        <v>1.06325208122306</v>
+        <v>1.010371581596575</v>
       </c>
       <c r="F21">
-        <v>1.069689453042752</v>
+        <v>1.009909008093752</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044408513783152</v>
+        <v>1.04074062716077</v>
       </c>
       <c r="J21">
-        <v>1.056353571793414</v>
+        <v>1.023881301635457</v>
       </c>
       <c r="K21">
-        <v>1.054322438791321</v>
+        <v>1.028539114610143</v>
       </c>
       <c r="L21">
-        <v>1.066733665345817</v>
+        <v>1.025159089734662</v>
       </c>
       <c r="M21">
-        <v>1.073148564880949</v>
+        <v>1.024705052020339</v>
       </c>
       <c r="N21">
-        <v>1.022407340327393</v>
+        <v>1.010588021525976</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.049005296769669</v>
+        <v>0.9891816825038728</v>
       </c>
       <c r="D22">
-        <v>1.050129525214581</v>
+        <v>1.01005679669122</v>
       </c>
       <c r="E22">
-        <v>1.0623761862962</v>
+        <v>1.005604240915707</v>
       </c>
       <c r="F22">
-        <v>1.068713925595589</v>
+        <v>1.004667886725346</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044150238024279</v>
+        <v>1.038963537406456</v>
       </c>
       <c r="J22">
-        <v>1.055738882326033</v>
+        <v>1.020404157118985</v>
       </c>
       <c r="K22">
-        <v>1.053784850690353</v>
+        <v>1.025431624856012</v>
       </c>
       <c r="L22">
-        <v>1.065986167042483</v>
+        <v>1.02106548826564</v>
       </c>
       <c r="M22">
-        <v>1.072300890847008</v>
+        <v>1.020147435583906</v>
       </c>
       <c r="N22">
-        <v>1.022194370347384</v>
+        <v>1.009362474053109</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.049461655067631</v>
+        <v>0.9918233863020072</v>
       </c>
       <c r="D23">
-        <v>1.050483153270827</v>
+        <v>1.012059866425343</v>
       </c>
       <c r="E23">
-        <v>1.062840522011997</v>
+        <v>1.008145311824317</v>
       </c>
       <c r="F23">
-        <v>1.069231052751925</v>
+        <v>1.007461461617908</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044287298605487</v>
+        <v>1.039911910063578</v>
       </c>
       <c r="J23">
-        <v>1.056064839105281</v>
+        <v>1.02225833651894</v>
       </c>
       <c r="K23">
-        <v>1.054069945844621</v>
+        <v>1.027088773729709</v>
       </c>
       <c r="L23">
-        <v>1.066382493600457</v>
+        <v>1.023248003016238</v>
       </c>
       <c r="M23">
-        <v>1.072750293691368</v>
+        <v>1.022577119357116</v>
       </c>
       <c r="N23">
-        <v>1.022307325067157</v>
+        <v>1.010016021843189</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.051257258582446</v>
+        <v>1.00189960609952</v>
       </c>
       <c r="D24">
-        <v>1.051874334648008</v>
+        <v>1.019712687834468</v>
       </c>
       <c r="E24">
-        <v>1.064668423046655</v>
+        <v>1.017853546362309</v>
       </c>
       <c r="F24">
-        <v>1.071267360507651</v>
+        <v>1.018135254474996</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044823711386635</v>
+        <v>1.043509923926607</v>
       </c>
       <c r="J24">
-        <v>1.057345932689712</v>
+        <v>1.029324727824338</v>
       </c>
       <c r="K24">
-        <v>1.055189918999193</v>
+        <v>1.033402249728234</v>
       </c>
       <c r="L24">
-        <v>1.067941398405549</v>
+        <v>1.031574223709159</v>
       </c>
       <c r="M24">
-        <v>1.074518795019585</v>
+        <v>1.031851207608149</v>
       </c>
       <c r="N24">
-        <v>1.022750793830917</v>
+        <v>1.012506017839067</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.053338915047045</v>
+        <v>1.012989867643451</v>
       </c>
       <c r="D25">
-        <v>1.053486665349069</v>
+        <v>1.028156935008201</v>
       </c>
       <c r="E25">
-        <v>1.066789392723426</v>
+        <v>1.028568823908947</v>
       </c>
       <c r="F25">
-        <v>1.073631377956531</v>
+        <v>1.029919336961002</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045439628787756</v>
+        <v>1.047428533143439</v>
       </c>
       <c r="J25">
-        <v>1.058828148833411</v>
+        <v>1.037087841846997</v>
       </c>
       <c r="K25">
-        <v>1.056484628544889</v>
+        <v>1.040333327605825</v>
       </c>
       <c r="L25">
-        <v>1.069747613404274</v>
+        <v>1.040739261760255</v>
       </c>
       <c r="M25">
-        <v>1.076569575074501</v>
+        <v>1.042070292544608</v>
       </c>
       <c r="N25">
-        <v>1.023262898596245</v>
+        <v>1.015239350492366</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_37/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.021408851012255</v>
+        <v>1.011038843954704</v>
       </c>
       <c r="D2">
-        <v>1.034580544036582</v>
+        <v>1.032575141840951</v>
       </c>
       <c r="E2">
-        <v>1.036725249038218</v>
+        <v>1.029637058104364</v>
       </c>
       <c r="F2">
-        <v>1.0388929709752</v>
+        <v>1.038221348638082</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050368158609765</v>
+        <v>1.053051306116509</v>
       </c>
       <c r="J2">
-        <v>1.042967553126291</v>
+        <v>1.032894324569872</v>
       </c>
       <c r="K2">
-        <v>1.045578255106943</v>
+        <v>1.043598567129212</v>
       </c>
       <c r="L2">
-        <v>1.04769559718948</v>
+        <v>1.04069838322942</v>
       </c>
       <c r="M2">
-        <v>1.04983580585954</v>
+        <v>1.049172692584309</v>
       </c>
       <c r="N2">
-        <v>1.017307163409883</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.01477612270671</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.047489244968865</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.041898245102819</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02730004344353</v>
+        <v>1.014750779899529</v>
       </c>
       <c r="D3">
-        <v>1.039081537755216</v>
+        <v>1.035103002518857</v>
       </c>
       <c r="E3">
-        <v>1.042444679634015</v>
+        <v>1.032729880666551</v>
       </c>
       <c r="F3">
-        <v>1.045188060918631</v>
+        <v>1.041040699056491</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052403960158495</v>
+        <v>1.053845306304563</v>
       </c>
       <c r="J3">
-        <v>1.047073171151304</v>
+        <v>1.034847244363394</v>
       </c>
       <c r="K3">
-        <v>1.049237639196361</v>
+        <v>1.045305602492955</v>
       </c>
       <c r="L3">
-        <v>1.052561816851833</v>
+        <v>1.04296042738219</v>
       </c>
       <c r="M3">
-        <v>1.055273643490447</v>
+        <v>1.051174064491154</v>
       </c>
       <c r="N3">
-        <v>1.018749368051793</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.015436325334969</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.049073179786195</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.043102604212309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031016993169253</v>
+        <v>1.017111415117444</v>
       </c>
       <c r="D4">
-        <v>1.041923684758877</v>
+        <v>1.036712012054523</v>
       </c>
       <c r="E4">
-        <v>1.04605855526422</v>
+        <v>1.03470228628819</v>
       </c>
       <c r="F4">
-        <v>1.049167037889475</v>
+        <v>1.042839096667831</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053678322328519</v>
+        <v>1.054336499424637</v>
       </c>
       <c r="J4">
-        <v>1.049659235426717</v>
+        <v>1.036087311147418</v>
       </c>
       <c r="K4">
-        <v>1.051541147108207</v>
+        <v>1.046386660861759</v>
       </c>
       <c r="L4">
-        <v>1.055631143805958</v>
+        <v>1.04439917659047</v>
       </c>
       <c r="M4">
-        <v>1.058706176907168</v>
+        <v>1.052446586846443</v>
       </c>
       <c r="N4">
-        <v>1.019656915291661</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015855536976119</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.050080283435102</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.043867889234473</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032557881379972</v>
+        <v>1.018096981024355</v>
       </c>
       <c r="D5">
-        <v>1.043102406005944</v>
+        <v>1.037385635975159</v>
       </c>
       <c r="E5">
-        <v>1.047557951651159</v>
+        <v>1.03552745774927</v>
       </c>
       <c r="F5">
-        <v>1.050818264092683</v>
+        <v>1.043591624143115</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054204155263939</v>
+        <v>1.054539405651549</v>
       </c>
       <c r="J5">
-        <v>1.050730234333417</v>
+        <v>1.036605792175479</v>
       </c>
       <c r="K5">
-        <v>1.052494757678405</v>
+        <v>1.046839024923585</v>
       </c>
       <c r="L5">
-        <v>1.056903296712185</v>
+        <v>1.045000864156788</v>
       </c>
       <c r="M5">
-        <v>1.060129520898108</v>
+        <v>1.052978790498913</v>
       </c>
       <c r="N5">
-        <v>1.020032545293204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.016031187481894</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.050501481322004</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.04419487574242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032815358639283</v>
+        <v>1.018265242309487</v>
       </c>
       <c r="D6">
-        <v>1.043299393207067</v>
+        <v>1.037502561413661</v>
       </c>
       <c r="E6">
-        <v>1.047808567667542</v>
+        <v>1.035668896211095</v>
       </c>
       <c r="F6">
-        <v>1.051094278792098</v>
+        <v>1.043720696671044</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054291874181785</v>
+        <v>1.054575291739973</v>
       </c>
       <c r="J6">
-        <v>1.050909130484864</v>
+        <v>1.036695783710965</v>
       </c>
       <c r="K6">
-        <v>1.052654023507906</v>
+        <v>1.046918797032819</v>
       </c>
       <c r="L6">
-        <v>1.057115853016429</v>
+        <v>1.045104794862155</v>
       </c>
       <c r="M6">
-        <v>1.06036737749777</v>
+        <v>1.053070882229103</v>
       </c>
       <c r="N6">
-        <v>1.020095275738948</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.016062134197498</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.050574364755162</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.044259975782775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031037666606634</v>
+        <v>1.017133568788412</v>
       </c>
       <c r="D7">
-        <v>1.041939497311646</v>
+        <v>1.036732222810346</v>
       </c>
       <c r="E7">
-        <v>1.046078667168742</v>
+        <v>1.034722124540476</v>
       </c>
       <c r="F7">
-        <v>1.049189184929388</v>
+        <v>1.042857390701724</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053685386996703</v>
+        <v>1.054344921533072</v>
       </c>
       <c r="J7">
-        <v>1.049673608852298</v>
+        <v>1.036102989259313</v>
       </c>
       <c r="K7">
-        <v>1.051553946595861</v>
+        <v>1.046403788854827</v>
       </c>
       <c r="L7">
-        <v>1.055648212804089</v>
+        <v>1.044415927739179</v>
       </c>
       <c r="M7">
-        <v>1.058725271903847</v>
+        <v>1.052461844507349</v>
       </c>
       <c r="N7">
-        <v>1.019661957367283</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.015862099105176</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.050092358692879</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.043900000792725</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.023420133392134</v>
+        <v>1.012313111418913</v>
       </c>
       <c r="D8">
-        <v>1.036116674909474</v>
+        <v>1.03344875419412</v>
       </c>
       <c r="E8">
-        <v>1.038676756404929</v>
+        <v>1.030699233444806</v>
       </c>
       <c r="F8">
-        <v>1.041040623752109</v>
+        <v>1.039189710979747</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051065288725118</v>
+        <v>1.053331313772621</v>
       </c>
       <c r="J8">
-        <v>1.044370112991249</v>
+        <v>1.033570067458921</v>
       </c>
       <c r="K8">
-        <v>1.046828675455108</v>
+        <v>1.044193928740901</v>
       </c>
       <c r="L8">
-        <v>1.049357123266923</v>
+        <v>1.041478820719792</v>
       </c>
       <c r="M8">
-        <v>1.051691953275158</v>
+        <v>1.04986376283284</v>
       </c>
       <c r="N8">
-        <v>1.017800024472167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.015006198133942</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.048036175296883</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.042342008826798</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.009218680909414</v>
+        <v>1.003475381666826</v>
       </c>
       <c r="D9">
-        <v>1.025283162733217</v>
+        <v>1.02743414341437</v>
       </c>
       <c r="E9">
-        <v>1.024921518969038</v>
+        <v>1.023366733444519</v>
       </c>
       <c r="F9">
-        <v>1.025907726518145</v>
+        <v>1.032507942514817</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046101476393995</v>
+        <v>1.051360373673563</v>
       </c>
       <c r="J9">
-        <v>1.034450051582594</v>
+        <v>1.02890600934053</v>
       </c>
       <c r="K9">
-        <v>1.037978936851984</v>
+        <v>1.040097266773624</v>
       </c>
       <c r="L9">
-        <v>1.037622799808254</v>
+        <v>1.036091745426341</v>
       </c>
       <c r="M9">
-        <v>1.03859400210685</v>
+        <v>1.04509473392309</v>
       </c>
       <c r="N9">
-        <v>1.014310941071235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013428086305389</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.04426183793624</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.039442257204884</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9991504680751613</v>
+        <v>0.9974018342835006</v>
       </c>
       <c r="D10">
-        <v>1.017622824780779</v>
+        <v>1.023327926043464</v>
       </c>
       <c r="E10">
-        <v>1.015202282961001</v>
+        <v>1.018384575275836</v>
       </c>
       <c r="F10">
-        <v>1.015220115795244</v>
+        <v>1.028002894992612</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042531508851504</v>
+        <v>1.049951746252679</v>
       </c>
       <c r="J10">
-        <v>1.027397832218562</v>
+        <v>1.02571891637085</v>
       </c>
       <c r="K10">
-        <v>1.031681020373109</v>
+        <v>1.037288385541965</v>
       </c>
       <c r="L10">
-        <v>1.029302375263291</v>
+        <v>1.032429639145057</v>
       </c>
       <c r="M10">
-        <v>1.029319898486847</v>
+        <v>1.041884308733353</v>
       </c>
       <c r="N10">
-        <v>1.01182717583275</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.012356100625969</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.041772243999462</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.037472971142779</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9946288989322645</v>
+        <v>0.9951746081553241</v>
       </c>
       <c r="D11">
-        <v>1.014188671627161</v>
+        <v>1.021941331266661</v>
       </c>
       <c r="E11">
-        <v>1.010845825547566</v>
+        <v>1.016758892575567</v>
       </c>
       <c r="F11">
-        <v>1.010430397208514</v>
+        <v>1.02679070816024</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040916893241083</v>
+        <v>1.049528980564209</v>
       </c>
       <c r="J11">
-        <v>1.02422684173836</v>
+        <v>1.024749516069785</v>
       </c>
       <c r="K11">
-        <v>1.028847880742278</v>
+        <v>1.036460998367349</v>
       </c>
       <c r="L11">
-        <v>1.025566063513675</v>
+        <v>1.031371533092852</v>
       </c>
       <c r="M11">
-        <v>1.025158256208692</v>
+        <v>1.041224478839995</v>
       </c>
       <c r="N11">
-        <v>1.010709796851217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012080467547201</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.041684665177011</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.036920730816664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9929231965685438</v>
+        <v>0.9945020528654153</v>
       </c>
       <c r="D12">
-        <v>1.012894209999908</v>
+        <v>1.021568050417497</v>
       </c>
       <c r="E12">
-        <v>1.009203729622004</v>
+        <v>1.016351182760011</v>
       </c>
       <c r="F12">
-        <v>1.008625071700779</v>
+        <v>1.026612694185598</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040306157568399</v>
+        <v>1.049441948013748</v>
       </c>
       <c r="J12">
-        <v>1.023030108814458</v>
+        <v>1.024540932184904</v>
       </c>
       <c r="K12">
-        <v>1.027778477582006</v>
+        <v>1.03629338634139</v>
       </c>
       <c r="L12">
-        <v>1.024156699717715</v>
+        <v>1.031171684359414</v>
       </c>
       <c r="M12">
-        <v>1.023588873704601</v>
+        <v>1.041247200702021</v>
       </c>
       <c r="N12">
-        <v>1.010288032813491</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.01204943978764</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.042027930676574</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.036802224269934</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9932902925584887</v>
+        <v>0.9949953778514324</v>
       </c>
       <c r="D13">
-        <v>1.013172751652407</v>
+        <v>1.021966424440649</v>
       </c>
       <c r="E13">
-        <v>1.009557075802034</v>
+        <v>1.016868593386129</v>
       </c>
       <c r="F13">
-        <v>1.009013538600471</v>
+        <v>1.027239341613293</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040437671327791</v>
+        <v>1.04962165430748</v>
       </c>
       <c r="J13">
-        <v>1.023287688293195</v>
+        <v>1.024919661011864</v>
       </c>
       <c r="K13">
-        <v>1.028008658702665</v>
+        <v>1.036641881853152</v>
       </c>
       <c r="L13">
-        <v>1.024460012631354</v>
+        <v>1.03163662585738</v>
       </c>
       <c r="M13">
-        <v>1.023926606081673</v>
+        <v>1.0418202992178</v>
       </c>
       <c r="N13">
-        <v>1.010378814017712</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012211565558933</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.042756889484932</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.037046134730515</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9944884507214823</v>
+        <v>0.9958691581116722</v>
       </c>
       <c r="D14">
-        <v>1.014082063576383</v>
+        <v>1.022595710538383</v>
       </c>
       <c r="E14">
-        <v>1.010710587553036</v>
+        <v>1.017649796782149</v>
       </c>
       <c r="F14">
-        <v>1.010281714707634</v>
+        <v>1.028042659999045</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040866637993456</v>
+        <v>1.049868385594623</v>
       </c>
       <c r="J14">
-        <v>1.024128312408455</v>
+        <v>1.025450701680307</v>
       </c>
       <c r="K14">
-        <v>1.028759838139415</v>
+        <v>1.037120152272263</v>
       </c>
       <c r="L14">
-        <v>1.025450013331898</v>
+        <v>1.032262909645471</v>
       </c>
       <c r="M14">
-        <v>1.025029021339986</v>
+        <v>1.042470727425796</v>
       </c>
       <c r="N14">
-        <v>1.010675073398329</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.012412543170252</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.043443878177352</v>
+      </c>
+      <c r="Q14">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R14">
+        <v>1.037385706591822</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.995223146319556</v>
+        <v>0.9963409160642409</v>
       </c>
       <c r="D15">
-        <v>1.014639781180108</v>
+        <v>1.022923988394973</v>
       </c>
       <c r="E15">
-        <v>1.011418082199734</v>
+        <v>1.018049833418</v>
       </c>
       <c r="F15">
-        <v>1.011059547068988</v>
+        <v>1.028425871526052</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041129460652965</v>
+        <v>1.049990135740305</v>
       </c>
       <c r="J15">
-        <v>1.024643706350798</v>
+        <v>1.025714697890175</v>
       </c>
       <c r="K15">
-        <v>1.02922037040094</v>
+        <v>1.03735656335096</v>
       </c>
       <c r="L15">
-        <v>1.026057085796458</v>
+        <v>1.03256911623485</v>
       </c>
       <c r="M15">
-        <v>1.025705081420501</v>
+        <v>1.042761850442427</v>
       </c>
       <c r="N15">
-        <v>1.01085670469231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.012506392930356</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.043711420174254</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.03755870993422</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9994469830109337</v>
+        <v>0.9988220111645448</v>
       </c>
       <c r="D16">
-        <v>1.017848164687454</v>
+        <v>1.024595551429705</v>
       </c>
       <c r="E16">
-        <v>1.015488149306394</v>
+        <v>1.020068653694056</v>
       </c>
       <c r="F16">
-        <v>1.015534425662131</v>
+        <v>1.030240392766875</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042637161272702</v>
+        <v>1.050574547977038</v>
       </c>
       <c r="J16">
-        <v>1.027605703781031</v>
+        <v>1.027005509296864</v>
       </c>
       <c r="K16">
-        <v>1.03186671894882</v>
+        <v>1.03849906861349</v>
       </c>
       <c r="L16">
-        <v>1.029547406614927</v>
+        <v>1.034049133490768</v>
       </c>
       <c r="M16">
-        <v>1.029592882492622</v>
+        <v>1.04404916159437</v>
       </c>
       <c r="N16">
-        <v>1.011900414569508</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012934284789879</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.044690303347538</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.038369652955238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.002051867678535</v>
+        <v>1.000268674818454</v>
       </c>
       <c r="D17">
-        <v>1.019828475881259</v>
+        <v>1.025548597271643</v>
       </c>
       <c r="E17">
-        <v>1.018000443286077</v>
+        <v>1.021208636651883</v>
       </c>
       <c r="F17">
-        <v>1.018296777086155</v>
+        <v>1.031208048478843</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043564037595922</v>
+        <v>1.050889909702608</v>
       </c>
       <c r="J17">
-        <v>1.029431423354449</v>
+        <v>1.027716532163286</v>
       </c>
       <c r="K17">
-        <v>1.033497548360085</v>
+        <v>1.039123020482404</v>
       </c>
       <c r="L17">
-        <v>1.031700052773508</v>
+        <v>1.034854747019966</v>
       </c>
       <c r="M17">
-        <v>1.031991426766156</v>
+        <v>1.044690153227603</v>
       </c>
       <c r="N17">
-        <v>1.012543602699202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.013156874969606</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.045068328330602</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.038813385930816</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.00355576028905</v>
+        <v>1.000948633292496</v>
       </c>
       <c r="D18">
-        <v>1.020972343436213</v>
+        <v>1.02595346660193</v>
       </c>
       <c r="E18">
-        <v>1.019451667680793</v>
+        <v>1.021674201504557</v>
       </c>
       <c r="F18">
-        <v>1.019892524617851</v>
+        <v>1.03149978223003</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044098078913103</v>
+        <v>1.0509963166043</v>
       </c>
       <c r="J18">
-        <v>1.030485105061956</v>
+        <v>1.027975850245921</v>
       </c>
       <c r="K18">
-        <v>1.034438626865653</v>
+        <v>1.03933875837052</v>
       </c>
       <c r="L18">
-        <v>1.032942879662801</v>
+        <v>1.035129011489177</v>
       </c>
       <c r="M18">
-        <v>1.0333764997599</v>
+        <v>1.044796072082179</v>
       </c>
       <c r="N18">
-        <v>1.012914752364399</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.013215007323305</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.044915227314367</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.038954322346316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.004065974387818</v>
+        <v>1.000940261601709</v>
       </c>
       <c r="D19">
-        <v>1.02136050682635</v>
+        <v>1.02587141379151</v>
       </c>
       <c r="E19">
-        <v>1.019944145352339</v>
+        <v>1.021531978212173</v>
       </c>
       <c r="F19">
-        <v>1.020434060936027</v>
+        <v>1.031182097896246</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044279074419411</v>
+        <v>1.050920940994571</v>
       </c>
       <c r="J19">
-        <v>1.030842514753769</v>
+        <v>1.027833374190104</v>
       </c>
       <c r="K19">
-        <v>1.034757819474254</v>
+        <v>1.03919579963058</v>
       </c>
       <c r="L19">
-        <v>1.033364526989301</v>
+        <v>1.034926503595734</v>
       </c>
       <c r="M19">
-        <v>1.033846453764119</v>
+        <v>1.044421674630211</v>
       </c>
       <c r="N19">
-        <v>1.013040636716778</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.01313046473389</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.044295022023419</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.038859619551645</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.001774003497276</v>
+        <v>0.9989987167441656</v>
       </c>
       <c r="D20">
-        <v>1.019617175909417</v>
+        <v>1.024418924105893</v>
       </c>
       <c r="E20">
-        <v>1.017732373588728</v>
+        <v>1.019696552694381</v>
       </c>
       <c r="F20">
-        <v>1.018002017665686</v>
+        <v>1.029190900182773</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043465278730036</v>
+        <v>1.050336024929021</v>
       </c>
       <c r="J20">
-        <v>1.029236711150966</v>
+        <v>1.026568290820885</v>
       </c>
       <c r="K20">
-        <v>1.033323634017668</v>
+        <v>1.038045568785992</v>
       </c>
       <c r="L20">
-        <v>1.031470425788454</v>
+        <v>1.033401683548165</v>
       </c>
       <c r="M20">
-        <v>1.031735540697515</v>
+        <v>1.042739174550616</v>
       </c>
       <c r="N20">
-        <v>1.012475012530057</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012645727457429</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.042438270194012</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.03805027696643</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9941363618421594</v>
+        <v>0.9943510822116884</v>
       </c>
       <c r="D21">
-        <v>1.013814825366243</v>
+        <v>1.021256834659187</v>
       </c>
       <c r="E21">
-        <v>1.010371581596575</v>
+        <v>1.015857675475991</v>
       </c>
       <c r="F21">
-        <v>1.009909008093752</v>
+        <v>1.025670611914836</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04074062716077</v>
+        <v>1.049212379580241</v>
       </c>
       <c r="J21">
-        <v>1.023881301635457</v>
+        <v>1.024086895794645</v>
       </c>
       <c r="K21">
-        <v>1.028539114610143</v>
+        <v>1.035846378499465</v>
       </c>
       <c r="L21">
-        <v>1.025159089734662</v>
+        <v>1.030544720985272</v>
       </c>
       <c r="M21">
-        <v>1.024705052020339</v>
+        <v>1.040181438159104</v>
       </c>
       <c r="N21">
-        <v>1.010588021525976</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.011801553725254</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.040373303526662</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.036498597790441</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9891816825038728</v>
+        <v>0.991391423414649</v>
       </c>
       <c r="D22">
-        <v>1.01005679669122</v>
+        <v>1.019249265784085</v>
       </c>
       <c r="E22">
-        <v>1.005604240915707</v>
+        <v>1.01343153316416</v>
       </c>
       <c r="F22">
-        <v>1.004667886725346</v>
+        <v>1.023462731756252</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038963537406456</v>
+        <v>1.048486797653176</v>
       </c>
       <c r="J22">
-        <v>1.020404157118985</v>
+        <v>1.022514161370243</v>
       </c>
       <c r="K22">
-        <v>1.025431624856012</v>
+        <v>1.03444879858018</v>
       </c>
       <c r="L22">
-        <v>1.02106548826564</v>
+        <v>1.028741523462613</v>
       </c>
       <c r="M22">
-        <v>1.020147435583906</v>
+        <v>1.038583289297093</v>
       </c>
       <c r="N22">
-        <v>1.009362474053109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.011267860028652</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.039108474520827</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.035496977646477</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9918233863020072</v>
+        <v>0.9929578475774872</v>
       </c>
       <c r="D23">
-        <v>1.012059866425343</v>
+        <v>1.020307385658784</v>
       </c>
       <c r="E23">
-        <v>1.008145311824317</v>
+        <v>1.01471367984973</v>
       </c>
       <c r="F23">
-        <v>1.007461461617908</v>
+        <v>1.024629457800754</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039911910063578</v>
+        <v>1.048869219968891</v>
       </c>
       <c r="J23">
-        <v>1.02225833651894</v>
+        <v>1.023343189890544</v>
       </c>
       <c r="K23">
-        <v>1.027088773729709</v>
+        <v>1.035183252351737</v>
       </c>
       <c r="L23">
-        <v>1.023248003016238</v>
+        <v>1.029692988923086</v>
       </c>
       <c r="M23">
-        <v>1.022577119357116</v>
+        <v>1.039426404209453</v>
       </c>
       <c r="N23">
-        <v>1.010016021843189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011547803223731</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.039775744426024</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.036006649667074</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.00189960609952</v>
+        <v>0.9990176130918295</v>
       </c>
       <c r="D24">
-        <v>1.019712687834468</v>
+        <v>1.024414076429397</v>
       </c>
       <c r="E24">
-        <v>1.017853546362309</v>
+        <v>1.019691140351302</v>
       </c>
       <c r="F24">
-        <v>1.018135254474996</v>
+        <v>1.029160492160385</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043509923926607</v>
+        <v>1.050325412166611</v>
       </c>
       <c r="J24">
-        <v>1.029324727824338</v>
+        <v>1.026553531707955</v>
       </c>
       <c r="K24">
-        <v>1.033402249728234</v>
+        <v>1.038025602107457</v>
       </c>
       <c r="L24">
-        <v>1.031574223709159</v>
+        <v>1.033381062036368</v>
       </c>
       <c r="M24">
-        <v>1.031851207608149</v>
+        <v>1.042694163604822</v>
       </c>
       <c r="N24">
-        <v>1.012506017839067</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012634190925726</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.042361954855273</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.038008834400182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.012989867643451</v>
+        <v>1.005815166756172</v>
       </c>
       <c r="D25">
-        <v>1.028156935008201</v>
+        <v>1.029032142440673</v>
       </c>
       <c r="E25">
-        <v>1.028568823908947</v>
+        <v>1.025304535311788</v>
       </c>
       <c r="F25">
-        <v>1.029919336961002</v>
+        <v>1.034273443604966</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047428533143439</v>
+        <v>1.051899849351116</v>
       </c>
       <c r="J25">
-        <v>1.037087841846997</v>
+        <v>1.030148399763775</v>
       </c>
       <c r="K25">
-        <v>1.040333327605825</v>
+        <v>1.04119588923753</v>
       </c>
       <c r="L25">
-        <v>1.040739261760255</v>
+        <v>1.037522332047006</v>
       </c>
       <c r="M25">
-        <v>1.042070292544608</v>
+        <v>1.04636202595458</v>
       </c>
       <c r="N25">
-        <v>1.015239350492366</v>
+        <v>1.013850623414014</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.045264808723385</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.040247521826195</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_37/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011038843954704</v>
+        <v>1.010324590954407</v>
       </c>
       <c r="D2">
-        <v>1.032575141840951</v>
+        <v>1.031301250140408</v>
       </c>
       <c r="E2">
-        <v>1.029637058104364</v>
+        <v>1.02888231859275</v>
       </c>
       <c r="F2">
-        <v>1.038221348638082</v>
+        <v>1.037378307614549</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.053051306116509</v>
+        <v>1.052404398761422</v>
       </c>
       <c r="J2">
-        <v>1.032894324569872</v>
+        <v>1.032200820337688</v>
       </c>
       <c r="K2">
-        <v>1.043598567129212</v>
+        <v>1.042341074837158</v>
       </c>
       <c r="L2">
-        <v>1.04069838322942</v>
+        <v>1.039953423222296</v>
       </c>
       <c r="M2">
-        <v>1.049172692584309</v>
+        <v>1.048340351870897</v>
       </c>
       <c r="N2">
-        <v>1.01477612270671</v>
+        <v>1.015673243625663</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.047489244968865</v>
+        <v>1.046830509114348</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.041898245102819</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.041017833376589</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023310118263936</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.014750779899529</v>
+        <v>1.013893087523984</v>
       </c>
       <c r="D3">
-        <v>1.035103002518857</v>
+        <v>1.033651730559288</v>
       </c>
       <c r="E3">
-        <v>1.032729880666551</v>
+        <v>1.031834024708015</v>
       </c>
       <c r="F3">
-        <v>1.041040699056491</v>
+        <v>1.040063780983343</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.053845306304563</v>
+        <v>1.053107566924834</v>
       </c>
       <c r="J3">
-        <v>1.034847244363394</v>
+        <v>1.034012047169286</v>
       </c>
       <c r="K3">
-        <v>1.045305602492955</v>
+        <v>1.04387140236509</v>
       </c>
       <c r="L3">
-        <v>1.04296042738219</v>
+        <v>1.042075162748991</v>
       </c>
       <c r="M3">
-        <v>1.051174064491154</v>
+        <v>1.050208470288238</v>
       </c>
       <c r="N3">
-        <v>1.015436325334969</v>
+        <v>1.016159397395282</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.049073179786195</v>
+        <v>1.048308985272028</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.043102604212309</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.04209696943419</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023617022112834</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.017111415117444</v>
+        <v>1.016163471155521</v>
       </c>
       <c r="D4">
-        <v>1.036712012054523</v>
+        <v>1.035148591822028</v>
       </c>
       <c r="E4">
-        <v>1.03470228628819</v>
+        <v>1.033717460906683</v>
       </c>
       <c r="F4">
-        <v>1.042839096667831</v>
+        <v>1.041777688479863</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.054336499424637</v>
+        <v>1.053541215257613</v>
       </c>
       <c r="J4">
-        <v>1.036087311147418</v>
+        <v>1.035162559921783</v>
       </c>
       <c r="K4">
-        <v>1.046386660861759</v>
+        <v>1.044840533719226</v>
       </c>
       <c r="L4">
-        <v>1.04439917659047</v>
+        <v>1.043425289038845</v>
       </c>
       <c r="M4">
-        <v>1.052446586846443</v>
+        <v>1.051396743249551</v>
       </c>
       <c r="N4">
-        <v>1.015855536976119</v>
+        <v>1.016468256181258</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.050080283435102</v>
+        <v>1.049249413008584</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.043867889234473</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.042783195411833</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023808941599825</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018096981024355</v>
+        <v>1.017111574163944</v>
       </c>
       <c r="D5">
-        <v>1.037385635975159</v>
+        <v>1.03577561494808</v>
       </c>
       <c r="E5">
-        <v>1.03552745774927</v>
+        <v>1.034505672025734</v>
       </c>
       <c r="F5">
-        <v>1.043591624143115</v>
+        <v>1.042495118532824</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.054539405651549</v>
+        <v>1.053720182311505</v>
       </c>
       <c r="J5">
-        <v>1.036605792175479</v>
+        <v>1.035643779647096</v>
       </c>
       <c r="K5">
-        <v>1.046839024923585</v>
+        <v>1.045246342956529</v>
       </c>
       <c r="L5">
-        <v>1.045000864156788</v>
+        <v>1.043990123327348</v>
       </c>
       <c r="M5">
-        <v>1.052978790498913</v>
+        <v>1.051893915246821</v>
       </c>
       <c r="N5">
-        <v>1.016031187481894</v>
+        <v>1.01659773887835</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.050501481322004</v>
+        <v>1.049642886504912</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.04419487574242</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.043077974945258</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023889109108789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018265242309487</v>
+        <v>1.017273447566575</v>
       </c>
       <c r="D6">
-        <v>1.037502561413661</v>
+        <v>1.035884676907011</v>
       </c>
       <c r="E6">
-        <v>1.035668896211095</v>
+        <v>1.034640818040806</v>
       </c>
       <c r="F6">
-        <v>1.043720696671044</v>
+        <v>1.042618241509708</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.054575291739973</v>
+        <v>1.053752027504104</v>
       </c>
       <c r="J6">
-        <v>1.036695783710965</v>
+        <v>1.03572741478373</v>
       </c>
       <c r="K6">
-        <v>1.046918797032819</v>
+        <v>1.045318257238075</v>
       </c>
       <c r="L6">
-        <v>1.045104794862155</v>
+        <v>1.044087778507803</v>
       </c>
       <c r="M6">
-        <v>1.053070882229103</v>
+        <v>1.051980067241148</v>
       </c>
       <c r="N6">
-        <v>1.016062134197498</v>
+        <v>1.016620592376087</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.050574364755162</v>
+        <v>1.049711069178321</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.044259975782775</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.043138387530125</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023903764158474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.017133568788412</v>
+        <v>1.016192464410171</v>
       </c>
       <c r="D7">
-        <v>1.036732222810346</v>
+        <v>1.035173218939364</v>
       </c>
       <c r="E7">
-        <v>1.034722124540476</v>
+        <v>1.033743441009923</v>
       </c>
       <c r="F7">
-        <v>1.042857390701724</v>
+        <v>1.041800698352372</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.054344921533072</v>
+        <v>1.053551880575995</v>
       </c>
       <c r="J7">
-        <v>1.036102989259313</v>
+        <v>1.035184900329694</v>
       </c>
       <c r="K7">
-        <v>1.046403788854827</v>
+        <v>1.044862022566137</v>
       </c>
       <c r="L7">
-        <v>1.044415927739179</v>
+        <v>1.04344810961256</v>
       </c>
       <c r="M7">
-        <v>1.052461844507349</v>
+        <v>1.051416660981435</v>
       </c>
       <c r="N7">
-        <v>1.015862099105176</v>
+        <v>1.016501142868137</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.050092358692879</v>
+        <v>1.049265176369422</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.043900000792725</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.042820388848104</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023815049844656</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012313111418913</v>
+        <v>1.011573055000102</v>
       </c>
       <c r="D8">
-        <v>1.03344875419412</v>
+        <v>1.032130247961081</v>
       </c>
       <c r="E8">
-        <v>1.030699233444806</v>
+        <v>1.029917269279294</v>
       </c>
       <c r="F8">
-        <v>1.039189710979747</v>
+        <v>1.038317349600641</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.053331313772621</v>
+        <v>1.052661519644155</v>
       </c>
       <c r="J8">
-        <v>1.033570067458921</v>
+        <v>1.032850792132612</v>
       </c>
       <c r="K8">
-        <v>1.044193928740901</v>
+        <v>1.042891896278515</v>
       </c>
       <c r="L8">
-        <v>1.041478820719792</v>
+        <v>1.040706685397638</v>
       </c>
       <c r="M8">
-        <v>1.04986376283284</v>
+        <v>1.049002145763743</v>
       </c>
       <c r="N8">
-        <v>1.015006198133942</v>
+        <v>1.015927789963463</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.048036175296883</v>
+        <v>1.047354269875144</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.042342008826798</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.041432370099732</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023424375201672</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.003475381666826</v>
+        <v>1.003086517996299</v>
       </c>
       <c r="D9">
-        <v>1.02743414341437</v>
+        <v>1.02654421359353</v>
       </c>
       <c r="E9">
-        <v>1.023366733444519</v>
+        <v>1.022928682142086</v>
       </c>
       <c r="F9">
-        <v>1.032507942514817</v>
+        <v>1.031960789106994</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.051360373673563</v>
+        <v>1.050909337717607</v>
       </c>
       <c r="J9">
-        <v>1.02890600934053</v>
+        <v>1.028530752186587</v>
       </c>
       <c r="K9">
-        <v>1.040097266773624</v>
+        <v>1.039220824473636</v>
       </c>
       <c r="L9">
-        <v>1.036091745426341</v>
+        <v>1.035660396844241</v>
       </c>
       <c r="M9">
-        <v>1.04509473392309</v>
+        <v>1.044555766132387</v>
       </c>
       <c r="N9">
-        <v>1.013428086305389</v>
+        <v>1.01477707398196</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.04426183793624</v>
+        <v>1.043835283153093</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.039442257204884</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.038833260499084</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022673292282253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9974018342835006</v>
+        <v>0.9972921019237999</v>
       </c>
       <c r="D10">
-        <v>1.023327926043464</v>
+        <v>1.022757604003538</v>
       </c>
       <c r="E10">
-        <v>1.018384575275836</v>
+        <v>1.018215881456383</v>
       </c>
       <c r="F10">
-        <v>1.028002894992612</v>
+        <v>1.027705449170622</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.049951746252679</v>
+        <v>1.0496631246582</v>
       </c>
       <c r="J10">
-        <v>1.02571891637085</v>
+        <v>1.025613570587568</v>
       </c>
       <c r="K10">
-        <v>1.037288385541965</v>
+        <v>1.036727770542344</v>
       </c>
       <c r="L10">
-        <v>1.032429639145057</v>
+        <v>1.032263851227332</v>
       </c>
       <c r="M10">
-        <v>1.041884308733353</v>
+        <v>1.04159186458774</v>
       </c>
       <c r="N10">
-        <v>1.012356100625969</v>
+        <v>1.014115870931342</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.041772243999462</v>
+        <v>1.041540808754536</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.037472971142779</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.037088964574205</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022158079166653</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9951746081553241</v>
+        <v>0.9951988232669651</v>
       </c>
       <c r="D11">
-        <v>1.021941331266661</v>
+        <v>1.02150528789698</v>
       </c>
       <c r="E11">
-        <v>1.016758892575567</v>
+        <v>1.016716202718219</v>
       </c>
       <c r="F11">
-        <v>1.02679070816024</v>
+        <v>1.02660627649558</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.049528980564209</v>
+        <v>1.04930844894362</v>
       </c>
       <c r="J11">
-        <v>1.024749516069785</v>
+        <v>1.024772709872813</v>
       </c>
       <c r="K11">
-        <v>1.036460998367349</v>
+        <v>1.03603273046465</v>
       </c>
       <c r="L11">
-        <v>1.031371533092852</v>
+        <v>1.031329614212581</v>
       </c>
       <c r="M11">
-        <v>1.041224478839995</v>
+        <v>1.041043294746715</v>
       </c>
       <c r="N11">
-        <v>1.012080467547201</v>
+        <v>1.014155430449457</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.041684665177011</v>
+        <v>1.041541350767467</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.036920730816664</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.036633514449893</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022051289325942</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9945020528654153</v>
+        <v>0.9945647804898495</v>
       </c>
       <c r="D12">
-        <v>1.021568050417497</v>
+        <v>1.021169180169693</v>
       </c>
       <c r="E12">
-        <v>1.016351182760011</v>
+        <v>1.016344450293899</v>
       </c>
       <c r="F12">
-        <v>1.026612694185598</v>
+        <v>1.026460800059466</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.049441948013748</v>
+        <v>1.049240261450941</v>
       </c>
       <c r="J12">
-        <v>1.024540932184904</v>
+        <v>1.024600963240716</v>
       </c>
       <c r="K12">
-        <v>1.03629338634139</v>
+        <v>1.035901747597368</v>
       </c>
       <c r="L12">
-        <v>1.031171684359414</v>
+        <v>1.031165075528625</v>
       </c>
       <c r="M12">
-        <v>1.041247200702021</v>
+        <v>1.041098024516812</v>
       </c>
       <c r="N12">
-        <v>1.01204943978764</v>
+        <v>1.014238055602408</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.042027930676574</v>
+        <v>1.041909973807979</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.036802224269934</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.036540907640565</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022049092795083</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9949953778514324</v>
+        <v>0.9950142763780118</v>
       </c>
       <c r="D13">
-        <v>1.021966424440649</v>
+        <v>1.021524570769814</v>
       </c>
       <c r="E13">
-        <v>1.016868593386129</v>
+        <v>1.016820714942504</v>
       </c>
       <c r="F13">
-        <v>1.027239341613293</v>
+        <v>1.027052184633088</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.04962165430748</v>
+        <v>1.049398219941195</v>
       </c>
       <c r="J13">
-        <v>1.024919661011864</v>
+        <v>1.024937751188271</v>
       </c>
       <c r="K13">
-        <v>1.036641881853152</v>
+        <v>1.036208004562023</v>
       </c>
       <c r="L13">
-        <v>1.03163662585738</v>
+        <v>1.031589622600156</v>
       </c>
       <c r="M13">
-        <v>1.0418202992178</v>
+        <v>1.041636474855349</v>
       </c>
       <c r="N13">
-        <v>1.012211565558933</v>
+        <v>1.014328490330537</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.042756889484932</v>
+        <v>1.042611571867448</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.037046134730515</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.036754707541004</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022132366884702</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9958691581116722</v>
+        <v>0.9958211089253287</v>
       </c>
       <c r="D14">
-        <v>1.022595710538383</v>
+        <v>1.022088299130035</v>
       </c>
       <c r="E14">
-        <v>1.017649796782149</v>
+        <v>1.017539132710101</v>
       </c>
       <c r="F14">
-        <v>1.028042659999045</v>
+        <v>1.027800913811911</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I14">
-        <v>1.049868385594623</v>
+        <v>1.04961175670778</v>
       </c>
       <c r="J14">
-        <v>1.025450701680307</v>
+        <v>1.025404678120649</v>
       </c>
       <c r="K14">
-        <v>1.037120152272263</v>
+        <v>1.036621786529071</v>
       </c>
       <c r="L14">
-        <v>1.032262909645471</v>
+        <v>1.032154242393733</v>
       </c>
       <c r="M14">
-        <v>1.042470727425796</v>
+        <v>1.042233230440915</v>
       </c>
       <c r="N14">
-        <v>1.012412543170252</v>
+        <v>1.014396842111504</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.043443878177352</v>
+        <v>1.043256156276086</v>
       </c>
       <c r="Q14">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.037385706591822</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.037048816874298</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.02222982672265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9963409160642409</v>
+        <v>0.9962590642931922</v>
       </c>
       <c r="D15">
-        <v>1.022923988394973</v>
+        <v>1.022383319151422</v>
       </c>
       <c r="E15">
-        <v>1.018049833418</v>
+        <v>1.017907423998841</v>
       </c>
       <c r="F15">
-        <v>1.028425871526052</v>
+        <v>1.028156316997334</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.049990135740305</v>
+        <v>1.04971665831037</v>
       </c>
       <c r="J15">
-        <v>1.025714697890175</v>
+        <v>1.025636266513903</v>
       </c>
       <c r="K15">
-        <v>1.03735656335096</v>
+        <v>1.036825459359587</v>
       </c>
       <c r="L15">
-        <v>1.03256911623485</v>
+        <v>1.032429256397557</v>
       </c>
       <c r="M15">
-        <v>1.042761850442427</v>
+        <v>1.042496997268617</v>
       </c>
       <c r="N15">
-        <v>1.012506392930356</v>
+        <v>1.014420319900307</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.043711420174254</v>
+        <v>1.043502080933276</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.03755870993422</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.037199241347568</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02227470863078</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9988220111645448</v>
+        <v>0.9985792178673941</v>
       </c>
       <c r="D16">
-        <v>1.024595551429705</v>
+        <v>1.02389270439344</v>
       </c>
       <c r="E16">
-        <v>1.020068653694056</v>
+        <v>1.019774308081176</v>
       </c>
       <c r="F16">
-        <v>1.030240392766875</v>
+        <v>1.029835952779679</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.050574547977038</v>
+        <v>1.050218828908622</v>
       </c>
       <c r="J16">
-        <v>1.027005509296864</v>
+        <v>1.026772353522183</v>
       </c>
       <c r="K16">
-        <v>1.03849906861349</v>
+        <v>1.03780811321278</v>
       </c>
       <c r="L16">
-        <v>1.034049133490768</v>
+        <v>1.033759822670167</v>
       </c>
       <c r="M16">
-        <v>1.04404916159437</v>
+        <v>1.043651465606033</v>
       </c>
       <c r="N16">
-        <v>1.012934284789879</v>
+        <v>1.014512444144787</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.044690303347538</v>
+        <v>1.044375956524893</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.038369652955238</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.037897460685397</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022476155565288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.000268674818454</v>
+        <v>0.9999458216829192</v>
       </c>
       <c r="D17">
-        <v>1.025548597271643</v>
+        <v>1.024761287057453</v>
       </c>
       <c r="E17">
-        <v>1.021208636651883</v>
+        <v>1.020838043675525</v>
       </c>
       <c r="F17">
-        <v>1.031208048478843</v>
+        <v>1.030734520135879</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.050889909702608</v>
+        <v>1.050491295263281</v>
       </c>
       <c r="J17">
-        <v>1.027716532163286</v>
+        <v>1.027406082042901</v>
       </c>
       <c r="K17">
-        <v>1.039123020482404</v>
+        <v>1.038348657006588</v>
       </c>
       <c r="L17">
-        <v>1.034854747019966</v>
+        <v>1.034490311847414</v>
       </c>
       <c r="M17">
-        <v>1.044690153227603</v>
+        <v>1.044224299297429</v>
       </c>
       <c r="N17">
-        <v>1.013156874969606</v>
+        <v>1.014575981434502</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.045068328330602</v>
+        <v>1.044700071579717</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.038813385930816</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.038282467360843</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022579805160131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.000948633292496</v>
+        <v>1.000598412152425</v>
       </c>
       <c r="D18">
-        <v>1.02595346660193</v>
+        <v>1.025134811189467</v>
       </c>
       <c r="E18">
-        <v>1.021674201504557</v>
+        <v>1.021277123549263</v>
       </c>
       <c r="F18">
-        <v>1.03149978223003</v>
+        <v>1.031000929164775</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I18">
-        <v>1.0509963166043</v>
+        <v>1.050581744364436</v>
       </c>
       <c r="J18">
-        <v>1.027975850245921</v>
+        <v>1.027638831243682</v>
       </c>
       <c r="K18">
-        <v>1.03933875837052</v>
+        <v>1.038533344670431</v>
       </c>
       <c r="L18">
-        <v>1.035129011489177</v>
+        <v>1.034738422174055</v>
       </c>
       <c r="M18">
-        <v>1.044796072082179</v>
+        <v>1.044305173895668</v>
       </c>
       <c r="N18">
-        <v>1.013215007323305</v>
+        <v>1.014576867251173</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.044915227314367</v>
+        <v>1.044527092724724</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.038954322346316</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.038400314890371</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022601062482886</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.000940261601709</v>
+        <v>1.000604923244325</v>
       </c>
       <c r="D19">
-        <v>1.02587141379151</v>
+        <v>1.025066320102961</v>
       </c>
       <c r="E19">
-        <v>1.021531978212173</v>
+        <v>1.021148764383675</v>
       </c>
       <c r="F19">
-        <v>1.031182097896246</v>
+        <v>1.030694068680473</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.050920940994571</v>
+        <v>1.050513210262028</v>
       </c>
       <c r="J19">
-        <v>1.027833374190104</v>
+        <v>1.027510603061258</v>
       </c>
       <c r="K19">
-        <v>1.03919579963058</v>
+        <v>1.038403661330471</v>
       </c>
       <c r="L19">
-        <v>1.034926503595734</v>
+        <v>1.034549520560668</v>
       </c>
       <c r="M19">
-        <v>1.044421674630211</v>
+        <v>1.043941392292165</v>
       </c>
       <c r="N19">
-        <v>1.01313046473389</v>
+        <v>1.014505678874788</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.044295022023419</v>
+        <v>1.043915157829915</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.038859619551645</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.038315623086107</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022550288379855</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9989987167441656</v>
+        <v>0.9987932772562571</v>
       </c>
       <c r="D20">
-        <v>1.024418924105893</v>
+        <v>1.023749869417342</v>
       </c>
       <c r="E20">
-        <v>1.019696552694381</v>
+        <v>1.019437105004964</v>
       </c>
       <c r="F20">
-        <v>1.029190900182773</v>
+        <v>1.028812324569741</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.050336024929021</v>
+        <v>1.049997309807659</v>
       </c>
       <c r="J20">
-        <v>1.026568290820885</v>
+        <v>1.026370795424617</v>
       </c>
       <c r="K20">
-        <v>1.038045568785992</v>
+        <v>1.037387577169158</v>
       </c>
       <c r="L20">
-        <v>1.033401683548165</v>
+        <v>1.033146575055577</v>
       </c>
       <c r="M20">
-        <v>1.042739174550616</v>
+        <v>1.042366782172087</v>
       </c>
       <c r="N20">
-        <v>1.012645727457429</v>
+        <v>1.014222065518644</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.042438270194012</v>
+        <v>1.042143561808593</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.03805027696643</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.037601519414002</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02229705639658</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9943510822116884</v>
+        <v>0.9944708854013906</v>
       </c>
       <c r="D21">
-        <v>1.021256834659187</v>
+        <v>1.020909608928332</v>
       </c>
       <c r="E21">
-        <v>1.015857675475991</v>
+        <v>1.015904474346482</v>
       </c>
       <c r="F21">
-        <v>1.025670611914836</v>
+        <v>1.025561979990893</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.049212379580241</v>
+        <v>1.049036783349041</v>
       </c>
       <c r="J21">
-        <v>1.024086895794645</v>
+        <v>1.024201609458152</v>
       </c>
       <c r="K21">
-        <v>1.035846378499465</v>
+        <v>1.035505382892703</v>
       </c>
       <c r="L21">
-        <v>1.030544720985272</v>
+        <v>1.030590668936741</v>
       </c>
       <c r="M21">
-        <v>1.040181438159104</v>
+        <v>1.040074733081306</v>
       </c>
       <c r="N21">
-        <v>1.011801553725254</v>
+        <v>1.014056237015705</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.040373303526662</v>
+        <v>1.040288853592155</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.036498597790441</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.036274300641585</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021903766971095</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.991391423414649</v>
+        <v>0.991717336178692</v>
       </c>
       <c r="D22">
-        <v>1.019249265784085</v>
+        <v>1.019105931616804</v>
       </c>
       <c r="E22">
-        <v>1.01343153316416</v>
+        <v>1.013671959789301</v>
       </c>
       <c r="F22">
-        <v>1.023462731756252</v>
+        <v>1.023525187046997</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.048486797653176</v>
+        <v>1.048414360451546</v>
       </c>
       <c r="J22">
-        <v>1.022514161370243</v>
+        <v>1.022825417943225</v>
       </c>
       <c r="K22">
-        <v>1.03444879858018</v>
+        <v>1.034308166008343</v>
       </c>
       <c r="L22">
-        <v>1.028741523462613</v>
+        <v>1.028977352396296</v>
       </c>
       <c r="M22">
-        <v>1.038583289297093</v>
+        <v>1.038644580335986</v>
       </c>
       <c r="N22">
-        <v>1.011267860028652</v>
+        <v>1.013945362293319</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.039108474520827</v>
+        <v>1.039156982360909</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.035496977646477</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.03541304923409</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021652289873992</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9929578475774872</v>
+        <v>0.9931620743225206</v>
       </c>
       <c r="D23">
-        <v>1.020307385658784</v>
+        <v>1.020047246713277</v>
       </c>
       <c r="E23">
-        <v>1.01471367984973</v>
+        <v>1.014840318831638</v>
       </c>
       <c r="F23">
-        <v>1.024629457800754</v>
+        <v>1.024592347635444</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.048869219968891</v>
+        <v>1.048737706217667</v>
       </c>
       <c r="J23">
-        <v>1.023343189890544</v>
+        <v>1.023538503374139</v>
       </c>
       <c r="K23">
-        <v>1.035183252351737</v>
+        <v>1.034927891294906</v>
       </c>
       <c r="L23">
-        <v>1.029692988923086</v>
+        <v>1.029817269556159</v>
       </c>
       <c r="M23">
-        <v>1.039426404209453</v>
+        <v>1.039389967982545</v>
       </c>
       <c r="N23">
-        <v>1.011547803223731</v>
+        <v>1.013958889982281</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.039775744426024</v>
+        <v>1.039746907565813</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.036006649667074</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.035840659617861</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021780743881219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9990176130918295</v>
+        <v>0.9988130837917798</v>
       </c>
       <c r="D24">
-        <v>1.024414076429397</v>
+        <v>1.023745396106787</v>
       </c>
       <c r="E24">
-        <v>1.019691140351302</v>
+        <v>1.019432514347753</v>
       </c>
       <c r="F24">
-        <v>1.029160492160385</v>
+        <v>1.028782352812028</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.050325412166611</v>
+        <v>1.04998688111844</v>
       </c>
       <c r="J24">
-        <v>1.026553531707955</v>
+        <v>1.026356899759906</v>
       </c>
       <c r="K24">
-        <v>1.038025602107457</v>
+        <v>1.03736796463836</v>
       </c>
       <c r="L24">
-        <v>1.033381062036368</v>
+        <v>1.033126755996203</v>
       </c>
       <c r="M24">
-        <v>1.042694163604822</v>
+        <v>1.042322192933901</v>
       </c>
       <c r="N24">
-        <v>1.012634190925726</v>
+        <v>1.014209739691515</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.042361954855273</v>
+        <v>1.042067565707304</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.038008834400182</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.037557655393814</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022287824053916</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.005815166756172</v>
+        <v>1.005322715532425</v>
       </c>
       <c r="D25">
-        <v>1.029032142440673</v>
+        <v>1.028021896025779</v>
       </c>
       <c r="E25">
-        <v>1.025304535311788</v>
+        <v>1.024766048559612</v>
       </c>
       <c r="F25">
-        <v>1.034273443604966</v>
+        <v>1.033632918012938</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.051899849351116</v>
+        <v>1.051387532657144</v>
       </c>
       <c r="J25">
-        <v>1.030148399763775</v>
+        <v>1.029672267322038</v>
       </c>
       <c r="K25">
-        <v>1.04119588923753</v>
+        <v>1.040200242220843</v>
       </c>
       <c r="L25">
-        <v>1.037522332047006</v>
+        <v>1.036991694534092</v>
       </c>
       <c r="M25">
-        <v>1.04636202595458</v>
+        <v>1.045730634271339</v>
       </c>
       <c r="N25">
-        <v>1.013850623414014</v>
+        <v>1.015052182811468</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.045264808723385</v>
+        <v>1.044765107644134</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.040247521826195</v>
+        <v>1.039557042408755</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022877131846794</v>
       </c>
     </row>
   </sheetData>
